--- a/etc/Interlock_RF_EPICS_V2.xlsx
+++ b/etc/Interlock_RF_EPICS_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21120"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranieri.santos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C74749-07EB-4752-91A7-3E5E7996F848}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24670902-8833-42E4-8841-FA50EFECD258}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="43080" windowHeight="6375" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43080" windowHeight="6375" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Anel!$B$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Booster!$B$1:$I$68</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="612">
   <si>
     <t>Variável</t>
   </si>
@@ -880,7 +880,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Feito</t>
+    <t>TAG</t>
   </si>
   <si>
     <t xml:space="preserve">Detector de Arco </t>
@@ -889,7 +889,7 @@
     <t>BO</t>
   </si>
   <si>
-    <t>Memorias[1] S 5</t>
+    <t>Memorias[1].5</t>
   </si>
   <si>
     <t>Digital</t>
@@ -898,7 +898,7 @@
     <t>Input</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Memorias[1] B 5</t>
   </si>
   <si>
     <t>N/A</t>
@@ -910,51 +910,81 @@
     <t>Heater-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 28</t>
-  </si>
-  <si>
-    <t>Memorias[0] S 29</t>
+    <t>Memorias[0].28</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 28</t>
+  </si>
+  <si>
+    <t>Memorias[0].29</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 29</t>
   </si>
   <si>
     <t>Vazão Circulador (Via Skid)</t>
   </si>
   <si>
-    <t>Memorias[0] S 30</t>
+    <t>Memorias[0].30</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 30</t>
   </si>
   <si>
     <t xml:space="preserve">Bobinas do circulador </t>
   </si>
   <si>
-    <t>Memorias[1] S 0</t>
-  </si>
-  <si>
-    <t>Memorias[1] S 1</t>
-  </si>
-  <si>
-    <t>Memorias[1] S 2</t>
+    <t>Memorias[1].0</t>
+  </si>
+  <si>
+    <t>Memorias[1] B 0</t>
+  </si>
+  <si>
+    <t>Memorias[1].1</t>
+  </si>
+  <si>
+    <t>Memorias[1] B 1</t>
+  </si>
+  <si>
+    <t>Memorias[1].2</t>
+  </si>
+  <si>
+    <t>Memorias[1] B 2</t>
   </si>
   <si>
     <t>Drift de Temp muito Alto</t>
   </si>
   <si>
-    <t>Memorias[1] S 3</t>
-  </si>
-  <si>
-    <t>Memorias[1] S 4</t>
+    <t>Memorias[1].3</t>
+  </si>
+  <si>
+    <t>Memorias[1] B 3</t>
+  </si>
+  <si>
+    <t>Memorias[1].4</t>
+  </si>
+  <si>
+    <t>Memorias[1] B 4</t>
   </si>
   <si>
     <t>Vazão Carga 70kW</t>
   </si>
   <si>
-    <t>Memorias[0] S 31</t>
-  </si>
-  <si>
-    <t>Memorias[5] S 7</t>
+    <t>Memorias[0].31</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 31</t>
+  </si>
+  <si>
+    <t>Memorias[5].7</t>
   </si>
   <si>
     <t>Control</t>
   </si>
   <si>
+    <t>Memorias[5] B 7</t>
+  </si>
+  <si>
     <t>Termostato Barra Dissipadora 01</t>
   </si>
   <si>
@@ -964,7 +994,10 @@
     <t>H01</t>
   </si>
   <si>
-    <t>Memorias[0] S 21</t>
+    <t>Memorias[0].21</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 21</t>
   </si>
   <si>
     <t>Termostato Barra Dissipadora 02</t>
@@ -973,7 +1006,10 @@
     <t>H02</t>
   </si>
   <si>
-    <t>Memorias[0] S 22</t>
+    <t>Memorias[0].22</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 22</t>
   </si>
   <si>
     <t>Termostato Barra Dissipadora 03</t>
@@ -982,7 +1018,10 @@
     <t>H03</t>
   </si>
   <si>
-    <t>Memorias[0] S 23</t>
+    <t>Memorias[0].23</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 23</t>
   </si>
   <si>
     <t>Termostato Barra Dissipadora 04</t>
@@ -991,7 +1030,10 @@
     <t>H04</t>
   </si>
   <si>
-    <t>Memorias[0] S 24</t>
+    <t>Memorias[0].24</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 24</t>
   </si>
   <si>
     <t>Termostato Barra Dissipadora 05</t>
@@ -1000,7 +1042,10 @@
     <t>H05</t>
   </si>
   <si>
-    <t>Memorias[0] S 25</t>
+    <t>Memorias[0].25</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 25</t>
   </si>
   <si>
     <t>Termostato Barra Dissipadora 06</t>
@@ -1009,7 +1054,10 @@
     <t>H06</t>
   </si>
   <si>
-    <t>Memorias[0] S 26</t>
+    <t>Memorias[0].26</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 26</t>
   </si>
   <si>
     <t>PT - 100 Barra Dissipadora 01</t>
@@ -1063,37 +1111,55 @@
     <t>BO-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 2</t>
+    <t>Memorias[0].2</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 2</t>
   </si>
   <si>
     <t>Sinal de erro do CLP para o LLRF</t>
   </si>
   <si>
-    <t>Memorias[6] S 3</t>
+    <t>Memorias[6].3</t>
   </si>
   <si>
     <t>Output</t>
   </si>
   <si>
+    <t>Memorias[6] B 3</t>
+  </si>
+  <si>
     <t>Emergencia sistema de interlock</t>
   </si>
   <si>
-    <t>Memorias[1] S 6</t>
+    <t>Memorias[1].6</t>
+  </si>
+  <si>
+    <t>Memorias[1] B 6</t>
   </si>
   <si>
     <t>Reset de Falhas (Reseta todas as falhas do sistema remotamente)</t>
   </si>
   <si>
-    <t>Memorias[5] S 19</t>
-  </si>
-  <si>
-    <t>Memorias[0] S 0</t>
+    <t>Memorias[5].19</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 19</t>
+  </si>
+  <si>
+    <t>Memorias[0].0</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 0</t>
   </si>
   <si>
     <t>Interlock LLRF para o CLP</t>
   </si>
   <si>
-    <t>Memorias[0] S 1</t>
+    <t>Memorias[0].1</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 1</t>
   </si>
   <si>
     <t>Termostato Pré-Amp 50 W</t>
@@ -1120,7 +1186,10 @@
     <t>Pressure-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 3</t>
+    <t>Memorias[0].3</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 3</t>
   </si>
   <si>
     <t xml:space="preserve">Petra V Termostato Disco 01 </t>
@@ -1129,7 +1198,10 @@
     <t>Disc1Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 4</t>
+    <t>Memorias[0].4</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 4</t>
   </si>
   <si>
     <t>Petra V Termostato Cilindro 01</t>
@@ -1138,7 +1210,10 @@
     <t>Cilin1Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 5</t>
+    <t>Memorias[0].5</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 5</t>
   </si>
   <si>
     <t>Petra V Termostato Disco 02</t>
@@ -1147,7 +1222,10 @@
     <t>Disc2Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 6</t>
+    <t>Memorias[0].6</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 6</t>
   </si>
   <si>
     <t>Petra V Termostato Cilindro 02</t>
@@ -1156,7 +1234,10 @@
     <t>Cilin2Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 7</t>
+    <t>Memorias[0].7</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 7</t>
   </si>
   <si>
     <t>Petra V Termostato Disco 03</t>
@@ -1165,7 +1246,10 @@
     <t>Disc3Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 8</t>
+    <t>Memorias[0].8</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 8</t>
   </si>
   <si>
     <t>Petra V Termostato Cilindro 03</t>
@@ -1174,7 +1258,10 @@
     <t>Cilin3Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 9</t>
+    <t>Memorias[0].9</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 9</t>
   </si>
   <si>
     <t>Petra V Termostato Disco 04</t>
@@ -1183,7 +1270,10 @@
     <t>Disc4Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 10</t>
+    <t>Memorias[0].10</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 10</t>
   </si>
   <si>
     <t>Petra V Termostato Cilindro 04</t>
@@ -1192,7 +1282,10 @@
     <t>Cilin4Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 11</t>
+    <t>Memorias[0].11</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 11</t>
   </si>
   <si>
     <t>Petra V Termostato Disco 05</t>
@@ -1201,7 +1294,10 @@
     <t>Disc5Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 12</t>
+    <t>Memorias[0].12</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 12</t>
   </si>
   <si>
     <t>Petra V Termostato Cilindro 05</t>
@@ -1210,7 +1306,10 @@
     <t>Cilin5Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 13</t>
+    <t>Memorias[0].13</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 13</t>
   </si>
   <si>
     <t>Petra V Termostato Disco 06</t>
@@ -1219,7 +1318,10 @@
     <t>Disc6Tms-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 14</t>
+    <t>Memorias[0].14</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 14</t>
   </si>
   <si>
     <t>Petra V Chave de Fluxo 01</t>
@@ -1228,7 +1330,10 @@
     <t>Hd1FlwRt-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 15</t>
+    <t>Memorias[0].15</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 15</t>
   </si>
   <si>
     <t>Petra V Chave de Fluxo 02</t>
@@ -1237,7 +1342,10 @@
     <t>Hd2FlwRt-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 16</t>
+    <t>Memorias[0].16</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 16</t>
   </si>
   <si>
     <t>Petra V Chave de Fluxo 03</t>
@@ -1246,7 +1354,10 @@
     <t>Hd3FlwRt-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 17</t>
+    <t>Memorias[0].17</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 17</t>
   </si>
   <si>
     <t>Petra V Sensor de Pressão</t>
@@ -1255,7 +1366,10 @@
     <t>CoupPressure-Mon</t>
   </si>
   <si>
-    <t>Memorias[0] S 18</t>
+    <t>Memorias[0].18</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 18</t>
   </si>
   <si>
     <t xml:space="preserve">Petra V Pt - 100 Cilindro 01 </t>
@@ -1312,7 +1426,10 @@
     <t>Interlock Geral Petra V</t>
   </si>
   <si>
-    <t>Memorias[7] S 16</t>
+    <t>Memorias[7].16</t>
+  </si>
+  <si>
+    <t>Memorias[7] B 16</t>
   </si>
   <si>
     <t>Potência de RF</t>
@@ -1327,13 +1444,19 @@
     <t>Status do Trafo 150kVA</t>
   </si>
   <si>
-    <t>Memorias[0] S 19</t>
+    <t>Memorias[0].19</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 19</t>
   </si>
   <si>
     <t>Vazão Rotâmetro (via Skid)</t>
   </si>
   <si>
-    <t>Memorias[0] S 20</t>
+    <t>Memorias[0].20</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 20</t>
   </si>
   <si>
     <t>Chave Pin Lenta</t>
@@ -1342,7 +1465,10 @@
     <t>PinSw-Mon</t>
   </si>
   <si>
-    <t>Memorias[6] S 1</t>
+    <t>Memorias[6].1</t>
+  </si>
+  <si>
+    <t>Memorias[6] B 1</t>
   </si>
   <si>
     <t>Desliga Conversores DC/DC</t>
@@ -1351,7 +1477,10 @@
     <t>PwrCnvDsbl-Sel</t>
   </si>
   <si>
-    <t>Memorias[5] S 29</t>
+    <t>Memorias[5].29</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 29</t>
   </si>
   <si>
     <t>Liga Conversores DC/DC</t>
@@ -1360,7 +1489,10 @@
     <t>PwrCnvEnbl-Sel</t>
   </si>
   <si>
-    <t>Memorias[5] S 23</t>
+    <t>Memorias[5].23</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 23</t>
   </si>
   <si>
     <t>Leitura Conversores DC/DC</t>
@@ -1369,7 +1501,10 @@
     <t>PwrCnv-Sts</t>
   </si>
   <si>
-    <t>Memorias[6] S 0</t>
+    <t>Memorias[6].0</t>
+  </si>
+  <si>
+    <t>Memorias[6] B 0</t>
   </si>
   <si>
     <t>Desliga 300VDC</t>
@@ -1378,7 +1513,10 @@
     <t>300VdcDsbl-Sel</t>
   </si>
   <si>
-    <t>Memorias[0] S 27</t>
+    <t>Memorias[0].27</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 27</t>
   </si>
   <si>
     <t>Liga 300 VDC</t>
@@ -1393,13 +1531,19 @@
     <t>300Vdc-Sts</t>
   </si>
   <si>
-    <t>Memorias[6] S 2</t>
+    <t>Memorias[6].2</t>
+  </si>
+  <si>
+    <t>Memorias[6] B 2</t>
   </si>
   <si>
     <t>Interlock Geral SSA</t>
   </si>
   <si>
-    <t>Memorias[5] S 12</t>
+    <t>Memorias[5].12</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 12</t>
   </si>
   <si>
     <t>Entrada Analogica Reserva CLP Booster 01</t>
@@ -2075,7 +2219,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2171,9 +2315,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2593,22 +2734,22 @@
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2634,17 +2775,17 @@
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="46" t="str">
+      <c r="I2" s="45" t="str">
         <f>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2)</f>
         <v>RA-TL:RF-ArcDetec-SIA:Sts-Mon</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="8">
@@ -2675,10 +2816,10 @@
         <f>IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3,C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3)</f>
         <v>RA-TL:RF-ArcDetec-SIA:Analog-Mon</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8">
@@ -2709,10 +2850,10 @@
         <f>IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4,C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4)</f>
         <v>RA-TL:RF-Circulator-SIA:IntlkOp-Mon</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8">
@@ -2743,10 +2884,10 @@
         <f>IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5,C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5)</f>
         <v>RA-TL:RF-Circulator-SIA:HeaterSts-Mon</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8">
@@ -2777,10 +2918,10 @@
         <f>IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6,C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6)</f>
         <v>RA-TL:RF-Circulator-SIA:IntlkOpSts-Mon</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8">
@@ -2811,10 +2952,10 @@
         <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7)</f>
         <v>RA-TL:RF-Circulator-SIA:FlwRt-Mon</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8">
@@ -2845,10 +2986,10 @@
         <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8)</f>
         <v>RA-TL:RF-Circulator-SIA:Sts-Mon</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8">
@@ -2879,10 +3020,10 @@
         <f>IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9,C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9)</f>
         <v>RA-TL:RF-Circulator-SIA:TDown-Mon</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="8">
@@ -2913,10 +3054,10 @@
         <f>IF(G10="-",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;":"&amp;H10,C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;G10&amp;":"&amp;H10)</f>
         <v>RA-TL:RF-Circulator-SIA:TUp-Mon</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8">
@@ -2947,10 +3088,10 @@
         <f>IF(G11="-",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;":"&amp;H11,C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;G11&amp;":"&amp;H11)</f>
         <v>RA-TL:RF-Circulator-SIA:TDrift-Mon</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8">
@@ -2981,10 +3122,10 @@
         <f>IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12,C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12)</f>
         <v>RA-TL:RF-Circulator-SIA:TEnvi-Mon</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8">
@@ -3015,10 +3156,10 @@
         <f>IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13,C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13)</f>
         <v>RA-TL:RF-Circulator-SIA:LoadFlwRt-Mon</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8">
@@ -3045,14 +3186,14 @@
       <c r="H14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="42" t="str">
+      <c r="I14" s="41" t="str">
         <f>IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14,C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14)</f>
         <v>RA-TL:RF-Circulator-SIA:Sts-Mon</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8">
@@ -3083,10 +3224,10 @@
         <f>IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15,C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15)</f>
         <v>RA-ToSIA01:RF-HeatSink-H01A:Tms-Mon</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8">
@@ -3117,10 +3258,10 @@
         <f>IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16,C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16)</f>
         <v>RA-ToSIA01:RF-HeatSink-H01B:Tms-Mon</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8">
@@ -3151,10 +3292,10 @@
         <f>IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17,C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17)</f>
         <v>RA-ToSIA01:RF-HeatSink-H02A:Tms-Mon</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8">
@@ -3185,10 +3326,10 @@
         <f>IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18)</f>
         <v>RA-ToSIA01:RF-HeatSink-H02B:Tms-Mon</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="8">
@@ -3219,10 +3360,10 @@
         <f>IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19,C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19)</f>
         <v>RA-ToSIA01:RF-HeatSink-H03A:Tms-Mon</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="8">
@@ -3253,10 +3394,10 @@
         <f>IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20,C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20)</f>
         <v>RA-ToSIA01:RF-HeatSink-H03B:Tms-Mon</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="8">
@@ -3287,10 +3428,10 @@
         <f>IF(G21="-",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;":"&amp;H21,C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;G21&amp;":"&amp;H21)</f>
         <v>RA-ToSIA01:RF-HeatSink-H04A:Tms-Mon</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8">
@@ -3321,10 +3462,10 @@
         <f>IF(G22="-",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;":"&amp;H22,C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;G22&amp;":"&amp;H22)</f>
         <v>RA-ToSIA01:RF-HeatSink-H04B:Tms-Mon</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8">
@@ -3355,10 +3496,10 @@
         <f>IF(G23="-",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;":"&amp;H23,C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;G23&amp;":"&amp;H23)</f>
         <v>RA-ToSIA01:RF-HeatSink-H05A:Tms-Mon</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8">
@@ -3389,10 +3530,10 @@
         <f>IF(G24="-",C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;":"&amp;H24,C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;"-"&amp;G24&amp;":"&amp;H24)</f>
         <v>RA-ToSIA01:RF-HeatSink-H05B:Tms-Mon</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8">
@@ -3423,10 +3564,10 @@
         <f>IF(G25="-",C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;":"&amp;H25,C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;"-"&amp;G25&amp;":"&amp;H25)</f>
         <v>RA-ToSIA01:RF-HeatSink-H06A:Tms-Mon</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8">
@@ -3457,10 +3598,10 @@
         <f>IF(G26="-",C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;":"&amp;H26,C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;"-"&amp;G26&amp;":"&amp;H26)</f>
         <v>RA-ToSIA01:RF-HeatSink-H06B:Tms-Mon</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8">
@@ -3491,10 +3632,10 @@
         <f>IF(G27="-",C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;":"&amp;H27,C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;"-"&amp;G27&amp;":"&amp;H27)</f>
         <v>RA-ToSIA01:RF-HeatSink-H07A:Tms-Mon</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8">
@@ -3525,10 +3666,10 @@
         <f>IF(G28="-",C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;":"&amp;H28,C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;"-"&amp;G28&amp;":"&amp;H28)</f>
         <v>RA-ToSIA01:RF-HeatSink-H07B:Tms-Mon</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="8">
@@ -3559,10 +3700,10 @@
         <f>IF(G29="-",C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;":"&amp;H29,C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;"-"&amp;G29&amp;":"&amp;H29)</f>
         <v>RA-ToSIA01:RF-HeatSink-H08A:Tms-Mon</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="8">
@@ -3593,10 +3734,10 @@
         <f>IF(G30="-",C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;":"&amp;H30,C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;"-"&amp;G30&amp;":"&amp;H30)</f>
         <v>RA-ToSIA01:RF-HeatSink-H08B:Tms-Mon</v>
       </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8">
@@ -3627,10 +3768,10 @@
         <f>IF(G31="-",C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;":"&amp;H31,C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;"-"&amp;G31&amp;":"&amp;H31)</f>
         <v>RA-ToSIA01:RF-HeatSink-H01A:T-Mon</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8">
@@ -3661,10 +3802,10 @@
         <f>IF(G32="-",C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;":"&amp;H32,C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;"-"&amp;G32&amp;":"&amp;H32)</f>
         <v>RA-ToSIA01:RF-HeatSink-H01B:T-Mon</v>
       </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8">
@@ -3695,10 +3836,10 @@
         <f>IF(G33="-",C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;":"&amp;H33,C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;"-"&amp;G33&amp;":"&amp;H33)</f>
         <v>RA-ToSIA01:RF-HeatSink-H02A:T-Mon</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8">
@@ -3729,10 +3870,10 @@
         <f>IF(G34="-",C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;":"&amp;H34,C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;"-"&amp;G34&amp;":"&amp;H34)</f>
         <v>RA-ToSIA01:RF-HeatSink-H02B:T-Mon</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8">
@@ -3763,10 +3904,10 @@
         <f>IF(G35="-",C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;":"&amp;H35,C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;"-"&amp;G35&amp;":"&amp;H35)</f>
         <v>RA-ToSIA01:RF-HeatSink-H03A:T-Mon</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8">
@@ -3797,10 +3938,10 @@
         <f>IF(G36="-",C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;":"&amp;H36,C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;"-"&amp;G36&amp;":"&amp;H36)</f>
         <v>RA-ToSIA01:RF-HeatSink-H03B:T-Mon</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="8">
@@ -3831,10 +3972,10 @@
         <f>IF(G37="-",C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;":"&amp;H37,C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;"-"&amp;G37&amp;":"&amp;H37)</f>
         <v>RA-ToSIA01:RF-HeatSink-H04A:T-Mon</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="8">
@@ -3865,10 +4006,10 @@
         <f>IF(G38="-",C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;":"&amp;H38,C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;"-"&amp;G38&amp;":"&amp;H38)</f>
         <v>RA-ToSIA01:RF-HeatSink-H04B:T-Mon</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="8">
@@ -3899,10 +4040,10 @@
         <f>IF(G39="-",C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;":"&amp;H39,C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;"-"&amp;G39&amp;":"&amp;H39)</f>
         <v>RA-ToSIA01:RF-HeatSink-H05A:T-Mon</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="8">
@@ -3933,10 +4074,10 @@
         <f>IF(G40="-",C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;":"&amp;H40,C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;"-"&amp;G40&amp;":"&amp;H40)</f>
         <v>RA-ToSIA01:RF-HeatSink-H05B:T-Mon</v>
       </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="8">
@@ -3967,10 +4108,10 @@
         <f>IF(G41="-",C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;":"&amp;H41,C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;"-"&amp;G41&amp;":"&amp;H41)</f>
         <v>RA-ToSIA01:RF-HeatSink-H06A:T-Mon</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="8">
@@ -4001,10 +4142,10 @@
         <f>IF(G42="-",C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;":"&amp;H42,C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;"-"&amp;G42&amp;":"&amp;H42)</f>
         <v>RA-ToSIA01:RF-HeatSink-H06B:T-Mon</v>
       </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="8">
@@ -4035,10 +4176,10 @@
         <f>IF(G43="-",C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;":"&amp;H43,C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;"-"&amp;G43&amp;":"&amp;H43)</f>
         <v>RA-ToSIA01:RF-HeatSink-H07A:T-Mon</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="8">
@@ -4069,10 +4210,10 @@
         <f>IF(G44="-",C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;":"&amp;H44,C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;"-"&amp;G44&amp;":"&amp;H44)</f>
         <v>RA-ToSIA01:RF-HeatSink-H07B:T-Mon</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="8">
@@ -4103,10 +4244,10 @@
         <f>IF(G45="-",C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;":"&amp;H45,C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;"-"&amp;G45&amp;":"&amp;H45)</f>
         <v>RA-ToSIA01:RF-HeatSink-H08A:T-Mon</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8">
@@ -4137,10 +4278,10 @@
         <f>IF(G46="-",C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;":"&amp;H46,C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;"-"&amp;G46&amp;":"&amp;H46)</f>
         <v>RA-ToSIA01:RF-HeatSink-H08B:T-Mon</v>
       </c>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8">
@@ -4171,10 +4312,10 @@
         <f>IF(G47="-",C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;":"&amp;H47,C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;"-"&amp;G47&amp;":"&amp;H47)</f>
         <v>RA-ToSIA02:RF-HeatSink-H01A:Tms-Mon</v>
       </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="8">
@@ -4205,10 +4346,10 @@
         <f>IF(G48="-",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;":"&amp;H48,C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;"-"&amp;G48&amp;":"&amp;H48)</f>
         <v>RA-ToSIA02:RF-HeatSink-H01B:Tms-Mon</v>
       </c>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="8">
@@ -4239,10 +4380,10 @@
         <f>IF(G49="-",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;":"&amp;H49,C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;"-"&amp;G49&amp;":"&amp;H49)</f>
         <v>RA-ToSIA02:RF-HeatSink-H02A:Tms-Mon</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="8">
@@ -4273,10 +4414,10 @@
         <f>IF(G50="-",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;":"&amp;H50,C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;"-"&amp;G50&amp;":"&amp;H50)</f>
         <v>RA-ToSIA02:RF-HeatSink-H02B:Tms-Mon</v>
       </c>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="8">
@@ -4307,10 +4448,10 @@
         <f>IF(G51="-",C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;":"&amp;H51,C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;"-"&amp;G51&amp;":"&amp;H51)</f>
         <v>RA-ToSIA02:RF-HeatSink-H03A:Tms-Mon</v>
       </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="8">
@@ -4341,10 +4482,10 @@
         <f>IF(G52="-",C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;":"&amp;H52,C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;"-"&amp;G52&amp;":"&amp;H52)</f>
         <v>RA-ToSIA02:RF-HeatSink-H03B:Tms-Mon</v>
       </c>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="8">
@@ -4375,10 +4516,10 @@
         <f>IF(G53="-",C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;":"&amp;H53,C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;"-"&amp;G53&amp;":"&amp;H53)</f>
         <v>RA-ToSIA02:RF-HeatSink-H04A:Tms-Mon</v>
       </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="8">
@@ -4409,10 +4550,10 @@
         <f>IF(G54="-",C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;":"&amp;H54,C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;"-"&amp;G54&amp;":"&amp;H54)</f>
         <v>RA-ToSIA02:RF-HeatSink-H04B:Tms-Mon</v>
       </c>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="8">
@@ -4443,10 +4584,10 @@
         <f>IF(G55="-",C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;":"&amp;H55,C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;"-"&amp;G55&amp;":"&amp;H55)</f>
         <v>RA-ToSIA02:RF-HeatSink-H05A:Tms-Mon</v>
       </c>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="8">
@@ -4477,10 +4618,10 @@
         <f>IF(G56="-",C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;":"&amp;H56,C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;"-"&amp;G56&amp;":"&amp;H56)</f>
         <v>RA-ToSIA02:RF-HeatSink-H05B:Tms-Mon</v>
       </c>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="8">
@@ -4511,10 +4652,10 @@
         <f>IF(G57="-",C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;":"&amp;H57,C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;"-"&amp;G57&amp;":"&amp;H57)</f>
         <v>RA-ToSIA02:RF-HeatSink-H06A:Tms-Mon</v>
       </c>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="8">
@@ -4545,10 +4686,10 @@
         <f>IF(G58="-",C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;":"&amp;H58,C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;"-"&amp;G58&amp;":"&amp;H58)</f>
         <v>RA-ToSIA02:RF-HeatSink-H06B:Tms-Mon</v>
       </c>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="8">
@@ -4579,10 +4720,10 @@
         <f>IF(G59="-",C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;":"&amp;H59,C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;"-"&amp;G59&amp;":"&amp;H59)</f>
         <v>RA-ToSIA02:RF-HeatSink-H07A:Tms-Mon</v>
       </c>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="8">
@@ -4613,10 +4754,10 @@
         <f>IF(G60="-",C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;":"&amp;H60,C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;"-"&amp;G60&amp;":"&amp;H60)</f>
         <v>RA-ToSIA02:RF-HeatSink-H07B:Tms-Mon</v>
       </c>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="8">
@@ -4647,10 +4788,10 @@
         <f>IF(G61="-",C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;":"&amp;H61,C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;"-"&amp;G61&amp;":"&amp;H61)</f>
         <v>RA-ToSIA02:RF-HeatSink-H08A:Tms-Mon</v>
       </c>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="8">
@@ -4681,10 +4822,10 @@
         <f>IF(G62="-",C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;":"&amp;H62,C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;"-"&amp;G62&amp;":"&amp;H62)</f>
         <v>RA-ToSIA02:RF-HeatSink-H08B:Tms-Mon</v>
       </c>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="8">
@@ -4715,10 +4856,10 @@
         <f>IF(G63="-",C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;":"&amp;H63,C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;"-"&amp;G63&amp;":"&amp;H63)</f>
         <v>RA-ToSIA02:RF-HeatSink-H01A:T-Mon</v>
       </c>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="8">
@@ -4749,10 +4890,10 @@
         <f>IF(G64="-",C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;":"&amp;H64,C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;"-"&amp;G64&amp;":"&amp;H64)</f>
         <v>RA-ToSIA02:RF-HeatSink-H01B:T-Mon</v>
       </c>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="8">
@@ -4783,10 +4924,10 @@
         <f>IF(G65="-",C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;":"&amp;H65,C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;"-"&amp;G65&amp;":"&amp;H65)</f>
         <v>RA-ToSIA02:RF-HeatSink-H02A:T-Mon</v>
       </c>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="8">
@@ -4817,10 +4958,10 @@
         <f>IF(G66="-",C66&amp;"-"&amp;D66&amp;":"&amp;E66&amp;"-"&amp;F66&amp;":"&amp;H66,C66&amp;"-"&amp;D66&amp;":"&amp;E66&amp;"-"&amp;F66&amp;"-"&amp;G66&amp;":"&amp;H66)</f>
         <v>RA-ToSIA02:RF-HeatSink-H02B:T-Mon</v>
       </c>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="8">
@@ -4851,10 +4992,10 @@
         <f>IF(G67="-",C67&amp;"-"&amp;D67&amp;":"&amp;E67&amp;"-"&amp;F67&amp;":"&amp;H67,C67&amp;"-"&amp;D67&amp;":"&amp;E67&amp;"-"&amp;F67&amp;"-"&amp;G67&amp;":"&amp;H67)</f>
         <v>RA-ToSIA02:RF-HeatSink-H03A:T-Mon</v>
       </c>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="8">
@@ -4885,10 +5026,10 @@
         <f>IF(G68="-",C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;":"&amp;H68,C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;"-"&amp;G68&amp;":"&amp;H68)</f>
         <v>RA-ToSIA02:RF-HeatSink-H03B:T-Mon</v>
       </c>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="8">
@@ -4919,10 +5060,10 @@
         <f>IF(G69="-",C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;":"&amp;H69,C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;"-"&amp;G69&amp;":"&amp;H69)</f>
         <v>RA-ToSIA02:RF-HeatSink-H04A:T-Mon</v>
       </c>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="8">
@@ -4953,10 +5094,10 @@
         <f>IF(G70="-",C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;":"&amp;H70,C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;"-"&amp;G70&amp;":"&amp;H70)</f>
         <v>RA-ToSIA02:RF-HeatSink-H04B:T-Mon</v>
       </c>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="8">
@@ -4987,10 +5128,10 @@
         <f>IF(G71="-",C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;":"&amp;H71,C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;"-"&amp;G71&amp;":"&amp;H71)</f>
         <v>RA-ToSIA02:RF-HeatSink-H05A:T-Mon</v>
       </c>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="8">
@@ -5021,10 +5162,10 @@
         <f>IF(G72="-",C72&amp;"-"&amp;D72&amp;":"&amp;E72&amp;"-"&amp;F72&amp;":"&amp;H72,C72&amp;"-"&amp;D72&amp;":"&amp;E72&amp;"-"&amp;F72&amp;"-"&amp;G72&amp;":"&amp;H72)</f>
         <v>RA-ToSIA02:RF-HeatSink-H05B:T-Mon</v>
       </c>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="8">
@@ -5055,10 +5196,10 @@
         <f>IF(G73="-",C73&amp;"-"&amp;D73&amp;":"&amp;E73&amp;"-"&amp;F73&amp;":"&amp;H73,C73&amp;"-"&amp;D73&amp;":"&amp;E73&amp;"-"&amp;F73&amp;"-"&amp;G73&amp;":"&amp;H73)</f>
         <v>RA-ToSIA02:RF-HeatSink-H06A:T-Mon</v>
       </c>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="8">
@@ -5089,10 +5230,10 @@
         <f>IF(G74="-",C74&amp;"-"&amp;D74&amp;":"&amp;E74&amp;"-"&amp;F74&amp;":"&amp;H74,C74&amp;"-"&amp;D74&amp;":"&amp;E74&amp;"-"&amp;F74&amp;"-"&amp;G74&amp;":"&amp;H74)</f>
         <v>RA-ToSIA02:RF-HeatSink-H06B:T-Mon</v>
       </c>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="8">
@@ -5123,10 +5264,10 @@
         <f>IF(G75="-",C75&amp;"-"&amp;D75&amp;":"&amp;E75&amp;"-"&amp;F75&amp;":"&amp;H75,C75&amp;"-"&amp;D75&amp;":"&amp;E75&amp;"-"&amp;F75&amp;"-"&amp;G75&amp;":"&amp;H75)</f>
         <v>RA-ToSIA02:RF-HeatSink-H07A:T-Mon</v>
       </c>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="8">
@@ -5157,10 +5298,10 @@
         <f>IF(G76="-",C76&amp;"-"&amp;D76&amp;":"&amp;E76&amp;"-"&amp;F76&amp;":"&amp;H76,C76&amp;"-"&amp;D76&amp;":"&amp;E76&amp;"-"&amp;F76&amp;"-"&amp;G76&amp;":"&amp;H76)</f>
         <v>RA-ToSIA02:RF-HeatSink-H07B:T-Mon</v>
       </c>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="8">
@@ -5191,10 +5332,10 @@
         <f>IF(G77="-",C77&amp;"-"&amp;D77&amp;":"&amp;E77&amp;"-"&amp;F77&amp;":"&amp;H77,C77&amp;"-"&amp;D77&amp;":"&amp;E77&amp;"-"&amp;F77&amp;"-"&amp;G77&amp;":"&amp;H77)</f>
         <v>RA-ToSIA02:RF-HeatSink-H08A:T-Mon</v>
       </c>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="8">
@@ -5225,10 +5366,10 @@
         <f>IF(G78="-",C78&amp;"-"&amp;D78&amp;":"&amp;E78&amp;"-"&amp;F78&amp;":"&amp;H78,C78&amp;"-"&amp;D78&amp;":"&amp;E78&amp;"-"&amp;F78&amp;"-"&amp;G78&amp;":"&amp;H78)</f>
         <v>RA-ToSIA02:RF-HeatSink-H08B:T-Mon</v>
       </c>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="8">
@@ -5259,10 +5400,10 @@
         <f>IF(G79="-",C79&amp;"-"&amp;D79&amp;":"&amp;E79&amp;"-"&amp;F79&amp;":"&amp;H79,C79&amp;"-"&amp;D79&amp;":"&amp;E79&amp;"-"&amp;F79&amp;"-"&amp;G79&amp;":"&amp;H79)</f>
         <v>SI-03SP:RF-Intlk:SIA-Mon</v>
       </c>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="8">
@@ -5293,10 +5434,10 @@
         <f>IF(G80="-",C80&amp;"-"&amp;D80&amp;":"&amp;E80&amp;"-"&amp;F80&amp;":"&amp;H80,C80&amp;"-"&amp;D80&amp;":"&amp;E80&amp;"-"&amp;F80&amp;"-"&amp;G80&amp;":"&amp;H80)</f>
         <v>SI-03SP:RF-Intlk:LLRF-Mon</v>
       </c>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="8">
@@ -5327,9 +5468,9 @@
         <f>IF(G81="-",C81&amp;"-"&amp;D81&amp;":"&amp;E81&amp;"-"&amp;F81&amp;":"&amp;H81,C81&amp;"-"&amp;D81&amp;":"&amp;E81&amp;"-"&amp;F81&amp;"-"&amp;G81&amp;":"&amp;H81)</f>
         <v>SI-03SP:RF-Intlk:EStop-Mon</v>
       </c>
-      <c r="J81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
+      <c r="J81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="8">
@@ -5360,10 +5501,10 @@
         <f>IF(G82="-",C82&amp;"-"&amp;D82&amp;":"&amp;E82&amp;"-"&amp;F82&amp;":"&amp;H82,C82&amp;"-"&amp;D82&amp;":"&amp;E82&amp;"-"&amp;F82&amp;"-"&amp;G82&amp;":"&amp;H82)</f>
         <v>SI-03SP:RF-Intlk:Reset-Sel</v>
       </c>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="8">
@@ -5394,10 +5535,10 @@
         <f>IF(G83="-",C83&amp;"-"&amp;D83&amp;":"&amp;E83&amp;"-"&amp;F83&amp;":"&amp;H83,C83&amp;"-"&amp;D83&amp;":"&amp;E83&amp;"-"&amp;F83&amp;"-"&amp;G83&amp;":"&amp;H83)</f>
         <v>SI-03SP:RF-LLRF:Status-Mon</v>
       </c>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="8">
@@ -5428,10 +5569,10 @@
         <f>IF(G84="-",C84&amp;"-"&amp;D84&amp;":"&amp;E84&amp;"-"&amp;F84&amp;":"&amp;H84,C84&amp;"-"&amp;D84&amp;":"&amp;E84&amp;"-"&amp;F84&amp;"-"&amp;G84&amp;":"&amp;H84)</f>
         <v>SI-03SP:RF-LLRF:Intlk-Mon</v>
       </c>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="8">
@@ -5462,10 +5603,10 @@
         <f>IF(G85="-",C85&amp;"-"&amp;D85&amp;":"&amp;E85&amp;"-"&amp;F85&amp;":"&amp;H85,C85&amp;"-"&amp;D85&amp;":"&amp;E85&amp;"-"&amp;F85&amp;"-"&amp;G85&amp;":"&amp;H85)</f>
         <v>SI-03SP:RF-LLRFPreAmp-01:Tms-Mon</v>
       </c>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="8">
@@ -5496,10 +5637,10 @@
         <f>IF(G86="-",C86&amp;"-"&amp;D86&amp;":"&amp;E86&amp;"-"&amp;F86&amp;":"&amp;H86,C86&amp;"-"&amp;D86&amp;":"&amp;E86&amp;"-"&amp;F86&amp;"-"&amp;G86&amp;":"&amp;H86)</f>
         <v>SI-03SP:RF-LLRFPreAmp-01:T-Mon</v>
       </c>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="8">
@@ -5530,10 +5671,10 @@
         <f>IF(G87="-",C87&amp;"-"&amp;D87&amp;":"&amp;E87&amp;"-"&amp;F87&amp;":"&amp;H87,C87&amp;"-"&amp;D87&amp;":"&amp;E87&amp;"-"&amp;F87&amp;"-"&amp;G87&amp;":"&amp;H87)</f>
         <v>SI-03SP:RF-LLRFPreAmp-02:Tms-Mon</v>
       </c>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="8">
@@ -5564,10 +5705,10 @@
         <f>IF(G88="-",C88&amp;"-"&amp;D88&amp;":"&amp;E88&amp;"-"&amp;F88&amp;":"&amp;H88,C88&amp;"-"&amp;D88&amp;":"&amp;E88&amp;"-"&amp;F88&amp;"-"&amp;G88&amp;":"&amp;H88)</f>
         <v>SI-03SP:RF-LLRFPreAmp-02:T-Mon</v>
       </c>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="8">
@@ -5598,10 +5739,10 @@
         <f>IF(G89="-",C89&amp;"-"&amp;D89&amp;":"&amp;E89&amp;"-"&amp;F89&amp;":"&amp;H89,C89&amp;"-"&amp;D89&amp;":"&amp;E89&amp;"-"&amp;F89&amp;"-"&amp;G89&amp;":"&amp;H89)</f>
         <v>SI-03SP:RF-P7Cav:Pressure -Mon</v>
       </c>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="8">
@@ -5632,10 +5773,10 @@
         <f>IF(G90="-",C90&amp;"-"&amp;D90&amp;":"&amp;E90&amp;"-"&amp;F90&amp;":"&amp;H90,C90&amp;"-"&amp;D90&amp;":"&amp;E90&amp;"-"&amp;F90&amp;"-"&amp;G90&amp;":"&amp;H90)</f>
         <v>SI-03SP:RF-P7Cav:HDFlwRt1-Mon</v>
       </c>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="8">
@@ -5666,10 +5807,10 @@
         <f>IF(G91="-",C91&amp;"-"&amp;D91&amp;":"&amp;E91&amp;"-"&amp;F91&amp;":"&amp;H91,C91&amp;"-"&amp;D91&amp;":"&amp;E91&amp;"-"&amp;F91&amp;"-"&amp;G91&amp;":"&amp;H91)</f>
         <v>SI-03SP:RF-P7Cav:HDFlwRt2-Mon</v>
       </c>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="8">
@@ -5700,10 +5841,10 @@
         <f>IF(G92="-",C92&amp;"-"&amp;D92&amp;":"&amp;E92&amp;"-"&amp;F92&amp;":"&amp;H92,C92&amp;"-"&amp;D92&amp;":"&amp;E92&amp;"-"&amp;F92&amp;"-"&amp;G92&amp;":"&amp;H92)</f>
         <v>SI-03SP:RF-P7Cav:HDFlwRt3-Mon</v>
       </c>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="8">
@@ -5734,10 +5875,10 @@
         <f>IF(G93="-",C93&amp;"-"&amp;D93&amp;":"&amp;E93&amp;"-"&amp;F93&amp;":"&amp;H93,C93&amp;"-"&amp;D93&amp;":"&amp;E93&amp;"-"&amp;F93&amp;"-"&amp;G93&amp;":"&amp;H93)</f>
         <v>SI-03SP:RF-P7Cav:CoupPressure -Mon</v>
       </c>
-      <c r="J93" s="40"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="8">
@@ -5768,10 +5909,10 @@
         <f>IF(G94="-",C94&amp;"-"&amp;D94&amp;":"&amp;E94&amp;"-"&amp;F94&amp;":"&amp;H94,C94&amp;"-"&amp;D94&amp;":"&amp;E94&amp;"-"&amp;F94&amp;"-"&amp;G94&amp;":"&amp;H94)</f>
         <v>SI-03SP:RF-P7Cav:Disc1T-Mon</v>
       </c>
-      <c r="J94" s="40"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="8">
@@ -5802,10 +5943,10 @@
         <f>IF(G95="-",C95&amp;"-"&amp;D95&amp;":"&amp;E95&amp;"-"&amp;F95&amp;":"&amp;H95,C95&amp;"-"&amp;D95&amp;":"&amp;E95&amp;"-"&amp;F95&amp;"-"&amp;G95&amp;":"&amp;H95)</f>
         <v>SI-03SP:RF-P7Cav:Disc2T-Mon</v>
       </c>
-      <c r="J95" s="40"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="8">
@@ -5836,10 +5977,10 @@
         <f>IF(G96="-",C96&amp;"-"&amp;D96&amp;":"&amp;E96&amp;"-"&amp;F96&amp;":"&amp;H96,C96&amp;"-"&amp;D96&amp;":"&amp;E96&amp;"-"&amp;F96&amp;"-"&amp;G96&amp;":"&amp;H96)</f>
         <v>SI-03SP:RF-P7Cav:Disc3T-Mon</v>
       </c>
-      <c r="J96" s="40"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="38"/>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="8">
@@ -5870,10 +6011,10 @@
         <f>IF(G97="-",C97&amp;"-"&amp;D97&amp;":"&amp;E97&amp;"-"&amp;F97&amp;":"&amp;H97,C97&amp;"-"&amp;D97&amp;":"&amp;E97&amp;"-"&amp;F97&amp;"-"&amp;G97&amp;":"&amp;H97)</f>
         <v>SI-03SP:RF-P7Cav:Disc4T-Mon</v>
       </c>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="8">
@@ -5904,10 +6045,10 @@
         <f>IF(G98="-",C98&amp;"-"&amp;D98&amp;":"&amp;E98&amp;"-"&amp;F98&amp;":"&amp;H98,C98&amp;"-"&amp;D98&amp;":"&amp;E98&amp;"-"&amp;F98&amp;"-"&amp;G98&amp;":"&amp;H98)</f>
         <v>SI-03SP:RF-P7Cav:Disc5T-Mon</v>
       </c>
-      <c r="J98" s="40"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="8">
@@ -5938,10 +6079,10 @@
         <f>IF(G99="-",C99&amp;"-"&amp;D99&amp;":"&amp;E99&amp;"-"&amp;F99&amp;":"&amp;H99,C99&amp;"-"&amp;D99&amp;":"&amp;E99&amp;"-"&amp;F99&amp;"-"&amp;G99&amp;":"&amp;H99)</f>
         <v>SI-03SP:RF-P7Cav:Disc6T-Mon</v>
       </c>
-      <c r="J99" s="40"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="38"/>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="8">
@@ -5972,10 +6113,10 @@
         <f>IF(G100="-",C100&amp;"-"&amp;D100&amp;":"&amp;E100&amp;"-"&amp;F100&amp;":"&amp;H100,C100&amp;"-"&amp;D100&amp;":"&amp;E100&amp;"-"&amp;F100&amp;"-"&amp;G100&amp;":"&amp;H100)</f>
         <v>SI-03SP:RF-P7Cav:Disc7T-Mon</v>
       </c>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="38"/>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="8">
@@ -6006,10 +6147,10 @@
         <f>IF(G101="-",C101&amp;"-"&amp;D101&amp;":"&amp;E101&amp;"-"&amp;F101&amp;":"&amp;H101,C101&amp;"-"&amp;D101&amp;":"&amp;E101&amp;"-"&amp;F101&amp;"-"&amp;G101&amp;":"&amp;H101)</f>
         <v>SI-03SP:RF-P7Cav:CoupT-Mon</v>
       </c>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="38"/>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="8">
@@ -6036,14 +6177,14 @@
       <c r="H102" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I102" s="42" t="str">
+      <c r="I102" s="41" t="str">
         <f>IF(G102="-",C102&amp;"-"&amp;D102&amp;":"&amp;E102&amp;"-"&amp;F102&amp;":"&amp;H102,C102&amp;"-"&amp;D102&amp;":"&amp;E102&amp;"-"&amp;F102&amp;"-"&amp;G102&amp;":"&amp;H102)</f>
         <v>SI-03SP:RF-P7Cav:Sts-Mon</v>
       </c>
-      <c r="J102" s="39"/>
-      <c r="K102" s="39"/>
-      <c r="L102" s="39"/>
-      <c r="M102" s="39"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="8">
@@ -6074,10 +6215,10 @@
         <f>IF(G103="-",C103&amp;"-"&amp;D103&amp;":"&amp;E103&amp;"-"&amp;F103&amp;":"&amp;H103,C103&amp;"-"&amp;D103&amp;":"&amp;E103&amp;"-"&amp;F103&amp;"-"&amp;G103&amp;":"&amp;H103)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:EStop-Mon</v>
       </c>
-      <c r="J103" s="39"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="38"/>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="8">
@@ -6108,10 +6249,10 @@
         <f>IF(G104="-",C104&amp;"-"&amp;D104&amp;":"&amp;E104&amp;"-"&amp;F104&amp;":"&amp;H104,C104&amp;"-"&amp;D104&amp;":"&amp;E104&amp;"-"&amp;F104&amp;"-"&amp;G104&amp;":"&amp;H104)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:EStop-Mon</v>
       </c>
-      <c r="J104" s="39"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="39"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="38"/>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="8">
@@ -6142,10 +6283,10 @@
         <f>IF(G105="-",C105&amp;"-"&amp;D105&amp;":"&amp;E105&amp;"-"&amp;F105&amp;":"&amp;H105,C105&amp;"-"&amp;D105&amp;":"&amp;E105&amp;"-"&amp;F105&amp;"-"&amp;G105&amp;":"&amp;H105)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrRF-Mon</v>
       </c>
-      <c r="J105" s="39"/>
-      <c r="K105" s="39"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="8">
@@ -6176,10 +6317,10 @@
         <f>IF(G106="-",C106&amp;"-"&amp;D106&amp;":"&amp;E106&amp;"-"&amp;F106&amp;":"&amp;H106,C106&amp;"-"&amp;D106&amp;":"&amp;E106&amp;"-"&amp;F106&amp;"-"&amp;G106&amp;":"&amp;H106)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PINSw-Mon</v>
       </c>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="8">
@@ -6210,10 +6351,10 @@
         <f>IF(G107="-",C107&amp;"-"&amp;D107&amp;":"&amp;E107&amp;"-"&amp;F107&amp;":"&amp;H107,C107&amp;"-"&amp;D107&amp;":"&amp;E107&amp;"-"&amp;F107&amp;"-"&amp;G107&amp;":"&amp;H107)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrACOp-Mon</v>
       </c>
-      <c r="J107" s="39"/>
-      <c r="K107" s="39"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="8">
@@ -6244,10 +6385,10 @@
         <f>IF(G108="-",C108&amp;"-"&amp;D108&amp;":"&amp;E108&amp;"-"&amp;F108&amp;":"&amp;H108,C108&amp;"-"&amp;D108&amp;":"&amp;E108&amp;"-"&amp;F108&amp;"-"&amp;G108&amp;":"&amp;H108)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PhsFlt-Mon</v>
       </c>
-      <c r="J108" s="39"/>
-      <c r="K108" s="39"/>
-      <c r="L108" s="39"/>
-      <c r="M108" s="39"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="8">
@@ -6278,10 +6419,10 @@
         <f>IF(G109="-",C109&amp;"-"&amp;D109&amp;":"&amp;E109&amp;"-"&amp;F109&amp;":"&amp;H109,C109&amp;"-"&amp;D109&amp;":"&amp;E109&amp;"-"&amp;F109&amp;"-"&amp;G109&amp;":"&amp;H109)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:HDFlwRt-Mon</v>
       </c>
-      <c r="J109" s="39"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="8">
@@ -6308,14 +6449,14 @@
       <c r="H110" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="I110" s="43" t="str">
+      <c r="I110" s="42" t="str">
         <f>IF(G110="-",C110&amp;"-"&amp;D110&amp;":"&amp;E110&amp;"-"&amp;F110&amp;":"&amp;H110,C110&amp;"-"&amp;D110&amp;":"&amp;E110&amp;"-"&amp;F110&amp;"-"&amp;G110&amp;":"&amp;H110)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrACDsbl-Sel</v>
       </c>
-      <c r="J110" s="39"/>
-      <c r="K110" s="39"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="39"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="8">
@@ -6342,14 +6483,14 @@
       <c r="H111" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="I111" s="43" t="str">
+      <c r="I111" s="42" t="str">
         <f>IF(G111="-",C111&amp;"-"&amp;D111&amp;":"&amp;E111&amp;"-"&amp;F111&amp;":"&amp;H111,C111&amp;"-"&amp;D111&amp;":"&amp;E111&amp;"-"&amp;F111&amp;"-"&amp;G111&amp;":"&amp;H111)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrACEnbl-Sel</v>
       </c>
-      <c r="J111" s="39"/>
-      <c r="K111" s="39"/>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
+      <c r="J111" s="38"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="38"/>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="8">
@@ -6376,14 +6517,14 @@
       <c r="H112" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="I112" s="43" t="str">
+      <c r="I112" s="42" t="str">
         <f>IF(G112="-",C112&amp;"-"&amp;D112&amp;":"&amp;E112&amp;"-"&amp;F112&amp;":"&amp;H112,C112&amp;"-"&amp;D112&amp;":"&amp;E112&amp;"-"&amp;F112&amp;"-"&amp;G112&amp;":"&amp;H112)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrACS-Sts</v>
       </c>
-      <c r="J112" s="39"/>
-      <c r="K112" s="39"/>
-      <c r="L112" s="39"/>
-      <c r="M112" s="39"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="8">
@@ -6410,14 +6551,14 @@
       <c r="H113" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I113" s="43" t="str">
+      <c r="I113" s="42" t="str">
         <f>IF(G113="-",C113&amp;"-"&amp;D113&amp;":"&amp;E113&amp;"-"&amp;F113&amp;":"&amp;H113,C113&amp;"-"&amp;D113&amp;":"&amp;E113&amp;"-"&amp;F113&amp;"-"&amp;G113&amp;":"&amp;H113)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrDCDsbl-Sel</v>
       </c>
-      <c r="J113" s="39"/>
-      <c r="K113" s="39"/>
-      <c r="L113" s="39"/>
-      <c r="M113" s="39"/>
+      <c r="J113" s="38"/>
+      <c r="K113" s="38"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="38"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="8">
@@ -6444,14 +6585,14 @@
       <c r="H114" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I114" s="43" t="str">
+      <c r="I114" s="42" t="str">
         <f>IF(G114="-",C114&amp;"-"&amp;D114&amp;":"&amp;E114&amp;"-"&amp;F114&amp;":"&amp;H114,C114&amp;"-"&amp;D114&amp;":"&amp;E114&amp;"-"&amp;F114&amp;"-"&amp;G114&amp;":"&amp;H114)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrDCEnbl-Sel</v>
       </c>
-      <c r="J114" s="39"/>
-      <c r="K114" s="39"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="39"/>
+      <c r="J114" s="38"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
       <c r="N114" s="2" t="s">
         <v>202</v>
       </c>
@@ -6481,14 +6622,14 @@
       <c r="H115" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I115" s="43" t="str">
+      <c r="I115" s="42" t="str">
         <f>IF(G115="-",C115&amp;"-"&amp;D115&amp;":"&amp;E115&amp;"-"&amp;F115&amp;":"&amp;H115,C115&amp;"-"&amp;D115&amp;":"&amp;E115&amp;"-"&amp;F115&amp;"-"&amp;G115&amp;":"&amp;H115)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:PwrDC-Sts</v>
       </c>
-      <c r="J115" s="39"/>
-      <c r="K115" s="39"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="39"/>
+      <c r="J115" s="38"/>
+      <c r="K115" s="38"/>
+      <c r="L115" s="38"/>
+      <c r="M115" s="38"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="8">
@@ -6519,10 +6660,10 @@
         <f>IF(G116="-",C116&amp;"-"&amp;D116&amp;":"&amp;E116&amp;"-"&amp;F116&amp;":"&amp;H116,C116&amp;"-"&amp;D116&amp;":"&amp;E116&amp;"-"&amp;F116&amp;"-"&amp;G116&amp;":"&amp;H116)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:Intlk-Mon</v>
       </c>
-      <c r="J116" s="39"/>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="8">
@@ -6553,10 +6694,10 @@
         <f>IF(G117="-",C117&amp;"-"&amp;D117&amp;":"&amp;E117&amp;"-"&amp;F117&amp;":"&amp;H117,C117&amp;"-"&amp;D117&amp;":"&amp;E117&amp;"-"&amp;F117&amp;"-"&amp;G117&amp;":"&amp;H117)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:PINSw-Mon</v>
       </c>
-      <c r="J117" s="39"/>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="38"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="38"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="8">
@@ -6587,10 +6728,10 @@
         <f>IF(G118="-",C118&amp;"-"&amp;D118&amp;":"&amp;E118&amp;"-"&amp;F118&amp;":"&amp;H118,C118&amp;"-"&amp;D118&amp;":"&amp;E118&amp;"-"&amp;F118&amp;"-"&amp;G118&amp;":"&amp;H118)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:PwrACOp-Mon</v>
       </c>
-      <c r="J118" s="39"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="38"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="8">
@@ -6621,10 +6762,10 @@
         <f>IF(G119="-",C119&amp;"-"&amp;D119&amp;":"&amp;E119&amp;"-"&amp;F119&amp;":"&amp;H119,C119&amp;"-"&amp;D119&amp;":"&amp;E119&amp;"-"&amp;F119&amp;"-"&amp;G119&amp;":"&amp;H119)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:PhsFlt-Mon</v>
       </c>
-      <c r="J119" s="39"/>
-      <c r="K119" s="39"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="38"/>
+      <c r="L119" s="38"/>
+      <c r="M119" s="38"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="8">
@@ -6655,10 +6796,10 @@
         <f>IF(G120="-",C120&amp;"-"&amp;D120&amp;":"&amp;E120&amp;"-"&amp;F120&amp;":"&amp;H120,C120&amp;"-"&amp;D120&amp;":"&amp;E120&amp;"-"&amp;F120&amp;"-"&amp;G120&amp;":"&amp;H120)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:HdFlwRt-Mon</v>
       </c>
-      <c r="J120" s="39"/>
-      <c r="K120" s="39"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="39"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="38"/>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="8">
@@ -6685,14 +6826,14 @@
       <c r="H121" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="I121" s="43" t="str">
+      <c r="I121" s="42" t="str">
         <f>IF(G121="-",C121&amp;"-"&amp;D121&amp;":"&amp;E121&amp;"-"&amp;F121&amp;":"&amp;H121,C121&amp;"-"&amp;D121&amp;":"&amp;E121&amp;"-"&amp;F121&amp;"-"&amp;G121&amp;":"&amp;H121)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:PwrACDsbl-Sel</v>
       </c>
-      <c r="J121" s="39"/>
-      <c r="K121" s="39"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="39"/>
+      <c r="J121" s="38"/>
+      <c r="K121" s="38"/>
+      <c r="L121" s="38"/>
+      <c r="M121" s="38"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="8">
@@ -6719,14 +6860,14 @@
       <c r="H122" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="I122" s="43" t="str">
+      <c r="I122" s="42" t="str">
         <f>IF(G122="-",C122&amp;"-"&amp;D122&amp;":"&amp;E122&amp;"-"&amp;F122&amp;":"&amp;H122,C122&amp;"-"&amp;D122&amp;":"&amp;E122&amp;"-"&amp;F122&amp;"-"&amp;G122&amp;":"&amp;H122)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:PwrACEnbl-Sel</v>
       </c>
-      <c r="J122" s="39"/>
-      <c r="K122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
+      <c r="J122" s="38"/>
+      <c r="K122" s="38"/>
+      <c r="L122" s="38"/>
+      <c r="M122" s="38"/>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="8">
@@ -6753,14 +6894,14 @@
       <c r="H123" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="I123" s="43" t="str">
+      <c r="I123" s="42" t="str">
         <f>IF(G123="-",C123&amp;"-"&amp;D123&amp;":"&amp;E123&amp;"-"&amp;F123&amp;":"&amp;H123,C123&amp;"-"&amp;D123&amp;":"&amp;E123&amp;"-"&amp;F123&amp;"-"&amp;G123&amp;":"&amp;H123)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:PwrAC-Sts</v>
       </c>
-      <c r="J123" s="39"/>
-      <c r="K123" s="39"/>
-      <c r="L123" s="39"/>
-      <c r="M123" s="39"/>
+      <c r="J123" s="38"/>
+      <c r="K123" s="38"/>
+      <c r="L123" s="38"/>
+      <c r="M123" s="38"/>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="8">
@@ -6787,14 +6928,14 @@
       <c r="H124" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I124" s="43" t="str">
+      <c r="I124" s="42" t="str">
         <f>IF(G124="-",C124&amp;"-"&amp;D124&amp;":"&amp;E124&amp;"-"&amp;F124&amp;":"&amp;H124,C124&amp;"-"&amp;D124&amp;":"&amp;E124&amp;"-"&amp;F124&amp;"-"&amp;G124&amp;":"&amp;H124)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:PwrDCDsbl-Sel</v>
       </c>
-      <c r="J124" s="39"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="39"/>
-      <c r="M124" s="39"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="38"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="8">
@@ -6821,14 +6962,14 @@
       <c r="H125" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I125" s="43" t="str">
+      <c r="I125" s="42" t="str">
         <f>IF(G125="-",C125&amp;"-"&amp;D125&amp;":"&amp;E125&amp;"-"&amp;F125&amp;":"&amp;H125,C125&amp;"-"&amp;D125&amp;":"&amp;E125&amp;"-"&amp;F125&amp;"-"&amp;G125&amp;":"&amp;H125)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:PwrDCEnbl-Sel</v>
       </c>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="39"/>
+      <c r="J125" s="38"/>
+      <c r="K125" s="38"/>
+      <c r="L125" s="38"/>
+      <c r="M125" s="38"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="8">
@@ -6855,14 +6996,14 @@
       <c r="H126" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I126" s="43" t="str">
+      <c r="I126" s="42" t="str">
         <f>IF(G126="-",C126&amp;"-"&amp;D126&amp;":"&amp;E126&amp;"-"&amp;F126&amp;":"&amp;H126,C126&amp;"-"&amp;D126&amp;":"&amp;E126&amp;"-"&amp;F126&amp;"-"&amp;G126&amp;":"&amp;H126)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:PwrDC-Sts</v>
       </c>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="39"/>
-      <c r="M126" s="39"/>
+      <c r="J126" s="38"/>
+      <c r="K126" s="38"/>
+      <c r="L126" s="38"/>
+      <c r="M126" s="38"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="8">
@@ -6893,10 +7034,10 @@
         <f>IF(G127="-",C127&amp;"-"&amp;D127&amp;":"&amp;E127&amp;"-"&amp;F127&amp;":"&amp;H127,C127&amp;"-"&amp;D127&amp;":"&amp;E127&amp;"-"&amp;F127&amp;"-"&amp;G127&amp;":"&amp;H127)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:Intlk-Mon</v>
       </c>
-      <c r="J127" s="39"/>
-      <c r="K127" s="39"/>
-      <c r="L127" s="39"/>
-      <c r="M127" s="39"/>
+      <c r="J127" s="38"/>
+      <c r="K127" s="38"/>
+      <c r="L127" s="38"/>
+      <c r="M127" s="38"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="8">
@@ -6923,14 +7064,14 @@
       <c r="H128" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I128" s="42" t="str">
+      <c r="I128" s="41" t="str">
         <f>IF(G128="-",C128&amp;"-"&amp;D128&amp;":"&amp;E128&amp;"-"&amp;F128&amp;":"&amp;H128,C128&amp;"-"&amp;D128&amp;":"&amp;E128&amp;"-"&amp;F128&amp;"-"&amp;G128&amp;":"&amp;H128)</f>
         <v>RA-ToSIA01:RF-SSAmpTower:Sts-Mon</v>
       </c>
-      <c r="J128" s="39"/>
-      <c r="K128" s="39"/>
-      <c r="L128" s="39"/>
-      <c r="M128" s="39"/>
+      <c r="J128" s="38"/>
+      <c r="K128" s="38"/>
+      <c r="L128" s="38"/>
+      <c r="M128" s="38"/>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="8">
@@ -6957,14 +7098,14 @@
       <c r="H129" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I129" s="42" t="str">
+      <c r="I129" s="41" t="str">
         <f>IF(G129="-",C129&amp;"-"&amp;D129&amp;":"&amp;E129&amp;"-"&amp;F129&amp;":"&amp;H129,C129&amp;"-"&amp;D129&amp;":"&amp;E129&amp;"-"&amp;F129&amp;"-"&amp;G129&amp;":"&amp;H129)</f>
         <v>RA-ToSIA02:RF-SSAmpTower:Sts-Mon</v>
       </c>
-      <c r="J129" s="39"/>
-      <c r="K129" s="39"/>
-      <c r="L129" s="39"/>
-      <c r="M129" s="39"/>
+      <c r="J129" s="38"/>
+      <c r="K129" s="38"/>
+      <c r="L129" s="38"/>
+      <c r="M129" s="38"/>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="8">
@@ -6995,10 +7136,10 @@
         <f>IF(G130="-",C130&amp;"-"&amp;D130&amp;":"&amp;E130&amp;"-"&amp;F130&amp;":"&amp;H130,C130&amp;"-"&amp;D130&amp;":"&amp;E130&amp;"-"&amp;F130&amp;"-"&amp;G130&amp;":"&amp;H130)</f>
         <v>RA-ToSIA01:RF-TDKSource-R1:StsAC-Mon</v>
       </c>
-      <c r="J130" s="39"/>
-      <c r="K130" s="39"/>
-      <c r="L130" s="39"/>
-      <c r="M130" s="39"/>
+      <c r="J130" s="38"/>
+      <c r="K130" s="38"/>
+      <c r="L130" s="38"/>
+      <c r="M130" s="38"/>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="8">
@@ -7029,10 +7170,10 @@
         <f>IF(G131="-",C131&amp;"-"&amp;D131&amp;":"&amp;E131&amp;"-"&amp;F131&amp;":"&amp;H131,C131&amp;"-"&amp;D131&amp;":"&amp;E131&amp;"-"&amp;F131&amp;"-"&amp;G131&amp;":"&amp;H131)</f>
         <v>RA-ToSIA01:RF-TDKSource-R2:StsAC-Mon</v>
       </c>
-      <c r="J131" s="39"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
+      <c r="J131" s="38"/>
+      <c r="K131" s="38"/>
+      <c r="L131" s="38"/>
+      <c r="M131" s="38"/>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="8">
@@ -7063,10 +7204,10 @@
         <f>IF(G132="-",C132&amp;"-"&amp;D132&amp;":"&amp;E132&amp;"-"&amp;F132&amp;":"&amp;H132,C132&amp;"-"&amp;D132&amp;":"&amp;E132&amp;"-"&amp;F132&amp;"-"&amp;G132&amp;":"&amp;H132)</f>
         <v>RA-ToSIA01:RF-TDKSource-R3:StsAC-Mon</v>
       </c>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
+      <c r="J132" s="38"/>
+      <c r="K132" s="38"/>
+      <c r="L132" s="38"/>
+      <c r="M132" s="38"/>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="8">
@@ -7097,10 +7238,10 @@
         <f>IF(G133="-",C133&amp;"-"&amp;D133&amp;":"&amp;E133&amp;"-"&amp;F133&amp;":"&amp;H133,C133&amp;"-"&amp;D133&amp;":"&amp;E133&amp;"-"&amp;F133&amp;"-"&amp;G133&amp;":"&amp;H133)</f>
         <v>RA-ToSIA01:RF-TDKSource-R4:StsAC-Mon</v>
       </c>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
+      <c r="J133" s="38"/>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
     </row>
     <row r="134" spans="1:13" s="16" customFormat="1">
       <c r="A134" s="8">
@@ -7131,10 +7272,10 @@
         <f>IF(G134="-",C134&amp;"-"&amp;D134&amp;":"&amp;E134&amp;"-"&amp;F134&amp;":"&amp;H134,C134&amp;"-"&amp;D134&amp;":"&amp;E134&amp;"-"&amp;F134&amp;"-"&amp;G134&amp;":"&amp;H134)</f>
         <v>RA-ToSIA02:RF-TDKSource-R1:StsAC-Mon</v>
       </c>
-      <c r="J134" s="41"/>
-      <c r="K134" s="41"/>
-      <c r="L134" s="41"/>
-      <c r="M134" s="41"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="40"/>
+      <c r="L134" s="40"/>
+      <c r="M134" s="40"/>
     </row>
     <row r="135" spans="1:13" s="16" customFormat="1">
       <c r="A135" s="8">
@@ -7165,10 +7306,10 @@
         <f>IF(G135="-",C135&amp;"-"&amp;D135&amp;":"&amp;E135&amp;"-"&amp;F135&amp;":"&amp;H135,C135&amp;"-"&amp;D135&amp;":"&amp;E135&amp;"-"&amp;F135&amp;"-"&amp;G135&amp;":"&amp;H135)</f>
         <v>RA-ToSIA02:RF-TDKSource-R2:StsAC-Mon</v>
       </c>
-      <c r="J135" s="41"/>
-      <c r="K135" s="41"/>
-      <c r="L135" s="41"/>
-      <c r="M135" s="41"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="8">
@@ -7199,10 +7340,10 @@
         <f>IF(G136="-",C136&amp;"-"&amp;D136&amp;":"&amp;E136&amp;"-"&amp;F136&amp;":"&amp;H136,C136&amp;"-"&amp;D136&amp;":"&amp;E136&amp;"-"&amp;F136&amp;"-"&amp;G136&amp;":"&amp;H136)</f>
         <v>RA-ToSIA02:RF-TDKSource-R3:StsAC-Mon</v>
       </c>
-      <c r="J136" s="39"/>
-      <c r="K136" s="39"/>
-      <c r="L136" s="39"/>
-      <c r="M136" s="39"/>
+      <c r="J136" s="38"/>
+      <c r="K136" s="38"/>
+      <c r="L136" s="38"/>
+      <c r="M136" s="38"/>
     </row>
     <row r="137" spans="1:13" s="16" customFormat="1">
       <c r="A137" s="24">
@@ -7233,10 +7374,10 @@
         <f>IF(G137="-",C137&amp;"-"&amp;D137&amp;":"&amp;E137&amp;"-"&amp;F137&amp;":"&amp;H137,C137&amp;"-"&amp;D137&amp;":"&amp;E137&amp;"-"&amp;F137&amp;"-"&amp;G137&amp;":"&amp;H137)</f>
         <v>RA-ToSIA02:RF-TDKSource-R4:StsAC-Mon</v>
       </c>
-      <c r="J137" s="41"/>
-      <c r="K137" s="41"/>
-      <c r="L137" s="41"/>
-      <c r="M137" s="41"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="40"/>
+      <c r="L137" s="40"/>
+      <c r="M137" s="40"/>
     </row>
     <row r="138" spans="1:13" s="16" customFormat="1">
       <c r="A138" s="24">
@@ -7263,14 +7404,14 @@
       <c r="H138" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I138" s="42" t="str">
+      <c r="I138" s="41" t="str">
         <f>IF(G138="-",C138&amp;"-"&amp;D138&amp;":"&amp;E138&amp;"-"&amp;F138&amp;":"&amp;H138,C138&amp;"-"&amp;D138&amp;":"&amp;E138&amp;"-"&amp;F138&amp;"-"&amp;G138&amp;":"&amp;H138)</f>
         <v>RA-TL:RF-TrLine-SIA:Sts-Mon</v>
       </c>
-      <c r="J138" s="41"/>
-      <c r="K138" s="41"/>
-      <c r="L138" s="41"/>
-      <c r="M138" s="41"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="40"/>
+      <c r="L138" s="40"/>
+      <c r="M138" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I1" xr:uid="{0F2215A7-FD9E-4BC9-8B59-E578D7EBC969}">
@@ -7286,10 +7427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6F57F1-1A35-414C-A72F-BC2069E745C6}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0" xr3:uid="{900F33E9-471D-5D8B-9407-07E50B153C77}">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0" xr3:uid="{900F33E9-471D-5D8B-9407-07E50B153C77}">
+      <selection activeCell="K27" sqref="K27:K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7718,7 +7859,7 @@
         <v>RATLRFTrLineBO</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:11">
       <c r="B17" s="18" t="str">
         <f>Anel!C14</f>
         <v>RA</v>
@@ -7744,7 +7885,7 @@
         <v>RATLRFCirculatorSIA</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:11">
       <c r="B18" s="18" t="str">
         <f>Anel!C31</f>
         <v>RA</v>
@@ -7770,7 +7911,7 @@
         <v>RAToSIA01RFHeatSinkH01A</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:11">
       <c r="B19" s="18" t="str">
         <f>Anel!C32</f>
         <v>RA</v>
@@ -7796,7 +7937,7 @@
         <v>RAToSIA01RFHeatSinkH01B</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:11">
       <c r="B20" s="18" t="str">
         <f>Anel!C33</f>
         <v>RA</v>
@@ -7822,7 +7963,7 @@
         <v>RAToSIA01RFHeatSinkH02A</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:11">
       <c r="B21" s="18" t="str">
         <f>Anel!C34</f>
         <v>RA</v>
@@ -7848,7 +7989,7 @@
         <v>RAToSIA01RFHeatSinkH02B</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:11">
       <c r="B22" s="18" t="str">
         <f>Anel!C35</f>
         <v>RA</v>
@@ -7874,7 +8015,7 @@
         <v>RAToSIA01RFHeatSinkH03A</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:11">
       <c r="B23" s="18" t="str">
         <f>Anel!C36</f>
         <v>RA</v>
@@ -7900,7 +8041,7 @@
         <v>RAToSIA01RFHeatSinkH03B</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:11">
       <c r="B24" s="18" t="str">
         <f>Anel!C37</f>
         <v>RA</v>
@@ -7926,7 +8067,7 @@
         <v>RAToSIA01RFHeatSinkH04A</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:11">
       <c r="B25" s="18" t="str">
         <f>Anel!C38</f>
         <v>RA</v>
@@ -7952,7 +8093,7 @@
         <v>RAToSIA01RFHeatSinkH04B</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:11">
       <c r="B26" s="18" t="str">
         <f>Anel!C39</f>
         <v>RA</v>
@@ -7978,7 +8119,7 @@
         <v>RAToSIA01RFHeatSinkH05A</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:11">
       <c r="B27" s="18" t="str">
         <f>Anel!C40</f>
         <v>RA</v>
@@ -8003,8 +8144,9 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH05B</v>
       </c>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="18" t="str">
         <f>Anel!C41</f>
         <v>RA</v>
@@ -8029,8 +8171,9 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH06A</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="18" t="str">
         <f>Anel!C42</f>
         <v>RA</v>
@@ -8055,8 +8198,9 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH06B</v>
       </c>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="18" t="str">
         <f>Anel!C43</f>
         <v>RA</v>
@@ -8081,8 +8225,9 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH07A</v>
       </c>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="18" t="str">
         <f>Anel!C44</f>
         <v>RA</v>
@@ -8107,8 +8252,9 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH07B</v>
       </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="18" t="str">
         <f>Anel!C45</f>
         <v>RA</v>
@@ -8133,8 +8279,9 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH08A</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="18" t="str">
         <f>Anel!C46</f>
         <v>RA</v>
@@ -8159,8 +8306,9 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH08B</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="18" t="str">
         <f>Anel!C63</f>
         <v>RA</v>
@@ -8185,8 +8333,9 @@
         <f t="shared" si="1"/>
         <v>RAToSIA02RFHeatSinkH01A</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="18" t="str">
         <f>Anel!C64</f>
         <v>RA</v>
@@ -8211,8 +8360,9 @@
         <f t="shared" ref="H35:H58" si="2">B35&amp;C35&amp;D35&amp;E35&amp;F35</f>
         <v>RAToSIA02RFHeatSinkH01B</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="18" t="str">
         <f>Anel!C65</f>
         <v>RA</v>
@@ -8237,8 +8387,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH02A</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="18" t="str">
         <f>Anel!C66</f>
         <v>RA</v>
@@ -8263,8 +8414,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH02B</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" s="18" t="str">
         <f>Anel!C67</f>
         <v>RA</v>
@@ -8289,8 +8441,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH03A</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="2:11">
       <c r="B39" s="18" t="str">
         <f>Anel!C68</f>
         <v>RA</v>
@@ -8315,8 +8468,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH03B</v>
       </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:11">
       <c r="B40" s="18" t="str">
         <f>Anel!C69</f>
         <v>RA</v>
@@ -8341,8 +8495,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH04A</v>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41" s="18" t="str">
         <f>Anel!C70</f>
         <v>RA</v>
@@ -8367,8 +8522,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH04B</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42" s="18" t="str">
         <f>Anel!C71</f>
         <v>RA</v>
@@ -8393,8 +8549,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH05A</v>
       </c>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11">
       <c r="B43" s="18" t="str">
         <f>Anel!C72</f>
         <v>RA</v>
@@ -8419,8 +8576,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH05B</v>
       </c>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="2:11">
       <c r="B44" s="18" t="str">
         <f>Anel!C73</f>
         <v>RA</v>
@@ -8445,8 +8603,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH06A</v>
       </c>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="2:11">
       <c r="B45" s="18" t="str">
         <f>Anel!C74</f>
         <v>RA</v>
@@ -8471,8 +8630,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH06B</v>
       </c>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="2:11">
       <c r="B46" s="18" t="str">
         <f>Anel!C75</f>
         <v>RA</v>
@@ -8497,8 +8657,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH07A</v>
       </c>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="2:11">
       <c r="B47" s="18" t="str">
         <f>Anel!C76</f>
         <v>RA</v>
@@ -8523,8 +8684,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH07B</v>
       </c>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="2:11">
       <c r="B48" s="18" t="str">
         <f>Anel!C77</f>
         <v>RA</v>
@@ -8549,8 +8711,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH08A</v>
       </c>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="2:11">
       <c r="B49" s="18" t="str">
         <f>Anel!C78</f>
         <v>RA</v>
@@ -8575,8 +8738,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH08B</v>
       </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="2:11">
       <c r="B50" s="18" t="str">
         <f>Anel!C82</f>
         <v>SI</v>
@@ -8601,8 +8765,9 @@
         <f t="shared" si="2"/>
         <v>SI03SPRFIntlk-</v>
       </c>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="2:11">
       <c r="B51" s="18" t="str">
         <f>Anel!C83</f>
         <v>SI</v>
@@ -8627,8 +8792,9 @@
         <f t="shared" si="2"/>
         <v>SI03SPRFLLRF-</v>
       </c>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="2:11">
       <c r="B52" s="18" t="str">
         <f>Anel!C88</f>
         <v>SI</v>
@@ -8653,8 +8819,9 @@
         <f t="shared" si="2"/>
         <v>SI03SPRFLLRFPreAmp02</v>
       </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="2:11">
       <c r="B53" s="18" t="str">
         <f>Anel!C101</f>
         <v>SI</v>
@@ -8679,8 +8846,9 @@
         <f t="shared" si="2"/>
         <v>SI03SPRFP7Cav-</v>
       </c>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="2:11">
       <c r="B54" s="18" t="str">
         <f>Anel!C115</f>
         <v>RA</v>
@@ -8705,8 +8873,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA01RFSSAmpTower-</v>
       </c>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="2:11">
       <c r="B55" s="18" t="str">
         <f>Anel!C128</f>
         <v>RA</v>
@@ -8731,8 +8900,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA01RFSSAmpTower-</v>
       </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="2:11">
       <c r="B56" s="18" t="str">
         <f>Anel!C129</f>
         <v>RA</v>
@@ -8757,8 +8927,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFSSAmpTower-</v>
       </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="2:11">
       <c r="B57" s="18" t="str">
         <f>Anel!C130</f>
         <v>RA</v>
@@ -8783,8 +8954,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA01RFTDKSourceR1</v>
       </c>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="2:11">
       <c r="B58" s="18" t="str">
         <f>Anel!C131</f>
         <v>RA</v>
@@ -8809,8 +8981,9 @@
         <f t="shared" si="2"/>
         <v>RAToSIA01RFTDKSourceR2</v>
       </c>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="2:11">
       <c r="B59" s="18" t="str">
         <f>Anel!C132</f>
         <v>RA</v>
@@ -8835,8 +9008,9 @@
         <f t="shared" ref="H59:H66" si="3">B59&amp;C59&amp;D59&amp;E59&amp;F59</f>
         <v>RAToSIA01RFTDKSourceR3</v>
       </c>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="2:11">
       <c r="B60" s="18" t="str">
         <f>Anel!C133</f>
         <v>RA</v>
@@ -8861,8 +9035,9 @@
         <f t="shared" si="3"/>
         <v>RAToSIA01RFTDKSourceR4</v>
       </c>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="2:11">
       <c r="B61" s="18" t="str">
         <f>Anel!C134</f>
         <v>RA</v>
@@ -8887,8 +9062,9 @@
         <f t="shared" si="3"/>
         <v>RAToSIA02RFTDKSourceR1</v>
       </c>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="2:11">
       <c r="B62" s="18" t="str">
         <f>Anel!C135</f>
         <v>RA</v>
@@ -8913,8 +9089,9 @@
         <f t="shared" si="3"/>
         <v>RAToSIA02RFTDKSourceR2</v>
       </c>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="2:11">
       <c r="B63" s="18" t="str">
         <f>Anel!C136</f>
         <v>RA</v>
@@ -8939,8 +9116,9 @@
         <f t="shared" si="3"/>
         <v>RAToSIA02RFTDKSourceR3</v>
       </c>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="2:11">
       <c r="B64" s="18" t="str">
         <f>Anel!C137</f>
         <v>RA</v>
@@ -8965,8 +9143,9 @@
         <f t="shared" si="3"/>
         <v>RAToSIA02RFTDKSourceR4</v>
       </c>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="2:11">
       <c r="B65" s="2" t="s">
         <v>14</v>
       </c>
@@ -8986,6 +9165,256 @@
         <f t="shared" si="3"/>
         <v>RATLRFArcDetecSIA</v>
       </c>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="11:11">
+      <c r="K81" s="32"/>
+    </row>
+    <row r="82" spans="11:11">
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="11:11">
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="11:11">
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="11:11">
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="11:11">
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="11:11">
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="11:11">
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="11:11">
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="11:11">
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="11:11">
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="11:11">
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="11:11">
+      <c r="K93" s="15"/>
+    </row>
+    <row r="94" spans="11:11">
+      <c r="K94" s="15"/>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="11:11">
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="11:11">
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="11:11">
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="11:11">
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="11:11">
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="11:11">
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="11:11">
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="11:11">
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="11:11">
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="11:11">
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="11:11">
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="11:11">
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="11:11">
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="11:11">
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="11:11">
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="11:11">
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="11:11">
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" spans="11:11">
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" spans="11:11">
+      <c r="K141" s="4"/>
+    </row>
+    <row r="142" spans="11:11">
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="11:11">
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="11:11">
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="11:11">
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="11:11">
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="11:11">
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="11:11">
+      <c r="K148" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
@@ -8997,11 +9426,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P1048573"/>
+  <dimension ref="A1:O1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <pane ySplit="1" topLeftCell="I25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9019,9 +9448,8 @@
     <col min="11" max="11" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="2" customWidth="1"/>
-    <col min="14" max="14" width="43.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="49" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="14" width="49" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -9049,7 +9477,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
@@ -9093,7 +9521,7 @@
       <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="35" t="str">
+      <c r="I2" s="34" t="str">
         <f>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2)</f>
         <v>RA-TL:RF-ArcDetec-BO:Sts-Mon</v>
       </c>
@@ -9136,7 +9564,7 @@
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="35" t="str">
+      <c r="I3" s="34" t="str">
         <f>IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3,C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3)</f>
         <v>RA-TL:RF-ArcDetec-BO:Analog-Mon</v>
       </c>
@@ -9150,7 +9578,9 @@
         <v>251</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="12">
@@ -9177,7 +9607,7 @@
       <c r="H4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="I4" s="35" t="str">
+      <c r="I4" s="34" t="str">
         <f>IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4,C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4)</f>
         <v>RA-TL:RF-Circulator-BO:Heater-Mon</v>
       </c>
@@ -9192,7 +9622,7 @@
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -9220,12 +9650,12 @@
       <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="35" t="str">
+      <c r="I5" s="34" t="str">
         <f>IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5,C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5)</f>
         <v>RA-TL:RF-Circulator-BO:IntlkOp-Mon</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>248</v>
@@ -9235,7 +9665,7 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -9243,7 +9673,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -9263,12 +9693,12 @@
       <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="35" t="str">
+      <c r="I6" s="34" t="str">
         <f>IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6,C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6)</f>
         <v>RA-TL:RF-Circulator-BO:FlwRt-Mon</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>248</v>
@@ -9278,7 +9708,7 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -9286,7 +9716,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -9306,12 +9736,12 @@
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="35" t="str">
+      <c r="I7" s="34" t="str">
         <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7)</f>
         <v>RA-TL:RF-Circulator-BO:Sts-Mon</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>248</v>
@@ -9321,7 +9751,7 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -9349,12 +9779,12 @@
       <c r="H8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="35" t="str">
+      <c r="I8" s="34" t="str">
         <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8)</f>
         <v>RA-TL:RF-Circulator-BO:TDown-Mon</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>248</v>
@@ -9364,7 +9794,7 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -9392,12 +9822,12 @@
       <c r="H9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="35" t="str">
+      <c r="I9" s="34" t="str">
         <f>IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9,C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9)</f>
         <v>RA-TL:RF-Circulator-BO:TUp-Mon</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>248</v>
@@ -9407,7 +9837,7 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -9415,7 +9845,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -9435,12 +9865,12 @@
       <c r="H10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="35" t="str">
+      <c r="I10" s="34" t="str">
         <f>IF(G10="-",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;":"&amp;H10,C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;G10&amp;":"&amp;H10)</f>
         <v>RA-TL:RF-Circulator-BO:TDrift-Mon</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>248</v>
@@ -9450,7 +9880,7 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -9478,12 +9908,12 @@
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="35" t="str">
+      <c r="I11" s="34" t="str">
         <f>IF(G11="-",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;":"&amp;H11,C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;G11&amp;":"&amp;H11)</f>
         <v>RA-TL:RF-Circulator-BO:TEnvi-Mon</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>248</v>
@@ -9493,7 +9923,7 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -9501,7 +9931,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -9521,12 +9951,12 @@
       <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="35" t="str">
+      <c r="I12" s="34" t="str">
         <f>IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12,C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12)</f>
         <v>RA-TL:RF-Circulator-BO:LoadFlwRt-Mon</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>248</v>
@@ -9536,7 +9966,7 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1">
@@ -9564,22 +9994,22 @@
       <c r="H13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="36" t="str">
+      <c r="I13" s="35" t="str">
         <f>IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13,C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13)</f>
         <v>RA-TL:RF-Circulator-BO:Sts-Mon</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>248</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>250</v>
+      <c r="N13" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -9587,13 +10017,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
@@ -9602,17 +10032,17 @@
         <v>45</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="35" t="str">
+      <c r="I14" s="34" t="str">
         <f>IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14,C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14)</f>
         <v>RA-ToBO:RF-HeatSink-H01:Tms-Mon</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>248</v>
@@ -9622,7 +10052,7 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -9630,13 +10060,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -9645,17 +10075,17 @@
         <v>45</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="35" t="str">
+      <c r="I15" s="34" t="str">
         <f>IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15,C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15)</f>
         <v>RA-ToBO:RF-HeatSink-H02:Tms-Mon</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>248</v>
@@ -9665,7 +10095,7 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -9673,13 +10103,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
@@ -9688,17 +10118,17 @@
         <v>45</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="35" t="str">
+      <c r="I16" s="34" t="str">
         <f>IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16,C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16)</f>
         <v>RA-ToBO:RF-HeatSink-H03:Tms-Mon</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>248</v>
@@ -9708,7 +10138,7 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -9716,13 +10146,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
@@ -9731,17 +10161,17 @@
         <v>45</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="35" t="str">
+      <c r="I17" s="34" t="str">
         <f>IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17,C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17)</f>
         <v>RA-ToBO:RF-HeatSink-H04:Tms-Mon</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>248</v>
@@ -9751,7 +10181,7 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -9759,13 +10189,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>16</v>
@@ -9774,17 +10204,17 @@
         <v>45</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="35" t="str">
+      <c r="I18" s="34" t="str">
         <f>IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18)</f>
         <v>RA-ToBO:RF-HeatSink-H05:Tms-Mon</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>248</v>
@@ -9794,7 +10224,7 @@
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -9802,13 +10232,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>16</v>
@@ -9817,17 +10247,17 @@
         <v>45</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="35" t="str">
+      <c r="I19" s="34" t="str">
         <f>IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19,C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19)</f>
         <v>RA-ToBO:RF-HeatSink-H06:Tms-Mon</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>248</v>
@@ -9837,7 +10267,7 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -9845,13 +10275,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>16</v>
@@ -9860,29 +10290,29 @@
         <v>45</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="35" t="str">
+      <c r="I20" s="34" t="str">
         <f>IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20,C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20)</f>
         <v>RA-ToBO:RF-HeatSink-H01:T-Mon</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -9890,13 +10320,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>16</v>
@@ -9905,29 +10335,29 @@
         <v>45</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="35" t="str">
+      <c r="I21" s="34" t="str">
         <f>IF(G21="-",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;":"&amp;H21,C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;G21&amp;":"&amp;H21)</f>
         <v>RA-ToBO:RF-HeatSink-H02:T-Mon</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -9935,13 +10365,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>16</v>
@@ -9950,29 +10380,29 @@
         <v>45</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="35" t="str">
+      <c r="I22" s="34" t="str">
         <f>IF(G22="-",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;":"&amp;H22,C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;G22&amp;":"&amp;H22)</f>
         <v>RA-ToBO:RF-HeatSink-H03:T-Mon</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -9980,13 +10410,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>16</v>
@@ -9995,29 +10425,29 @@
         <v>45</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="35" t="str">
+      <c r="I23" s="34" t="str">
         <f>IF(G23="-",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;":"&amp;H23,C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;G23&amp;":"&amp;H23)</f>
         <v>RA-ToBO:RF-HeatSink-H04:T-Mon</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -10025,13 +10455,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>16</v>
@@ -10040,29 +10470,29 @@
         <v>45</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="35" t="str">
+      <c r="I24" s="34" t="str">
         <f>IF(G24="-",C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;":"&amp;H24,C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;"-"&amp;G24&amp;":"&amp;H24)</f>
         <v>RA-ToBO:RF-HeatSink-H05:T-Mon</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -10070,13 +10500,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -10085,29 +10515,29 @@
         <v>45</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="35" t="str">
+      <c r="I25" s="34" t="str">
         <f>IF(G25="-",C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;":"&amp;H25,C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;"-"&amp;G25&amp;":"&amp;H25)</f>
         <v>RA-ToBO:RF-HeatSink-H06:T-Mon</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -10115,13 +10545,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
@@ -10133,14 +10563,14 @@
         <v>132</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="I26" s="35" t="str">
+        <v>320</v>
+      </c>
+      <c r="I26" s="34" t="str">
         <f>IF(G26="-",C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;":"&amp;H26,C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;"-"&amp;G26&amp;":"&amp;H26)</f>
         <v>BO-05D:RF-Intlk:BO-Mon</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>248</v>
@@ -10150,7 +10580,7 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -10158,13 +10588,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>16</v>
@@ -10178,22 +10608,22 @@
       <c r="H27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="35" t="str">
+      <c r="I27" s="34" t="str">
         <f>IF(G27="-",C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;":"&amp;H27,C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;"-"&amp;G27&amp;":"&amp;H27)</f>
         <v>BO-05D:RF-Intlk:LLRF-Mon</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -10201,13 +10631,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
@@ -10221,12 +10651,12 @@
       <c r="H28" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="35" t="str">
+      <c r="I28" s="34" t="str">
         <f>IF(G28="-",C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;":"&amp;H28,C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;"-"&amp;G28&amp;":"&amp;H28)</f>
         <v>BO-05D:RF-Intlk:EStop-Mon</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>248</v>
@@ -10236,7 +10666,7 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -10244,13 +10674,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>16</v>
@@ -10264,12 +10694,12 @@
       <c r="H29" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I29" s="35" t="str">
+      <c r="I29" s="34" t="str">
         <f>IF(G29="-",C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;":"&amp;H29,C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;"-"&amp;G29&amp;":"&amp;H29)</f>
         <v>BO-05D:RF-Intlk:Reset-Sel</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>248</v>
@@ -10279,7 +10709,7 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -10293,7 +10723,7 @@
         <v>246</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>16</v>
@@ -10307,12 +10737,12 @@
       <c r="H30" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="35" t="str">
+      <c r="I30" s="34" t="str">
         <f>IF(G30="-",C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;":"&amp;H30,C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;"-"&amp;G30&amp;":"&amp;H30)</f>
         <v>BO-05D:RF-LLRF:Status-Mon</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>248</v>
@@ -10322,7 +10752,7 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -10330,13 +10760,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>16</v>
@@ -10350,12 +10780,12 @@
       <c r="H31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="35" t="str">
+      <c r="I31" s="34" t="str">
         <f>IF(G31="-",C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;":"&amp;H31,C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;"-"&amp;G31&amp;":"&amp;H31)</f>
         <v>BO-05D:RF-LLRF:Intlk-Mon</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>248</v>
@@ -10365,7 +10795,7 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>250</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -10373,13 +10803,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>16</v>
@@ -10393,7 +10823,7 @@
       <c r="H32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="37" t="str">
+      <c r="I32" s="36" t="str">
         <f>IF(G32="-",C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;":"&amp;H32,C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;"-"&amp;G32&amp;":"&amp;H32)</f>
         <v>BO-05D:RF-LLRFPreAmp:Tms-Mon</v>
       </c>
@@ -10407,8 +10837,8 @@
         <v>249</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="N32" s="27" t="s">
-        <v>250</v>
+      <c r="N32" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -10416,13 +10846,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>16</v>
@@ -10436,24 +10866,24 @@
       <c r="H33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="35" t="str">
+      <c r="I33" s="34" t="str">
         <f>IF(G33="-",C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;":"&amp;H33,C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;"-"&amp;G33&amp;":"&amp;H33)</f>
         <v>BO-05D:RF-LLRFPreAmp:T-Mon</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -10461,13 +10891,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E34" s="27" t="s">
         <v>16</v>
@@ -10479,9 +10909,9 @@
         <v>132</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="I34" s="37" t="str">
+        <v>342</v>
+      </c>
+      <c r="I34" s="36" t="str">
         <f>IF(G34="-",C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;":"&amp;H34,C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;"-"&amp;G34&amp;":"&amp;H34)</f>
         <v>BO-05D:RF-LLRFPreAmp:Enbl-Mon</v>
       </c>
@@ -10492,11 +10922,11 @@
         <v>248</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M34" s="4"/>
-      <c r="N34" s="27" t="s">
-        <v>250</v>
+      <c r="N34" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -10504,32 +10934,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="I35" s="35" t="str">
+        <v>345</v>
+      </c>
+      <c r="I35" s="34" t="str">
         <f>IF(G35="-",C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;":"&amp;H35,C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;"-"&amp;G35&amp;":"&amp;H35)</f>
         <v>BO-05D:RF-P5Cav:Pressure-Mon</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>248</v>
@@ -10539,7 +10969,7 @@
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4" t="s">
-        <v>250</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -10547,32 +10977,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I36" s="35" t="str">
+        <v>349</v>
+      </c>
+      <c r="I36" s="34" t="str">
         <f>IF(G36="-",C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;":"&amp;H36,C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;"-"&amp;G36&amp;":"&amp;H36)</f>
         <v>BO-05D:RF-P5Cav:Disc1Tms-Mon</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>248</v>
@@ -10582,7 +11012,7 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -10590,32 +11020,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I37" s="35" t="str">
+        <v>353</v>
+      </c>
+      <c r="I37" s="34" t="str">
         <f>IF(G37="-",C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;":"&amp;H37,C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;"-"&amp;G37&amp;":"&amp;H37)</f>
         <v>BO-05D:RF-P5Cav:Cilin1Tms-Mon</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>248</v>
@@ -10625,7 +11055,7 @@
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -10633,32 +11063,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I38" s="35" t="str">
+        <v>357</v>
+      </c>
+      <c r="I38" s="34" t="str">
         <f>IF(G38="-",C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;":"&amp;H38,C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;"-"&amp;G38&amp;":"&amp;H38)</f>
         <v>BO-05D:RF-P5Cav:Disc2Tms-Mon</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>248</v>
@@ -10668,7 +11098,7 @@
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>250</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -10676,32 +11106,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="I39" s="35" t="str">
+        <v>361</v>
+      </c>
+      <c r="I39" s="34" t="str">
         <f>IF(G39="-",C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;":"&amp;H39,C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;"-"&amp;G39&amp;":"&amp;H39)</f>
         <v>BO-05D:RF-P5Cav:Cilin2Tms-Mon</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>248</v>
@@ -10711,7 +11141,7 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -10719,32 +11149,32 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="I40" s="35" t="str">
+        <v>365</v>
+      </c>
+      <c r="I40" s="34" t="str">
         <f>IF(G40="-",C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;":"&amp;H40,C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;"-"&amp;G40&amp;":"&amp;H40)</f>
         <v>BO-05D:RF-P5Cav:Disc3Tms-Mon</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>248</v>
@@ -10754,7 +11184,7 @@
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -10762,32 +11192,32 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I41" s="35" t="str">
+        <v>369</v>
+      </c>
+      <c r="I41" s="34" t="str">
         <f>IF(G41="-",C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;":"&amp;H41,C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;"-"&amp;G41&amp;":"&amp;H41)</f>
         <v>BO-05D:RF-P5Cav:Cilin3Tms-Mon</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>248</v>
@@ -10797,7 +11227,7 @@
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -10805,32 +11235,32 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I42" s="35" t="str">
+        <v>373</v>
+      </c>
+      <c r="I42" s="34" t="str">
         <f>IF(G42="-",C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;":"&amp;H42,C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;"-"&amp;G42&amp;":"&amp;H42)</f>
         <v>BO-05D:RF-P5Cav:Disc4Tms-Mon</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>248</v>
@@ -10840,7 +11270,7 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4" t="s">
-        <v>250</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -10848,32 +11278,32 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I43" s="35" t="str">
+        <v>377</v>
+      </c>
+      <c r="I43" s="34" t="str">
         <f>IF(G43="-",C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;":"&amp;H43,C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;"-"&amp;G43&amp;":"&amp;H43)</f>
         <v>BO-05D:RF-P5Cav:Cilin4Tms-Mon</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>248</v>
@@ -10883,7 +11313,7 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>250</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -10891,32 +11321,32 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I44" s="35" t="str">
+        <v>381</v>
+      </c>
+      <c r="I44" s="34" t="str">
         <f>IF(G44="-",C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;":"&amp;H44,C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;"-"&amp;G44&amp;":"&amp;H44)</f>
         <v>BO-05D:RF-P5Cav:Disc5Tms-Mon</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>248</v>
@@ -10926,7 +11356,7 @@
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -10934,32 +11364,32 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="I45" s="35" t="str">
+        <v>385</v>
+      </c>
+      <c r="I45" s="34" t="str">
         <f>IF(G45="-",C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;":"&amp;H45,C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;"-"&amp;G45&amp;":"&amp;H45)</f>
         <v>BO-05D:RF-P5Cav:Cilin5Tms-Mon</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>248</v>
@@ -10969,7 +11399,7 @@
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>250</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -10977,32 +11407,32 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="I46" s="35" t="str">
+        <v>389</v>
+      </c>
+      <c r="I46" s="34" t="str">
         <f>IF(G46="-",C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;":"&amp;H46,C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;"-"&amp;G46&amp;":"&amp;H46)</f>
         <v>BO-05D:RF-P5Cav:Disc6Tms-Mon</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>248</v>
@@ -11012,7 +11442,7 @@
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4" t="s">
-        <v>250</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -11020,32 +11450,32 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I47" s="35" t="str">
+        <v>393</v>
+      </c>
+      <c r="I47" s="34" t="str">
         <f>IF(G47="-",C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;":"&amp;H47,C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;"-"&amp;G47&amp;":"&amp;H47)</f>
         <v>BO-05D:RF-P5Cav:Hd1FlwRt-Mon</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>248</v>
@@ -11055,7 +11485,7 @@
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>250</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -11063,32 +11493,32 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="I48" s="35" t="str">
+        <v>397</v>
+      </c>
+      <c r="I48" s="34" t="str">
         <f>IF(G48="-",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;":"&amp;H48,C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;"-"&amp;G48&amp;":"&amp;H48)</f>
         <v>BO-05D:RF-P5Cav:Hd2FlwRt-Mon</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>248</v>
@@ -11098,40 +11528,40 @@
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="12">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="I49" s="35" t="str">
+        <v>401</v>
+      </c>
+      <c r="I49" s="34" t="str">
         <f>IF(G49="-",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;":"&amp;H49,C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;"-"&amp;G49&amp;":"&amp;H49)</f>
         <v>BO-05D:RF-P5Cav:Hd3FlwRt-Mon</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>248</v>
@@ -11141,40 +11571,40 @@
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="12">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I50" s="35" t="str">
+        <v>405</v>
+      </c>
+      <c r="I50" s="34" t="str">
         <f>IF(G50="-",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;":"&amp;H50,C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;"-"&amp;G50&amp;":"&amp;H50)</f>
         <v>BO-05D:RF-P5Cav:CoupPressure-Mon</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>248</v>
@@ -11184,252 +11614,252 @@
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="12">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="I51" s="35" t="str">
+        <v>409</v>
+      </c>
+      <c r="I51" s="34" t="str">
         <f>IF(G51="-",C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;":"&amp;H51,C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;"-"&amp;G51&amp;":"&amp;H51)</f>
         <v>BO-05D:RF-P5Cav:Cilin1T-Mon</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="12">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I52" s="35" t="str">
+        <v>412</v>
+      </c>
+      <c r="I52" s="34" t="str">
         <f>IF(G52="-",C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;":"&amp;H52,C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;"-"&amp;G52&amp;":"&amp;H52)</f>
         <v>BO-05D:RF-P5Cav:Cilin2T-Mon</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="12">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I53" s="35" t="str">
+        <v>415</v>
+      </c>
+      <c r="I53" s="34" t="str">
         <f>IF(G53="-",C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;":"&amp;H53,C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;"-"&amp;G53&amp;":"&amp;H53)</f>
         <v>BO-05D:RF-P5Cav:Cilin3T-Mon</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="12">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="I54" s="35" t="str">
+        <v>418</v>
+      </c>
+      <c r="I54" s="34" t="str">
         <f>IF(G54="-",C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;":"&amp;H54,C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;"-"&amp;G54&amp;":"&amp;H54)</f>
         <v>BO-05D:RF-P5Cav:Cilin4T-Mon</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="12">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="I55" s="35" t="str">
+        <v>421</v>
+      </c>
+      <c r="I55" s="34" t="str">
         <f>IF(G55="-",C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;":"&amp;H55,C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;"-"&amp;G55&amp;":"&amp;H55)</f>
         <v>BO-05D:RF-P5Cav:Cilin5T-Mon</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="12">
         <v>55</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>246</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>132</v>
@@ -11437,45 +11867,44 @@
       <c r="H56" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="I56" s="38" t="str">
+      <c r="I56" s="37" t="str">
         <f>IF(G56="-",C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;":"&amp;H56,C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;"-"&amp;G56&amp;":"&amp;H56)</f>
         <v>BO-05D:RF-P5Cav:CoupT-Mon</v>
       </c>
       <c r="J56" s="32" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L56" s="32" t="s">
         <v>249</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="N56" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="O56" s="33"/>
-    </row>
-    <row r="57" spans="1:16" s="16" customFormat="1">
+        <v>307</v>
+      </c>
+      <c r="N56" s="32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="16" customFormat="1">
       <c r="A57" s="12">
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>246</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>132</v>
@@ -11483,37 +11912,37 @@
       <c r="H57" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="36" t="str">
+      <c r="I57" s="35" t="str">
         <f>IF(G57="-",C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;":"&amp;H57,C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;"-"&amp;G57&amp;":"&amp;H57)</f>
         <v>BO-05D:RF-P5Cav:Sts-Mon</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>248</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M57" s="4"/>
-      <c r="N57" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="P57" s="30"/>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="N57" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="O57" s="30"/>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="12">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>16</v>
@@ -11527,38 +11956,38 @@
       <c r="H58" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I58" s="35" t="str">
+      <c r="I58" s="34" t="str">
         <f>IF(G58="-",C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;":"&amp;H58,C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;"-"&amp;G58&amp;":"&amp;H58)</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrRF-Mon</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="12">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>16</v>
@@ -11572,12 +12001,12 @@
       <c r="H59" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I59" s="35" t="str">
+      <c r="I59" s="34" t="str">
         <f>IF(G59="-",C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;":"&amp;H59,C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;"-"&amp;G59&amp;":"&amp;H59)</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrACOp-Mon</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>248</v>
@@ -11587,21 +12016,21 @@
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="12">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>16</v>
@@ -11615,12 +12044,12 @@
       <c r="H60" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I60" s="35" t="str">
+      <c r="I60" s="34" t="str">
         <f>IF(G60="-",C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;":"&amp;H60,C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;"-"&amp;G60&amp;":"&amp;H60)</f>
         <v>RA-ToBO:RF-SSAmpTower:HdFlwRt-Mon</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>248</v>
@@ -11630,21 +12059,21 @@
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="12">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>16</v>
@@ -11656,38 +12085,38 @@
         <v>132</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="I61" s="35" t="str">
+        <v>438</v>
+      </c>
+      <c r="I61" s="34" t="str">
         <f>IF(G61="-",C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;":"&amp;H61,C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;"-"&amp;G61&amp;":"&amp;H61)</f>
         <v>RA-ToBO:RF-SSAmpTower:PinSw-Mon</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="12">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>16</v>
@@ -11699,38 +12128,38 @@
         <v>132</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="I62" s="35" t="str">
+        <v>442</v>
+      </c>
+      <c r="I62" s="34" t="str">
         <f>IF(G62="-",C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;":"&amp;H62,C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;"-"&amp;G62&amp;":"&amp;H62)</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrCnvDsbl-Sel</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="12">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>16</v>
@@ -11742,38 +12171,38 @@
         <v>132</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="I63" s="35" t="str">
+        <v>446</v>
+      </c>
+      <c r="I63" s="34" t="str">
         <f>IF(G63="-",C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;":"&amp;H63,C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;"-"&amp;G63&amp;":"&amp;H63)</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrCnvEnbl-Sel</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="12">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>16</v>
@@ -11785,24 +12214,24 @@
         <v>132</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="I64" s="35" t="str">
+        <v>450</v>
+      </c>
+      <c r="I64" s="34" t="str">
         <f>IF(G64="-",C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;":"&amp;H64,C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;"-"&amp;G64&amp;":"&amp;H64)</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrCnv-Sts</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4" t="s">
-        <v>250</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -11810,13 +12239,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>16</v>
@@ -11828,24 +12257,24 @@
         <v>132</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="I65" s="35" t="str">
+        <v>454</v>
+      </c>
+      <c r="I65" s="34" t="str">
         <f t="shared" ref="I65:I67" si="0">IF(G65="-",C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;":"&amp;H65,C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;"-"&amp;G65&amp;":"&amp;H65)</f>
         <v>RA-ToBO:RF-SSAmpTower:300VdcDsbl-Sel</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -11853,13 +12282,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>16</v>
@@ -11871,24 +12300,24 @@
         <v>132</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="I66" s="35" t="str">
+        <v>458</v>
+      </c>
+      <c r="I66" s="34" t="str">
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmpTower:300VdcEnbl-Sel</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4" t="s">
-        <v>250</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -11896,13 +12325,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>16</v>
@@ -11914,24 +12343,24 @@
         <v>132</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="I67" s="35" t="str">
+        <v>460</v>
+      </c>
+      <c r="I67" s="34" t="str">
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmpTower:300Vdc-Sts</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4" t="s">
-        <v>250</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="16" customFormat="1">
@@ -11939,13 +12368,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>246</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>16</v>
@@ -11959,22 +12388,22 @@
       <c r="H68" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="36" t="str">
+      <c r="I68" s="35" t="str">
         <f>IF(G68="-",C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;":"&amp;H68,C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;"-"&amp;G68&amp;":"&amp;H68)</f>
         <v>BO-ToBO:RF-SSAmpTower:Sts-Mon</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>248</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M68" s="4"/>
-      <c r="N68" s="4" t="s">
-        <v>250</v>
+      <c r="N68" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="16" customFormat="1">
@@ -12002,22 +12431,22 @@
       <c r="H69" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="36" t="str">
+      <c r="I69" s="35" t="str">
         <f>IF(G69="-",C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;":"&amp;H69,C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;"-"&amp;G69&amp;":"&amp;H69)</f>
         <v>RA-TL:RF-TrLine-BO:Sts-Mon</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>248</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M69" s="4"/>
-      <c r="N69" s="4" t="s">
-        <v>250</v>
+      <c r="N69" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -12025,13 +12454,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>16</v>
@@ -12040,27 +12469,27 @@
         <v>131</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I70" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I70" s="34" t="str">
         <f>IF(G70="-",C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;":"&amp;H70,C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;"-"&amp;G70&amp;":"&amp;H70)</f>
         <v>BO-05D:RF-Intlk-In01:AnalogSpare-Mon</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>250</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -12068,13 +12497,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>16</v>
@@ -12083,27 +12512,27 @@
         <v>131</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I71" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I71" s="34" t="str">
         <f t="shared" ref="I70:I123" si="1">IF(G71="-",C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;":"&amp;H71,C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;"-"&amp;G71&amp;":"&amp;H71)</f>
         <v>BO-05D:RF-Intlk-In02:AnalogSpare-Mon</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>250</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -12111,13 +12540,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>16</v>
@@ -12126,27 +12555,27 @@
         <v>131</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I72" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I72" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In03:AnalogSpare-Mon</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>250</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -12154,13 +12583,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>16</v>
@@ -12169,27 +12598,27 @@
         <v>131</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I73" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I73" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In04:AnalogSpare-Mon</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4" t="s">
-        <v>250</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -12197,13 +12626,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>16</v>
@@ -12212,27 +12641,27 @@
         <v>131</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I74" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I74" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In05:AnalogSpare-Mon</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>250</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -12240,13 +12669,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>16</v>
@@ -12255,27 +12684,27 @@
         <v>131</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I75" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I75" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In06:AnalogSpare-Mon</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4" t="s">
-        <v>250</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -12283,13 +12712,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>16</v>
@@ -12298,27 +12727,27 @@
         <v>131</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I76" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I76" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In07:AnalogSpare-Mon</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -12326,13 +12755,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>16</v>
@@ -12341,27 +12770,27 @@
         <v>131</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I77" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I77" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In08:AnalogSpare-Mon</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4" t="s">
-        <v>250</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -12369,13 +12798,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>16</v>
@@ -12384,27 +12813,27 @@
         <v>131</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I78" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I78" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In09:AnalogSpare-Mon</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4" t="s">
-        <v>250</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -12412,13 +12841,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>16</v>
@@ -12427,27 +12856,27 @@
         <v>131</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I79" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I79" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In10:AnalogSpare-Mon</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>250</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -12455,13 +12884,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>16</v>
@@ -12470,27 +12899,27 @@
         <v>131</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I80" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I80" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In11:AnalogSpare-Mon</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>250</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -12498,13 +12927,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>16</v>
@@ -12513,27 +12942,27 @@
         <v>131</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I81" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I81" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In12:AnalogSpare-Mon</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4" t="s">
-        <v>250</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -12541,13 +12970,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>16</v>
@@ -12556,27 +12985,27 @@
         <v>131</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I82" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I82" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In13:AnalogSpare-Mon</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>250</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -12584,13 +13013,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>16</v>
@@ -12599,27 +13028,27 @@
         <v>131</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I83" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I83" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In14:AnalogSpare-Mon</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4" t="s">
-        <v>250</v>
+        <v>508</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -12627,13 +13056,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>16</v>
@@ -12642,27 +13071,27 @@
         <v>131</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I84" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I84" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In15:AnalogSpare-Mon</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4" t="s">
-        <v>250</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -12670,13 +13099,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>16</v>
@@ -12685,27 +13114,27 @@
         <v>131</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I85" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I85" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In16:AnalogSpare-Mon</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L85" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>250</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -12713,13 +13142,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>16</v>
@@ -12728,27 +13157,27 @@
         <v>131</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I86" s="35" t="str">
+      <c r="I86" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In17:AnalogSpare-Mon</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4" t="s">
-        <v>250</v>
+        <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -12756,13 +13185,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>16</v>
@@ -12771,27 +13200,27 @@
         <v>131</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I87" s="35" t="str">
+        <v>468</v>
+      </c>
+      <c r="I87" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In18:AnalogSpare-Mon</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4" t="s">
-        <v>250</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -12799,13 +13228,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>16</v>
@@ -12814,17 +13243,17 @@
         <v>131</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I88" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I88" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In01:DigitalSpare-Mon</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>248</v>
@@ -12834,7 +13263,7 @@
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>250</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -12842,13 +13271,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>16</v>
@@ -12857,17 +13286,17 @@
         <v>131</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I89" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I89" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In02:DigitalSpare-Mon</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>248</v>
@@ -12877,7 +13306,7 @@
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4" t="s">
-        <v>250</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -12885,13 +13314,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>16</v>
@@ -12900,17 +13329,17 @@
         <v>131</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I90" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I90" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In03:DigitalSpare-Mon</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>248</v>
@@ -12920,7 +13349,7 @@
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4" t="s">
-        <v>250</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -12928,13 +13357,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>16</v>
@@ -12943,17 +13372,17 @@
         <v>131</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I91" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I91" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In04:DigitalSpare-Mon</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>248</v>
@@ -12963,7 +13392,7 @@
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4" t="s">
-        <v>250</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -12971,13 +13400,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>16</v>
@@ -12986,17 +13415,17 @@
         <v>131</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I92" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I92" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In05:DigitalSpare-Mon</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>248</v>
@@ -13006,7 +13435,7 @@
       </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4" t="s">
-        <v>250</v>
+        <v>531</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -13014,13 +13443,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>16</v>
@@ -13029,17 +13458,17 @@
         <v>131</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I93" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I93" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In06:DigitalSpare-Mon</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>248</v>
@@ -13049,7 +13478,7 @@
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>250</v>
+        <v>533</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -13057,13 +13486,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>16</v>
@@ -13072,17 +13501,17 @@
         <v>131</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I94" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I94" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In07:DigitalSpare-Mon</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>248</v>
@@ -13092,7 +13521,7 @@
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -13100,13 +13529,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>16</v>
@@ -13115,17 +13544,17 @@
         <v>131</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I95" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I95" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In08:DigitalSpare-Mon</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>248</v>
@@ -13135,7 +13564,7 @@
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>250</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -13143,13 +13572,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>16</v>
@@ -13158,17 +13587,17 @@
         <v>131</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I96" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I96" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In09:DigitalSpare-Mon</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>248</v>
@@ -13178,7 +13607,7 @@
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4" t="s">
-        <v>250</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -13186,13 +13615,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>16</v>
@@ -13201,17 +13630,17 @@
         <v>131</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I97" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I97" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In10:DigitalSpare-Mon</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>248</v>
@@ -13221,7 +13650,7 @@
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4" t="s">
-        <v>250</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -13229,13 +13658,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>16</v>
@@ -13244,17 +13673,17 @@
         <v>131</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I98" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I98" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In11:DigitalSpare-Mon</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>248</v>
@@ -13264,7 +13693,7 @@
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>250</v>
+        <v>543</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -13272,13 +13701,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>16</v>
@@ -13287,17 +13716,17 @@
         <v>131</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I99" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I99" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In12:DigitalSpare-Mon</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>248</v>
@@ -13307,7 +13736,7 @@
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>250</v>
+        <v>545</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -13315,13 +13744,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>16</v>
@@ -13330,17 +13759,17 @@
         <v>131</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I100" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I100" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In13:DigitalSpare-Mon</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>248</v>
@@ -13350,7 +13779,7 @@
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4" t="s">
-        <v>250</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -13358,13 +13787,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>16</v>
@@ -13373,17 +13802,17 @@
         <v>131</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I101" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I101" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In14:DigitalSpare-Mon</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>248</v>
@@ -13393,7 +13822,7 @@
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>250</v>
+        <v>549</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -13401,13 +13830,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>16</v>
@@ -13416,17 +13845,17 @@
         <v>131</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I102" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I102" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In15:DigitalSpare-Mon</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>248</v>
@@ -13436,7 +13865,7 @@
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4" t="s">
-        <v>250</v>
+        <v>551</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -13444,13 +13873,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>16</v>
@@ -13459,17 +13888,17 @@
         <v>131</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I103" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I103" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In16:DigitalSpare-Mon</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>248</v>
@@ -13479,7 +13908,7 @@
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>250</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -13487,13 +13916,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>16</v>
@@ -13502,17 +13931,17 @@
         <v>131</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I104" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I104" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In17:DigitalSpare-Mon</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>248</v>
@@ -13522,7 +13951,7 @@
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>250</v>
+        <v>555</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -13530,13 +13959,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>16</v>
@@ -13545,17 +13974,17 @@
         <v>131</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I105" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I105" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In18:DigitalSpare-Mon</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>248</v>
@@ -13565,7 +13994,7 @@
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>250</v>
+        <v>557</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -13573,13 +14002,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>16</v>
@@ -13588,17 +14017,17 @@
         <v>131</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I106" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I106" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In19:DigitalSpare-Mon</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>248</v>
@@ -13608,7 +14037,7 @@
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4" t="s">
-        <v>250</v>
+        <v>560</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -13616,13 +14045,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>513</v>
+        <v>561</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>16</v>
@@ -13631,17 +14060,17 @@
         <v>131</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>514</v>
+        <v>562</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I107" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I107" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In20:DigitalSpare-Mon</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>248</v>
@@ -13651,7 +14080,7 @@
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4" t="s">
-        <v>250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -13659,13 +14088,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>16</v>
@@ -13674,17 +14103,17 @@
         <v>131</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I108" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I108" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In21:DigitalSpare-Mon</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>248</v>
@@ -13694,7 +14123,7 @@
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4" t="s">
-        <v>250</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -13702,13 +14131,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>519</v>
+        <v>567</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>16</v>
@@ -13717,17 +14146,17 @@
         <v>131</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I109" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I109" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In22:DigitalSpare-Mon</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>248</v>
@@ -13737,7 +14166,7 @@
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>250</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -13745,13 +14174,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>16</v>
@@ -13760,17 +14189,17 @@
         <v>131</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I110" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I110" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In23:DigitalSpare-Mon</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>248</v>
@@ -13780,7 +14209,7 @@
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>250</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -13788,13 +14217,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>16</v>
@@ -13803,17 +14232,17 @@
         <v>131</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I111" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I111" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In24:DigitalSpare-Mon</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>248</v>
@@ -13823,7 +14252,7 @@
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4" t="s">
-        <v>250</v>
+        <v>575</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -13831,13 +14260,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>16</v>
@@ -13846,17 +14275,17 @@
         <v>131</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I112" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I112" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-In25:DigitalSpare-Mon</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>530</v>
+        <v>578</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>248</v>
@@ -13866,7 +14295,7 @@
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4" t="s">
-        <v>250</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -13874,13 +14303,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>16</v>
@@ -13889,27 +14318,27 @@
         <v>131</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I113" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I113" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out01:DigitalSpare-Mon</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4" t="s">
-        <v>250</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -13917,13 +14346,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>16</v>
@@ -13932,27 +14361,27 @@
         <v>131</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I114" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I114" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out02:DigitalSpare-Mon</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>250</v>
+        <v>584</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -13960,13 +14389,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>537</v>
+        <v>585</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>16</v>
@@ -13975,27 +14404,27 @@
         <v>131</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I115" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I115" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out03:DigitalSpare-Mon</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4" t="s">
-        <v>250</v>
+        <v>587</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -14003,13 +14432,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>16</v>
@@ -14018,27 +14447,27 @@
         <v>131</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I116" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I116" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out04:DigitalSpare-Mon</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4" t="s">
-        <v>250</v>
+        <v>590</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -14046,13 +14475,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>16</v>
@@ -14061,27 +14490,27 @@
         <v>131</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I117" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I117" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out05:DigitalSpare-Mon</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M117" s="4"/>
-      <c r="N117" s="4" t="s">
-        <v>250</v>
+      <c r="N117" s="3" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -14089,13 +14518,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>16</v>
@@ -14104,27 +14533,27 @@
         <v>131</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I118" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I118" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out06:DigitalSpare-Mon</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M118" s="4"/>
-      <c r="N118" s="4" t="s">
-        <v>250</v>
+      <c r="N118" s="3" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -14132,13 +14561,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>16</v>
@@ -14147,27 +14576,27 @@
         <v>131</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I119" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I119" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out07:DigitalSpare-Mon</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M119" s="4"/>
-      <c r="N119" s="4" t="s">
-        <v>250</v>
+      <c r="N119" s="3" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -14175,13 +14604,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>16</v>
@@ -14190,27 +14619,27 @@
         <v>131</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I120" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I120" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out08:DigitalSpare-Mon</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M120" s="4"/>
-      <c r="N120" s="4" t="s">
-        <v>250</v>
+      <c r="N120" s="3" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -14218,13 +14647,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>16</v>
@@ -14233,27 +14662,27 @@
         <v>131</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I121" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I121" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out09:DigitalSpare-Mon</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>557</v>
+        <v>605</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M121" s="4"/>
-      <c r="N121" s="4" t="s">
-        <v>250</v>
+      <c r="N121" s="3" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -14261,13 +14690,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>558</v>
+        <v>606</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>16</v>
@@ -14276,27 +14705,27 @@
         <v>131</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>559</v>
+        <v>607</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I122" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I122" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out10:DigitalSpare-Mon</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>560</v>
+        <v>608</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M122" s="4"/>
-      <c r="N122" s="4" t="s">
-        <v>250</v>
+      <c r="N122" s="3" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -14304,13 +14733,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>16</v>
@@ -14319,27 +14748,27 @@
         <v>131</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>562</v>
+        <v>610</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I123" s="35" t="str">
+        <v>522</v>
+      </c>
+      <c r="I123" s="34" t="str">
         <f t="shared" si="1"/>
         <v>BO-05D:RF-Intlk-Out11:DigitalSpare-Mon</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>563</v>
+        <v>611</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M123" s="4"/>
-      <c r="N123" s="4" t="s">
-        <v>250</v>
+      <c r="N123" s="3" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="124" spans="1:14">

--- a/etc/Interlock_RF_EPICS_V2.xlsx
+++ b/etc/Interlock_RF_EPICS_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranieri.santos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24670902-8833-42E4-8841-FA50EFECD258}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8059A47-9C72-4A3E-96E9-E08B994C0CEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="43080" windowHeight="6375" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43080" windowHeight="6375" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anel" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="612">
   <si>
     <t>Variável</t>
   </si>
@@ -187,6 +187,9 @@
     <t>EGU</t>
   </si>
   <si>
+    <t>TAG</t>
+  </si>
+  <si>
     <t>Detector de Arco Sistema A</t>
   </si>
   <si>
@@ -880,9 +883,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>TAG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Detector de Arco </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Aquecedor (via Controlador do Circulador)</t>
+    <t>Aquecedor - via Controlador do Circulador</t>
   </si>
   <si>
     <t>Heater-Mon</t>
@@ -922,7 +922,7 @@
     <t>Memorias[0] B 29</t>
   </si>
   <si>
-    <t>Vazão Circulador (Via Skid)</t>
+    <t>Vazão Circulador - Via Skid</t>
   </si>
   <si>
     <t>Memorias[0].30</t>
@@ -1138,7 +1138,7 @@
     <t>Memorias[1] B 6</t>
   </si>
   <si>
-    <t>Reset de Falhas (Reseta todas as falhas do sistema remotamente)</t>
+    <t>Reset de Falhas - Reseta todas as falhas do sistema remotamente</t>
   </si>
   <si>
     <t>Memorias[5].19</t>
@@ -1450,7 +1450,7 @@
     <t>Memorias[0] B 19</t>
   </si>
   <si>
-    <t>Vazão Rotâmetro (via Skid)</t>
+    <t>Vazão Rotâmetro - via Skid</t>
   </si>
   <si>
     <t>Memorias[0].20</t>
@@ -2219,7 +2219,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2357,6 +2357,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2689,8 +2692,8 @@
   <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2704,15 +2707,16 @@
     <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="38.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2752,31 +2756,34 @@
       <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="45" t="str">
         <f>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2)</f>
@@ -2787,30 +2794,30 @@
       <c r="L2" s="46"/>
       <c r="M2" s="46"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="13" t="str">
         <f>IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3,C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3)</f>
@@ -2821,30 +2828,30 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="13" t="str">
         <f>IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4,C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4)</f>
@@ -2855,30 +2862,30 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="13" t="str">
         <f>IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5,C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5)</f>
@@ -2889,30 +2896,30 @@
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="13" t="str">
         <f>IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6,C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6)</f>
@@ -2923,30 +2930,30 @@
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="13" t="str">
         <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7)</f>
@@ -2957,30 +2964,30 @@
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="13" t="str">
         <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8)</f>
@@ -2991,30 +2998,30 @@
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="13" t="str">
         <f>IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9,C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9)</f>
@@ -3025,30 +3032,30 @@
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="13" t="str">
         <f>IF(G10="-",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;":"&amp;H10,C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;G10&amp;":"&amp;H10)</f>
@@ -3059,30 +3066,30 @@
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="13" t="str">
         <f>IF(G11="-",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;":"&amp;H11,C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;G11&amp;":"&amp;H11)</f>
@@ -3093,30 +3100,30 @@
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="13" t="str">
         <f>IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12,C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12)</f>
@@ -3127,30 +3134,30 @@
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="13" t="str">
         <f>IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13,C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13)</f>
@@ -3161,30 +3168,30 @@
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" s="41" t="str">
         <f>IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14,C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14)</f>
@@ -3195,30 +3202,30 @@
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="13" t="str">
         <f>IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15,C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15)</f>
@@ -3229,30 +3236,30 @@
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="I16" s="13" t="str">
         <f>IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16,C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16)</f>
@@ -3268,25 +3275,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" s="13" t="str">
         <f>IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17,C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17)</f>
@@ -3302,25 +3309,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" s="13" t="str">
         <f>IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18)</f>
@@ -3336,25 +3343,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" s="13" t="str">
         <f>IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19,C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19)</f>
@@ -3370,25 +3377,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" s="13" t="str">
         <f>IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20,C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20)</f>
@@ -3404,25 +3411,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" s="13" t="str">
         <f>IF(G21="-",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;":"&amp;H21,C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;G21&amp;":"&amp;H21)</f>
@@ -3438,25 +3445,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" s="13" t="str">
         <f>IF(G22="-",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;":"&amp;H22,C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;G22&amp;":"&amp;H22)</f>
@@ -3472,25 +3479,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" s="13" t="str">
         <f>IF(G23="-",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;":"&amp;H23,C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;G23&amp;":"&amp;H23)</f>
@@ -3506,25 +3513,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" s="13" t="str">
         <f>IF(G24="-",C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;":"&amp;H24,C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;"-"&amp;G24&amp;":"&amp;H24)</f>
@@ -3540,25 +3547,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" s="13" t="str">
         <f>IF(G25="-",C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;":"&amp;H25,C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;"-"&amp;G25&amp;":"&amp;H25)</f>
@@ -3574,25 +3581,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" s="13" t="str">
         <f>IF(G26="-",C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;":"&amp;H26,C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;"-"&amp;G26&amp;":"&amp;H26)</f>
@@ -3608,25 +3615,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" s="13" t="str">
         <f>IF(G27="-",C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;":"&amp;H27,C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;"-"&amp;G27&amp;":"&amp;H27)</f>
@@ -3642,25 +3649,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" s="13" t="str">
         <f>IF(G28="-",C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;":"&amp;H28,C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;"-"&amp;G28&amp;":"&amp;H28)</f>
@@ -3676,25 +3683,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" s="13" t="str">
         <f>IF(G29="-",C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;":"&amp;H29,C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;"-"&amp;G29&amp;":"&amp;H29)</f>
@@ -3710,25 +3717,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" s="13" t="str">
         <f>IF(G30="-",C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;":"&amp;H30,C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;"-"&amp;G30&amp;":"&amp;H30)</f>
@@ -3744,25 +3751,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" s="13" t="str">
         <f>IF(G31="-",C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;":"&amp;H31,C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;"-"&amp;G31&amp;":"&amp;H31)</f>
@@ -3778,25 +3785,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="I32" s="13" t="str">
         <f>IF(G32="-",C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;":"&amp;H32,C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;"-"&amp;G32&amp;":"&amp;H32)</f>
@@ -3812,25 +3819,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" s="13" t="str">
         <f>IF(G33="-",C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;":"&amp;H33,C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;"-"&amp;G33&amp;":"&amp;H33)</f>
@@ -3846,25 +3853,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I34" s="13" t="str">
         <f>IF(G34="-",C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;":"&amp;H34,C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;"-"&amp;G34&amp;":"&amp;H34)</f>
@@ -3880,25 +3887,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I35" s="13" t="str">
         <f>IF(G35="-",C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;":"&amp;H35,C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;"-"&amp;G35&amp;":"&amp;H35)</f>
@@ -3914,25 +3921,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I36" s="13" t="str">
         <f>IF(G36="-",C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;":"&amp;H36,C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;"-"&amp;G36&amp;":"&amp;H36)</f>
@@ -3948,25 +3955,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I37" s="13" t="str">
         <f>IF(G37="-",C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;":"&amp;H37,C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;"-"&amp;G37&amp;":"&amp;H37)</f>
@@ -3982,25 +3989,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" s="13" t="str">
         <f>IF(G38="-",C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;":"&amp;H38,C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;"-"&amp;G38&amp;":"&amp;H38)</f>
@@ -4016,25 +4023,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I39" s="13" t="str">
         <f>IF(G39="-",C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;":"&amp;H39,C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;"-"&amp;G39&amp;":"&amp;H39)</f>
@@ -4050,25 +4057,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I40" s="13" t="str">
         <f>IF(G40="-",C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;":"&amp;H40,C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;"-"&amp;G40&amp;":"&amp;H40)</f>
@@ -4084,25 +4091,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I41" s="13" t="str">
         <f>IF(G41="-",C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;":"&amp;H41,C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;"-"&amp;G41&amp;":"&amp;H41)</f>
@@ -4118,25 +4125,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42" s="13" t="str">
         <f>IF(G42="-",C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;":"&amp;H42,C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;"-"&amp;G42&amp;":"&amp;H42)</f>
@@ -4152,25 +4159,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I43" s="13" t="str">
         <f>IF(G43="-",C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;":"&amp;H43,C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;"-"&amp;G43&amp;":"&amp;H43)</f>
@@ -4186,25 +4193,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I44" s="13" t="str">
         <f>IF(G44="-",C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;":"&amp;H44,C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;"-"&amp;G44&amp;":"&amp;H44)</f>
@@ -4220,25 +4227,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I45" s="13" t="str">
         <f>IF(G45="-",C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;":"&amp;H45,C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;"-"&amp;G45&amp;":"&amp;H45)</f>
@@ -4254,25 +4261,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I46" s="13" t="str">
         <f>IF(G46="-",C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;":"&amp;H46,C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;"-"&amp;G46&amp;":"&amp;H46)</f>
@@ -4288,25 +4295,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" s="13" t="str">
         <f>IF(G47="-",C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;":"&amp;H47,C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;"-"&amp;G47&amp;":"&amp;H47)</f>
@@ -4322,25 +4329,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" s="13" t="str">
         <f>IF(G48="-",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;":"&amp;H48,C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;"-"&amp;G48&amp;":"&amp;H48)</f>
@@ -4356,25 +4363,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" s="13" t="str">
         <f>IF(G49="-",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;":"&amp;H49,C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;"-"&amp;G49&amp;":"&amp;H49)</f>
@@ -4390,25 +4397,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" s="13" t="str">
         <f>IF(G50="-",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;":"&amp;H50,C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;"-"&amp;G50&amp;":"&amp;H50)</f>
@@ -4424,25 +4431,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" s="13" t="str">
         <f>IF(G51="-",C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;":"&amp;H51,C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;"-"&amp;G51&amp;":"&amp;H51)</f>
@@ -4458,25 +4465,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" s="13" t="str">
         <f>IF(G52="-",C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;":"&amp;H52,C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;"-"&amp;G52&amp;":"&amp;H52)</f>
@@ -4492,25 +4499,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" s="13" t="str">
         <f>IF(G53="-",C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;":"&amp;H53,C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;"-"&amp;G53&amp;":"&amp;H53)</f>
@@ -4526,25 +4533,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" s="13" t="str">
         <f>IF(G54="-",C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;":"&amp;H54,C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;"-"&amp;G54&amp;":"&amp;H54)</f>
@@ -4560,25 +4567,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" s="13" t="str">
         <f>IF(G55="-",C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;":"&amp;H55,C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;"-"&amp;G55&amp;":"&amp;H55)</f>
@@ -4594,25 +4601,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" s="13" t="str">
         <f>IF(G56="-",C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;":"&amp;H56,C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;"-"&amp;G56&amp;":"&amp;H56)</f>
@@ -4628,25 +4635,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" s="13" t="str">
         <f>IF(G57="-",C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;":"&amp;H57,C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;"-"&amp;G57&amp;":"&amp;H57)</f>
@@ -4662,25 +4669,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" s="13" t="str">
         <f>IF(G58="-",C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;":"&amp;H58,C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;"-"&amp;G58&amp;":"&amp;H58)</f>
@@ -4696,25 +4703,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" s="13" t="str">
         <f>IF(G59="-",C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;":"&amp;H59,C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;"-"&amp;G59&amp;":"&amp;H59)</f>
@@ -4730,25 +4737,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" s="13" t="str">
         <f>IF(G60="-",C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;":"&amp;H60,C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;"-"&amp;G60&amp;":"&amp;H60)</f>
@@ -4764,25 +4771,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" s="13" t="str">
         <f>IF(G61="-",C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;":"&amp;H61,C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;"-"&amp;G61&amp;":"&amp;H61)</f>
@@ -4798,25 +4805,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" s="13" t="str">
         <f>IF(G62="-",C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;":"&amp;H62,C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;"-"&amp;G62&amp;":"&amp;H62)</f>
@@ -4832,25 +4839,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I63" s="13" t="str">
         <f>IF(G63="-",C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;":"&amp;H63,C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;"-"&amp;G63&amp;":"&amp;H63)</f>
@@ -4866,25 +4873,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I64" s="13" t="str">
         <f>IF(G64="-",C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;":"&amp;H64,C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;"-"&amp;G64&amp;":"&amp;H64)</f>
@@ -4900,25 +4907,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I65" s="13" t="str">
         <f>IF(G65="-",C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;":"&amp;H65,C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;"-"&amp;G65&amp;":"&amp;H65)</f>
@@ -4934,25 +4941,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I66" s="13" t="str">
         <f>IF(G66="-",C66&amp;"-"&amp;D66&amp;":"&amp;E66&amp;"-"&amp;F66&amp;":"&amp;H66,C66&amp;"-"&amp;D66&amp;":"&amp;E66&amp;"-"&amp;F66&amp;"-"&amp;G66&amp;":"&amp;H66)</f>
@@ -4968,25 +4975,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I67" s="13" t="str">
         <f>IF(G67="-",C67&amp;"-"&amp;D67&amp;":"&amp;E67&amp;"-"&amp;F67&amp;":"&amp;H67,C67&amp;"-"&amp;D67&amp;":"&amp;E67&amp;"-"&amp;F67&amp;"-"&amp;G67&amp;":"&amp;H67)</f>
@@ -5002,25 +5009,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I68" s="13" t="str">
         <f>IF(G68="-",C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;":"&amp;H68,C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;"-"&amp;G68&amp;":"&amp;H68)</f>
@@ -5036,25 +5043,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I69" s="13" t="str">
         <f>IF(G69="-",C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;":"&amp;H69,C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;"-"&amp;G69&amp;":"&amp;H69)</f>
@@ -5070,25 +5077,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I70" s="13" t="str">
         <f>IF(G70="-",C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;":"&amp;H70,C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;"-"&amp;G70&amp;":"&amp;H70)</f>
@@ -5104,25 +5111,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I71" s="13" t="str">
         <f>IF(G71="-",C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;":"&amp;H71,C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;"-"&amp;G71&amp;":"&amp;H71)</f>
@@ -5138,25 +5145,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I72" s="13" t="str">
         <f>IF(G72="-",C72&amp;"-"&amp;D72&amp;":"&amp;E72&amp;"-"&amp;F72&amp;":"&amp;H72,C72&amp;"-"&amp;D72&amp;":"&amp;E72&amp;"-"&amp;F72&amp;"-"&amp;G72&amp;":"&amp;H72)</f>
@@ -5172,25 +5179,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I73" s="13" t="str">
         <f>IF(G73="-",C73&amp;"-"&amp;D73&amp;":"&amp;E73&amp;"-"&amp;F73&amp;":"&amp;H73,C73&amp;"-"&amp;D73&amp;":"&amp;E73&amp;"-"&amp;F73&amp;"-"&amp;G73&amp;":"&amp;H73)</f>
@@ -5206,25 +5213,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I74" s="13" t="str">
         <f>IF(G74="-",C74&amp;"-"&amp;D74&amp;":"&amp;E74&amp;"-"&amp;F74&amp;":"&amp;H74,C74&amp;"-"&amp;D74&amp;":"&amp;E74&amp;"-"&amp;F74&amp;"-"&amp;G74&amp;":"&amp;H74)</f>
@@ -5240,25 +5247,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I75" s="13" t="str">
         <f>IF(G75="-",C75&amp;"-"&amp;D75&amp;":"&amp;E75&amp;"-"&amp;F75&amp;":"&amp;H75,C75&amp;"-"&amp;D75&amp;":"&amp;E75&amp;"-"&amp;F75&amp;"-"&amp;G75&amp;":"&amp;H75)</f>
@@ -5274,25 +5281,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I76" s="13" t="str">
         <f>IF(G76="-",C76&amp;"-"&amp;D76&amp;":"&amp;E76&amp;"-"&amp;F76&amp;":"&amp;H76,C76&amp;"-"&amp;D76&amp;":"&amp;E76&amp;"-"&amp;F76&amp;"-"&amp;G76&amp;":"&amp;H76)</f>
@@ -5308,25 +5315,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I77" s="13" t="str">
         <f>IF(G77="-",C77&amp;"-"&amp;D77&amp;":"&amp;E77&amp;"-"&amp;F77&amp;":"&amp;H77,C77&amp;"-"&amp;D77&amp;":"&amp;E77&amp;"-"&amp;F77&amp;"-"&amp;G77&amp;":"&amp;H77)</f>
@@ -5342,25 +5349,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I78" s="13" t="str">
         <f>IF(G78="-",C78&amp;"-"&amp;D78&amp;":"&amp;E78&amp;"-"&amp;F78&amp;":"&amp;H78,C78&amp;"-"&amp;D78&amp;":"&amp;E78&amp;"-"&amp;F78&amp;"-"&amp;G78&amp;":"&amp;H78)</f>
@@ -5376,25 +5383,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I79" s="13" t="str">
         <f>IF(G79="-",C79&amp;"-"&amp;D79&amp;":"&amp;E79&amp;"-"&amp;F79&amp;":"&amp;H79,C79&amp;"-"&amp;D79&amp;":"&amp;E79&amp;"-"&amp;F79&amp;"-"&amp;G79&amp;":"&amp;H79)</f>
@@ -5410,25 +5417,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I80" s="13" t="str">
         <f>IF(G80="-",C80&amp;"-"&amp;D80&amp;":"&amp;E80&amp;"-"&amp;F80&amp;":"&amp;H80,C80&amp;"-"&amp;D80&amp;":"&amp;E80&amp;"-"&amp;F80&amp;"-"&amp;G80&amp;":"&amp;H80)</f>
@@ -5444,25 +5451,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I81" s="13" t="str">
         <f>IF(G81="-",C81&amp;"-"&amp;D81&amp;":"&amp;E81&amp;"-"&amp;F81&amp;":"&amp;H81,C81&amp;"-"&amp;D81&amp;":"&amp;E81&amp;"-"&amp;F81&amp;"-"&amp;G81&amp;":"&amp;H81)</f>
@@ -5477,25 +5484,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I82" s="13" t="str">
         <f>IF(G82="-",C82&amp;"-"&amp;D82&amp;":"&amp;E82&amp;"-"&amp;F82&amp;":"&amp;H82,C82&amp;"-"&amp;D82&amp;":"&amp;E82&amp;"-"&amp;F82&amp;"-"&amp;G82&amp;":"&amp;H82)</f>
@@ -5511,25 +5518,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I83" s="13" t="str">
         <f>IF(G83="-",C83&amp;"-"&amp;D83&amp;":"&amp;E83&amp;"-"&amp;F83&amp;":"&amp;H83,C83&amp;"-"&amp;D83&amp;":"&amp;E83&amp;"-"&amp;F83&amp;"-"&amp;G83&amp;":"&amp;H83)</f>
@@ -5545,25 +5552,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I84" s="13" t="str">
         <f>IF(G84="-",C84&amp;"-"&amp;D84&amp;":"&amp;E84&amp;"-"&amp;F84&amp;":"&amp;H84,C84&amp;"-"&amp;D84&amp;":"&amp;E84&amp;"-"&amp;F84&amp;"-"&amp;G84&amp;":"&amp;H84)</f>
@@ -5579,25 +5586,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" s="13" t="str">
         <f>IF(G85="-",C85&amp;"-"&amp;D85&amp;":"&amp;E85&amp;"-"&amp;F85&amp;":"&amp;H85,C85&amp;"-"&amp;D85&amp;":"&amp;E85&amp;"-"&amp;F85&amp;"-"&amp;G85&amp;":"&amp;H85)</f>
@@ -5613,25 +5620,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G86" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G86" s="19" t="s">
-        <v>146</v>
-      </c>
       <c r="H86" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I86" s="13" t="str">
         <f>IF(G86="-",C86&amp;"-"&amp;D86&amp;":"&amp;E86&amp;"-"&amp;F86&amp;":"&amp;H86,C86&amp;"-"&amp;D86&amp;":"&amp;E86&amp;"-"&amp;F86&amp;"-"&amp;G86&amp;":"&amp;H86)</f>
@@ -5647,25 +5654,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" s="13" t="str">
         <f>IF(G87="-",C87&amp;"-"&amp;D87&amp;":"&amp;E87&amp;"-"&amp;F87&amp;":"&amp;H87,C87&amp;"-"&amp;D87&amp;":"&amp;E87&amp;"-"&amp;F87&amp;"-"&amp;G87&amp;":"&amp;H87)</f>
@@ -5681,25 +5688,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G88" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="H88" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I88" s="13" t="str">
         <f>IF(G88="-",C88&amp;"-"&amp;D88&amp;":"&amp;E88&amp;"-"&amp;F88&amp;":"&amp;H88,C88&amp;"-"&amp;D88&amp;":"&amp;E88&amp;"-"&amp;F88&amp;"-"&amp;G88&amp;":"&amp;H88)</f>
@@ -5715,25 +5722,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I89" s="13" t="str">
         <f>IF(G89="-",C89&amp;"-"&amp;D89&amp;":"&amp;E89&amp;"-"&amp;F89&amp;":"&amp;H89,C89&amp;"-"&amp;D89&amp;":"&amp;E89&amp;"-"&amp;F89&amp;"-"&amp;G89&amp;":"&amp;H89)</f>
@@ -5749,25 +5756,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I90" s="13" t="str">
         <f>IF(G90="-",C90&amp;"-"&amp;D90&amp;":"&amp;E90&amp;"-"&amp;F90&amp;":"&amp;H90,C90&amp;"-"&amp;D90&amp;":"&amp;E90&amp;"-"&amp;F90&amp;"-"&amp;G90&amp;":"&amp;H90)</f>
@@ -5783,25 +5790,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I91" s="13" t="str">
         <f>IF(G91="-",C91&amp;"-"&amp;D91&amp;":"&amp;E91&amp;"-"&amp;F91&amp;":"&amp;H91,C91&amp;"-"&amp;D91&amp;":"&amp;E91&amp;"-"&amp;F91&amp;"-"&amp;G91&amp;":"&amp;H91)</f>
@@ -5817,25 +5824,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I92" s="13" t="str">
         <f>IF(G92="-",C92&amp;"-"&amp;D92&amp;":"&amp;E92&amp;"-"&amp;F92&amp;":"&amp;H92,C92&amp;"-"&amp;D92&amp;":"&amp;E92&amp;"-"&amp;F92&amp;"-"&amp;G92&amp;":"&amp;H92)</f>
@@ -5851,25 +5858,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I93" s="13" t="str">
         <f>IF(G93="-",C93&amp;"-"&amp;D93&amp;":"&amp;E93&amp;"-"&amp;F93&amp;":"&amp;H93,C93&amp;"-"&amp;D93&amp;":"&amp;E93&amp;"-"&amp;F93&amp;"-"&amp;G93&amp;":"&amp;H93)</f>
@@ -5885,25 +5892,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I94" s="13" t="str">
         <f>IF(G94="-",C94&amp;"-"&amp;D94&amp;":"&amp;E94&amp;"-"&amp;F94&amp;":"&amp;H94,C94&amp;"-"&amp;D94&amp;":"&amp;E94&amp;"-"&amp;F94&amp;"-"&amp;G94&amp;":"&amp;H94)</f>
@@ -5919,25 +5926,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I95" s="13" t="str">
         <f>IF(G95="-",C95&amp;"-"&amp;D95&amp;":"&amp;E95&amp;"-"&amp;F95&amp;":"&amp;H95,C95&amp;"-"&amp;D95&amp;":"&amp;E95&amp;"-"&amp;F95&amp;"-"&amp;G95&amp;":"&amp;H95)</f>
@@ -5953,25 +5960,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I96" s="13" t="str">
         <f>IF(G96="-",C96&amp;"-"&amp;D96&amp;":"&amp;E96&amp;"-"&amp;F96&amp;":"&amp;H96,C96&amp;"-"&amp;D96&amp;":"&amp;E96&amp;"-"&amp;F96&amp;"-"&amp;G96&amp;":"&amp;H96)</f>
@@ -5987,25 +5994,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I97" s="13" t="str">
         <f>IF(G97="-",C97&amp;"-"&amp;D97&amp;":"&amp;E97&amp;"-"&amp;F97&amp;":"&amp;H97,C97&amp;"-"&amp;D97&amp;":"&amp;E97&amp;"-"&amp;F97&amp;"-"&amp;G97&amp;":"&amp;H97)</f>
@@ -6021,25 +6028,25 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I98" s="13" t="str">
         <f>IF(G98="-",C98&amp;"-"&amp;D98&amp;":"&amp;E98&amp;"-"&amp;F98&amp;":"&amp;H98,C98&amp;"-"&amp;D98&amp;":"&amp;E98&amp;"-"&amp;F98&amp;"-"&amp;G98&amp;":"&amp;H98)</f>
@@ -6055,25 +6062,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I99" s="13" t="str">
         <f>IF(G99="-",C99&amp;"-"&amp;D99&amp;":"&amp;E99&amp;"-"&amp;F99&amp;":"&amp;H99,C99&amp;"-"&amp;D99&amp;":"&amp;E99&amp;"-"&amp;F99&amp;"-"&amp;G99&amp;":"&amp;H99)</f>
@@ -6089,25 +6096,25 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I100" s="13" t="str">
         <f>IF(G100="-",C100&amp;"-"&amp;D100&amp;":"&amp;E100&amp;"-"&amp;F100&amp;":"&amp;H100,C100&amp;"-"&amp;D100&amp;":"&amp;E100&amp;"-"&amp;F100&amp;"-"&amp;G100&amp;":"&amp;H100)</f>
@@ -6123,25 +6130,25 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I101" s="13" t="str">
         <f>IF(G101="-",C101&amp;"-"&amp;D101&amp;":"&amp;E101&amp;"-"&amp;F101&amp;":"&amp;H101,C101&amp;"-"&amp;D101&amp;":"&amp;E101&amp;"-"&amp;F101&amp;"-"&amp;G101&amp;":"&amp;H101)</f>
@@ -6157,25 +6164,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I102" s="41" t="str">
         <f>IF(G102="-",C102&amp;"-"&amp;D102&amp;":"&amp;E102&amp;"-"&amp;F102&amp;":"&amp;H102,C102&amp;"-"&amp;D102&amp;":"&amp;E102&amp;"-"&amp;F102&amp;"-"&amp;G102&amp;":"&amp;H102)</f>
@@ -6191,25 +6198,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I103" s="13" t="str">
         <f>IF(G103="-",C103&amp;"-"&amp;D103&amp;":"&amp;E103&amp;"-"&amp;F103&amp;":"&amp;H103,C103&amp;"-"&amp;D103&amp;":"&amp;E103&amp;"-"&amp;F103&amp;"-"&amp;G103&amp;":"&amp;H103)</f>
@@ -6225,25 +6232,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="G104" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I104" s="13" t="str">
         <f>IF(G104="-",C104&amp;"-"&amp;D104&amp;":"&amp;E104&amp;"-"&amp;F104&amp;":"&amp;H104,C104&amp;"-"&amp;D104&amp;":"&amp;E104&amp;"-"&amp;F104&amp;"-"&amp;G104&amp;":"&amp;H104)</f>
@@ -6259,25 +6266,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I105" s="13" t="str">
         <f>IF(G105="-",C105&amp;"-"&amp;D105&amp;":"&amp;E105&amp;"-"&amp;F105&amp;":"&amp;H105,C105&amp;"-"&amp;D105&amp;":"&amp;E105&amp;"-"&amp;F105&amp;"-"&amp;G105&amp;":"&amp;H105)</f>
@@ -6293,25 +6300,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I106" s="13" t="str">
         <f>IF(G106="-",C106&amp;"-"&amp;D106&amp;":"&amp;E106&amp;"-"&amp;F106&amp;":"&amp;H106,C106&amp;"-"&amp;D106&amp;":"&amp;E106&amp;"-"&amp;F106&amp;"-"&amp;G106&amp;":"&amp;H106)</f>
@@ -6327,25 +6334,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I107" s="13" t="str">
         <f>IF(G107="-",C107&amp;"-"&amp;D107&amp;":"&amp;E107&amp;"-"&amp;F107&amp;":"&amp;H107,C107&amp;"-"&amp;D107&amp;":"&amp;E107&amp;"-"&amp;F107&amp;"-"&amp;G107&amp;":"&amp;H107)</f>
@@ -6361,25 +6368,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I108" s="13" t="str">
         <f>IF(G108="-",C108&amp;"-"&amp;D108&amp;":"&amp;E108&amp;"-"&amp;F108&amp;":"&amp;H108,C108&amp;"-"&amp;D108&amp;":"&amp;E108&amp;"-"&amp;F108&amp;"-"&amp;G108&amp;":"&amp;H108)</f>
@@ -6395,25 +6402,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I109" s="13" t="str">
         <f>IF(G109="-",C109&amp;"-"&amp;D109&amp;":"&amp;E109&amp;"-"&amp;F109&amp;":"&amp;H109,C109&amp;"-"&amp;D109&amp;":"&amp;E109&amp;"-"&amp;F109&amp;"-"&amp;G109&amp;":"&amp;H109)</f>
@@ -6429,25 +6436,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H110" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I110" s="42" t="str">
         <f>IF(G110="-",C110&amp;"-"&amp;D110&amp;":"&amp;E110&amp;"-"&amp;F110&amp;":"&amp;H110,C110&amp;"-"&amp;D110&amp;":"&amp;E110&amp;"-"&amp;F110&amp;"-"&amp;G110&amp;":"&amp;H110)</f>
@@ -6463,25 +6470,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H111" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I111" s="42" t="str">
         <f>IF(G111="-",C111&amp;"-"&amp;D111&amp;":"&amp;E111&amp;"-"&amp;F111&amp;":"&amp;H111,C111&amp;"-"&amp;D111&amp;":"&amp;E111&amp;"-"&amp;F111&amp;"-"&amp;G111&amp;":"&amp;H111)</f>
@@ -6497,25 +6504,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H112" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I112" s="42" t="str">
         <f>IF(G112="-",C112&amp;"-"&amp;D112&amp;":"&amp;E112&amp;"-"&amp;F112&amp;":"&amp;H112,C112&amp;"-"&amp;D112&amp;":"&amp;E112&amp;"-"&amp;F112&amp;"-"&amp;G112&amp;":"&amp;H112)</f>
@@ -6531,25 +6538,25 @@
         <v>112</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H113" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I113" s="42" t="str">
         <f>IF(G113="-",C113&amp;"-"&amp;D113&amp;":"&amp;E113&amp;"-"&amp;F113&amp;":"&amp;H113,C113&amp;"-"&amp;D113&amp;":"&amp;E113&amp;"-"&amp;F113&amp;"-"&amp;G113&amp;":"&amp;H113)</f>
@@ -6565,25 +6572,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I114" s="42" t="str">
         <f>IF(G114="-",C114&amp;"-"&amp;D114&amp;":"&amp;E114&amp;"-"&amp;F114&amp;":"&amp;H114,C114&amp;"-"&amp;D114&amp;":"&amp;E114&amp;"-"&amp;F114&amp;"-"&amp;G114&amp;":"&amp;H114)</f>
@@ -6594,7 +6601,7 @@
       <c r="L114" s="38"/>
       <c r="M114" s="38"/>
       <c r="N114" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6602,25 +6609,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I115" s="42" t="str">
         <f>IF(G115="-",C115&amp;"-"&amp;D115&amp;":"&amp;E115&amp;"-"&amp;F115&amp;":"&amp;H115,C115&amp;"-"&amp;D115&amp;":"&amp;E115&amp;"-"&amp;F115&amp;"-"&amp;G115&amp;":"&amp;H115)</f>
@@ -6636,25 +6643,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I116" s="13" t="str">
         <f>IF(G116="-",C116&amp;"-"&amp;D116&amp;":"&amp;E116&amp;"-"&amp;F116&amp;":"&amp;H116,C116&amp;"-"&amp;D116&amp;":"&amp;E116&amp;"-"&amp;F116&amp;"-"&amp;G116&amp;":"&amp;H116)</f>
@@ -6670,25 +6677,25 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I117" s="13" t="str">
         <f>IF(G117="-",C117&amp;"-"&amp;D117&amp;":"&amp;E117&amp;"-"&amp;F117&amp;":"&amp;H117,C117&amp;"-"&amp;D117&amp;":"&amp;E117&amp;"-"&amp;F117&amp;"-"&amp;G117&amp;":"&amp;H117)</f>
@@ -6704,25 +6711,25 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I118" s="13" t="str">
         <f>IF(G118="-",C118&amp;"-"&amp;D118&amp;":"&amp;E118&amp;"-"&amp;F118&amp;":"&amp;H118,C118&amp;"-"&amp;D118&amp;":"&amp;E118&amp;"-"&amp;F118&amp;"-"&amp;G118&amp;":"&amp;H118)</f>
@@ -6738,25 +6745,25 @@
         <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I119" s="13" t="str">
         <f>IF(G119="-",C119&amp;"-"&amp;D119&amp;":"&amp;E119&amp;"-"&amp;F119&amp;":"&amp;H119,C119&amp;"-"&amp;D119&amp;":"&amp;E119&amp;"-"&amp;F119&amp;"-"&amp;G119&amp;":"&amp;H119)</f>
@@ -6772,25 +6779,25 @@
         <v>117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I120" s="13" t="str">
         <f>IF(G120="-",C120&amp;"-"&amp;D120&amp;":"&amp;E120&amp;"-"&amp;F120&amp;":"&amp;H120,C120&amp;"-"&amp;D120&amp;":"&amp;E120&amp;"-"&amp;F120&amp;"-"&amp;G120&amp;":"&amp;H120)</f>
@@ -6806,25 +6813,25 @@
         <v>118</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I121" s="42" t="str">
         <f>IF(G121="-",C121&amp;"-"&amp;D121&amp;":"&amp;E121&amp;"-"&amp;F121&amp;":"&amp;H121,C121&amp;"-"&amp;D121&amp;":"&amp;E121&amp;"-"&amp;F121&amp;"-"&amp;G121&amp;":"&amp;H121)</f>
@@ -6840,25 +6847,25 @@
         <v>119</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H122" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I122" s="42" t="str">
         <f>IF(G122="-",C122&amp;"-"&amp;D122&amp;":"&amp;E122&amp;"-"&amp;F122&amp;":"&amp;H122,C122&amp;"-"&amp;D122&amp;":"&amp;E122&amp;"-"&amp;F122&amp;"-"&amp;G122&amp;":"&amp;H122)</f>
@@ -6874,25 +6881,25 @@
         <v>120</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H123" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I123" s="42" t="str">
         <f>IF(G123="-",C123&amp;"-"&amp;D123&amp;":"&amp;E123&amp;"-"&amp;F123&amp;":"&amp;H123,C123&amp;"-"&amp;D123&amp;":"&amp;E123&amp;"-"&amp;F123&amp;"-"&amp;G123&amp;":"&amp;H123)</f>
@@ -6908,25 +6915,25 @@
         <v>121</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I124" s="42" t="str">
         <f>IF(G124="-",C124&amp;"-"&amp;D124&amp;":"&amp;E124&amp;"-"&amp;F124&amp;":"&amp;H124,C124&amp;"-"&amp;D124&amp;":"&amp;E124&amp;"-"&amp;F124&amp;"-"&amp;G124&amp;":"&amp;H124)</f>
@@ -6942,25 +6949,25 @@
         <v>122</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H125" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I125" s="42" t="str">
         <f>IF(G125="-",C125&amp;"-"&amp;D125&amp;":"&amp;E125&amp;"-"&amp;F125&amp;":"&amp;H125,C125&amp;"-"&amp;D125&amp;":"&amp;E125&amp;"-"&amp;F125&amp;"-"&amp;G125&amp;":"&amp;H125)</f>
@@ -6976,25 +6983,25 @@
         <v>123</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H126" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I126" s="42" t="str">
         <f>IF(G126="-",C126&amp;"-"&amp;D126&amp;":"&amp;E126&amp;"-"&amp;F126&amp;":"&amp;H126,C126&amp;"-"&amp;D126&amp;":"&amp;E126&amp;"-"&amp;F126&amp;"-"&amp;G126&amp;":"&amp;H126)</f>
@@ -7010,25 +7017,25 @@
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I127" s="13" t="str">
         <f>IF(G127="-",C127&amp;"-"&amp;D127&amp;":"&amp;E127&amp;"-"&amp;F127&amp;":"&amp;H127,C127&amp;"-"&amp;D127&amp;":"&amp;E127&amp;"-"&amp;F127&amp;"-"&amp;G127&amp;":"&amp;H127)</f>
@@ -7044,25 +7051,25 @@
         <v>125</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I128" s="41" t="str">
         <f>IF(G128="-",C128&amp;"-"&amp;D128&amp;":"&amp;E128&amp;"-"&amp;F128&amp;":"&amp;H128,C128&amp;"-"&amp;D128&amp;":"&amp;E128&amp;"-"&amp;F128&amp;"-"&amp;G128&amp;":"&amp;H128)</f>
@@ -7078,25 +7085,25 @@
         <v>126</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I129" s="41" t="str">
         <f>IF(G129="-",C129&amp;"-"&amp;D129&amp;":"&amp;E129&amp;"-"&amp;F129&amp;":"&amp;H129,C129&amp;"-"&amp;D129&amp;":"&amp;E129&amp;"-"&amp;F129&amp;"-"&amp;G129&amp;":"&amp;H129)</f>
@@ -7112,25 +7119,25 @@
         <v>127</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I130" s="13" t="str">
         <f>IF(G130="-",C130&amp;"-"&amp;D130&amp;":"&amp;E130&amp;"-"&amp;F130&amp;":"&amp;H130,C130&amp;"-"&amp;D130&amp;":"&amp;E130&amp;"-"&amp;F130&amp;"-"&amp;G130&amp;":"&amp;H130)</f>
@@ -7146,25 +7153,25 @@
         <v>128</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H131" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="I131" s="13" t="str">
         <f>IF(G131="-",C131&amp;"-"&amp;D131&amp;":"&amp;E131&amp;"-"&amp;F131&amp;":"&amp;H131,C131&amp;"-"&amp;D131&amp;":"&amp;E131&amp;"-"&amp;F131&amp;"-"&amp;G131&amp;":"&amp;H131)</f>
@@ -7180,25 +7187,25 @@
         <v>129</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I132" s="13" t="str">
         <f>IF(G132="-",C132&amp;"-"&amp;D132&amp;":"&amp;E132&amp;"-"&amp;F132&amp;":"&amp;H132,C132&amp;"-"&amp;D132&amp;":"&amp;E132&amp;"-"&amp;F132&amp;"-"&amp;G132&amp;":"&amp;H132)</f>
@@ -7214,25 +7221,25 @@
         <v>130</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I133" s="13" t="str">
         <f>IF(G133="-",C133&amp;"-"&amp;D133&amp;":"&amp;E133&amp;"-"&amp;F133&amp;":"&amp;H133,C133&amp;"-"&amp;D133&amp;":"&amp;E133&amp;"-"&amp;F133&amp;"-"&amp;G133&amp;":"&amp;H133)</f>
@@ -7248,25 +7255,25 @@
         <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I134" s="13" t="str">
         <f>IF(G134="-",C134&amp;"-"&amp;D134&amp;":"&amp;E134&amp;"-"&amp;F134&amp;":"&amp;H134,C134&amp;"-"&amp;D134&amp;":"&amp;E134&amp;"-"&amp;F134&amp;"-"&amp;G134&amp;":"&amp;H134)</f>
@@ -7282,25 +7289,25 @@
         <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I135" s="13" t="str">
         <f>IF(G135="-",C135&amp;"-"&amp;D135&amp;":"&amp;E135&amp;"-"&amp;F135&amp;":"&amp;H135,C135&amp;"-"&amp;D135&amp;":"&amp;E135&amp;"-"&amp;F135&amp;"-"&amp;G135&amp;":"&amp;H135)</f>
@@ -7316,25 +7323,25 @@
         <v>133</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I136" s="13" t="str">
         <f>IF(G136="-",C136&amp;"-"&amp;D136&amp;":"&amp;E136&amp;"-"&amp;F136&amp;":"&amp;H136,C136&amp;"-"&amp;D136&amp;":"&amp;E136&amp;"-"&amp;F136&amp;"-"&amp;G136&amp;":"&amp;H136)</f>
@@ -7350,25 +7357,25 @@
         <v>134</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I137" s="13" t="str">
         <f>IF(G137="-",C137&amp;"-"&amp;D137&amp;":"&amp;E137&amp;"-"&amp;F137&amp;":"&amp;H137,C137&amp;"-"&amp;D137&amp;":"&amp;E137&amp;"-"&amp;F137&amp;"-"&amp;G137&amp;":"&amp;H137)</f>
@@ -7384,25 +7391,25 @@
         <v>135</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I138" s="41" t="str">
         <f>IF(G138="-",C138&amp;"-"&amp;D138&amp;":"&amp;E138&amp;"-"&amp;F138&amp;":"&amp;H138,C138&amp;"-"&amp;D138&amp;":"&amp;E138&amp;"-"&amp;F138&amp;"-"&amp;G138&amp;":"&amp;H138)</f>
@@ -7429,8 +7436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6F57F1-1A35-414C-A72F-BC2069E745C6}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0" xr3:uid="{900F33E9-471D-5D8B-9407-07E50B153C77}">
-      <selection activeCell="K27" sqref="K27:K148"/>
+    <sheetView workbookViewId="0" xr3:uid="{900F33E9-471D-5D8B-9407-07E50B153C77}">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7448,25 +7455,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8118,6 +8125,7 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH05A</v>
       </c>
+      <c r="K26"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="18" t="str">
@@ -8144,7 +8152,7 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH05B</v>
       </c>
-      <c r="K27" s="4"/>
+      <c r="K27"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="18" t="str">
@@ -8171,7 +8179,7 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH06A</v>
       </c>
-      <c r="K28" s="4"/>
+      <c r="K28"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="18" t="str">
@@ -8198,7 +8206,7 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH06B</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="18" t="str">
@@ -8225,7 +8233,7 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH07A</v>
       </c>
-      <c r="K30" s="4"/>
+      <c r="K30"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="18" t="str">
@@ -8252,7 +8260,7 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH07B</v>
       </c>
-      <c r="K31" s="4"/>
+      <c r="K31"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="18" t="str">
@@ -8279,7 +8287,7 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH08A</v>
       </c>
-      <c r="K32" s="4"/>
+      <c r="K32"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="18" t="str">
@@ -8306,7 +8314,7 @@
         <f t="shared" si="1"/>
         <v>RAToSIA01RFHeatSinkH08B</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="18" t="str">
@@ -8333,7 +8341,7 @@
         <f t="shared" si="1"/>
         <v>RAToSIA02RFHeatSinkH01A</v>
       </c>
-      <c r="K34" s="4"/>
+      <c r="K34"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="18" t="str">
@@ -8360,7 +8368,7 @@
         <f t="shared" ref="H35:H58" si="2">B35&amp;C35&amp;D35&amp;E35&amp;F35</f>
         <v>RAToSIA02RFHeatSinkH01B</v>
       </c>
-      <c r="K35" s="4"/>
+      <c r="K35"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="18" t="str">
@@ -8387,7 +8395,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH02A</v>
       </c>
-      <c r="K36" s="4"/>
+      <c r="K36"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="18" t="str">
@@ -8414,7 +8422,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH02B</v>
       </c>
-      <c r="K37" s="4"/>
+      <c r="K37"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="18" t="str">
@@ -8441,7 +8449,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH03A</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="18" t="str">
@@ -8468,7 +8476,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH03B</v>
       </c>
-      <c r="K39" s="4"/>
+      <c r="K39"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="18" t="str">
@@ -8495,7 +8503,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH04A</v>
       </c>
-      <c r="K40" s="4"/>
+      <c r="K40"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="18" t="str">
@@ -8522,7 +8530,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH04B</v>
       </c>
-      <c r="K41" s="4"/>
+      <c r="K41"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="18" t="str">
@@ -8549,7 +8557,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH05A</v>
       </c>
-      <c r="K42" s="4"/>
+      <c r="K42"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="18" t="str">
@@ -8576,7 +8584,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH05B</v>
       </c>
-      <c r="K43" s="4"/>
+      <c r="K43"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="18" t="str">
@@ -8603,7 +8611,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH06A</v>
       </c>
-      <c r="K44" s="4"/>
+      <c r="K44"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="18" t="str">
@@ -8630,7 +8638,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH06B</v>
       </c>
-      <c r="K45" s="4"/>
+      <c r="K45"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="18" t="str">
@@ -8657,7 +8665,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH07A</v>
       </c>
-      <c r="K46" s="4"/>
+      <c r="K46"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="18" t="str">
@@ -8684,7 +8692,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH07B</v>
       </c>
-      <c r="K47" s="4"/>
+      <c r="K47"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="18" t="str">
@@ -8711,7 +8719,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH08A</v>
       </c>
-      <c r="K48" s="4"/>
+      <c r="K48"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="18" t="str">
@@ -8738,7 +8746,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFHeatSinkH08B</v>
       </c>
-      <c r="K49" s="4"/>
+      <c r="K49"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="18" t="str">
@@ -8765,7 +8773,7 @@
         <f t="shared" si="2"/>
         <v>SI03SPRFIntlk-</v>
       </c>
-      <c r="K50" s="4"/>
+      <c r="K50"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="18" t="str">
@@ -8792,7 +8800,7 @@
         <f t="shared" si="2"/>
         <v>SI03SPRFLLRF-</v>
       </c>
-      <c r="K51" s="4"/>
+      <c r="K51"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="18" t="str">
@@ -8819,7 +8827,7 @@
         <f t="shared" si="2"/>
         <v>SI03SPRFLLRFPreAmp02</v>
       </c>
-      <c r="K52" s="4"/>
+      <c r="K52"/>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="18" t="str">
@@ -8846,7 +8854,7 @@
         <f t="shared" si="2"/>
         <v>SI03SPRFP7Cav-</v>
       </c>
-      <c r="K53" s="4"/>
+      <c r="K53"/>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="18" t="str">
@@ -8873,7 +8881,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA01RFSSAmpTower-</v>
       </c>
-      <c r="K54" s="4"/>
+      <c r="K54"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="18" t="str">
@@ -8900,7 +8908,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA01RFSSAmpTower-</v>
       </c>
-      <c r="K55" s="4"/>
+      <c r="K55"/>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="18" t="str">
@@ -8927,7 +8935,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA02RFSSAmpTower-</v>
       </c>
-      <c r="K56" s="4"/>
+      <c r="K56"/>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="18" t="str">
@@ -8954,7 +8962,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA01RFTDKSourceR1</v>
       </c>
-      <c r="K57" s="4"/>
+      <c r="K57"/>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="18" t="str">
@@ -8981,7 +8989,7 @@
         <f t="shared" si="2"/>
         <v>RAToSIA01RFTDKSourceR2</v>
       </c>
-      <c r="K58" s="4"/>
+      <c r="K58"/>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="18" t="str">
@@ -9008,7 +9016,7 @@
         <f t="shared" ref="H59:H66" si="3">B59&amp;C59&amp;D59&amp;E59&amp;F59</f>
         <v>RAToSIA01RFTDKSourceR3</v>
       </c>
-      <c r="K59" s="4"/>
+      <c r="K59"/>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="18" t="str">
@@ -9035,7 +9043,7 @@
         <f t="shared" si="3"/>
         <v>RAToSIA01RFTDKSourceR4</v>
       </c>
-      <c r="K60" s="4"/>
+      <c r="K60"/>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="18" t="str">
@@ -9062,7 +9070,7 @@
         <f t="shared" si="3"/>
         <v>RAToSIA02RFTDKSourceR1</v>
       </c>
-      <c r="K61" s="4"/>
+      <c r="K61"/>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="18" t="str">
@@ -9089,7 +9097,7 @@
         <f t="shared" si="3"/>
         <v>RAToSIA02RFTDKSourceR2</v>
       </c>
-      <c r="K62" s="4"/>
+      <c r="K62"/>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="18" t="str">
@@ -9116,7 +9124,7 @@
         <f t="shared" si="3"/>
         <v>RAToSIA02RFTDKSourceR3</v>
       </c>
-      <c r="K63" s="4"/>
+      <c r="K63"/>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="18" t="str">
@@ -9143,278 +9151,278 @@
         <f t="shared" si="3"/>
         <v>RAToSIA02RFTDKSourceR4</v>
       </c>
-      <c r="K64" s="4"/>
+      <c r="K64"/>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H65" s="18" t="str">
         <f t="shared" si="3"/>
         <v>RATLRFArcDetecSIA</v>
       </c>
-      <c r="K65" s="4"/>
+      <c r="K65"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="K66" s="4"/>
+      <c r="K66"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="K67" s="4"/>
+      <c r="K67"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="K68" s="4"/>
+      <c r="K68"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="K69" s="4"/>
+      <c r="K69"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="K70" s="4"/>
+      <c r="K70"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="K71" s="4"/>
+      <c r="K71"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="K72" s="4"/>
+      <c r="K72"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="K73" s="4"/>
+      <c r="K73"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="K74" s="4"/>
+      <c r="K74"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="K75" s="4"/>
+      <c r="K75"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="K76" s="4"/>
+      <c r="K76"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="K77" s="4"/>
+      <c r="K77"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="K78" s="4"/>
+      <c r="K78"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="K79" s="4"/>
+      <c r="K79"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="K80" s="4"/>
+      <c r="K80"/>
     </row>
     <row r="81" spans="11:11">
-      <c r="K81" s="32"/>
+      <c r="K81"/>
     </row>
     <row r="82" spans="11:11">
-      <c r="K82" s="15"/>
+      <c r="K82"/>
     </row>
     <row r="83" spans="11:11">
-      <c r="K83" s="4"/>
+      <c r="K83"/>
     </row>
     <row r="84" spans="11:11">
-      <c r="K84" s="4"/>
+      <c r="K84"/>
     </row>
     <row r="85" spans="11:11">
-      <c r="K85" s="4"/>
+      <c r="K85"/>
     </row>
     <row r="86" spans="11:11">
-      <c r="K86" s="4"/>
+      <c r="K86"/>
     </row>
     <row r="87" spans="11:11">
-      <c r="K87" s="4"/>
+      <c r="K87"/>
     </row>
     <row r="88" spans="11:11">
-      <c r="K88" s="4"/>
+      <c r="K88"/>
     </row>
     <row r="89" spans="11:11">
-      <c r="K89" s="4"/>
+      <c r="K89"/>
     </row>
     <row r="90" spans="11:11">
-      <c r="K90" s="4"/>
+      <c r="K90"/>
     </row>
     <row r="91" spans="11:11">
-      <c r="K91" s="4"/>
+      <c r="K91"/>
     </row>
     <row r="92" spans="11:11">
-      <c r="K92" s="4"/>
+      <c r="K92"/>
     </row>
     <row r="93" spans="11:11">
-      <c r="K93" s="15"/>
+      <c r="K93"/>
     </row>
     <row r="94" spans="11:11">
-      <c r="K94" s="15"/>
+      <c r="K94"/>
     </row>
     <row r="95" spans="11:11">
-      <c r="K95" s="4"/>
+      <c r="K95"/>
     </row>
     <row r="96" spans="11:11">
-      <c r="K96" s="4"/>
+      <c r="K96"/>
     </row>
     <row r="97" spans="11:11">
-      <c r="K97" s="4"/>
+      <c r="K97"/>
     </row>
     <row r="98" spans="11:11">
-      <c r="K98" s="4"/>
+      <c r="K98"/>
     </row>
     <row r="99" spans="11:11">
-      <c r="K99" s="4"/>
+      <c r="K99"/>
     </row>
     <row r="100" spans="11:11">
-      <c r="K100" s="4"/>
+      <c r="K100"/>
     </row>
     <row r="101" spans="11:11">
-      <c r="K101" s="4"/>
+      <c r="K101"/>
     </row>
     <row r="102" spans="11:11">
-      <c r="K102" s="4"/>
+      <c r="K102"/>
     </row>
     <row r="103" spans="11:11">
-      <c r="K103" s="4"/>
+      <c r="K103"/>
     </row>
     <row r="104" spans="11:11">
-      <c r="K104" s="4"/>
+      <c r="K104"/>
     </row>
     <row r="105" spans="11:11">
-      <c r="K105" s="4"/>
+      <c r="K105"/>
     </row>
     <row r="106" spans="11:11">
-      <c r="K106" s="4"/>
+      <c r="K106"/>
     </row>
     <row r="107" spans="11:11">
-      <c r="K107" s="4"/>
+      <c r="K107"/>
     </row>
     <row r="108" spans="11:11">
-      <c r="K108" s="4"/>
+      <c r="K108"/>
     </row>
     <row r="109" spans="11:11">
-      <c r="K109" s="4"/>
+      <c r="K109"/>
     </row>
     <row r="110" spans="11:11">
-      <c r="K110" s="4"/>
+      <c r="K110"/>
     </row>
     <row r="111" spans="11:11">
-      <c r="K111" s="4"/>
+      <c r="K111"/>
     </row>
     <row r="112" spans="11:11">
-      <c r="K112" s="4"/>
+      <c r="K112"/>
     </row>
     <row r="113" spans="11:11">
-      <c r="K113" s="4"/>
+      <c r="K113"/>
     </row>
     <row r="114" spans="11:11">
-      <c r="K114" s="4"/>
+      <c r="K114"/>
     </row>
     <row r="115" spans="11:11">
-      <c r="K115" s="4"/>
+      <c r="K115"/>
     </row>
     <row r="116" spans="11:11">
-      <c r="K116" s="4"/>
+      <c r="K116"/>
     </row>
     <row r="117" spans="11:11">
-      <c r="K117" s="4"/>
+      <c r="K117"/>
     </row>
     <row r="118" spans="11:11">
-      <c r="K118" s="4"/>
+      <c r="K118"/>
     </row>
     <row r="119" spans="11:11">
-      <c r="K119" s="4"/>
+      <c r="K119"/>
     </row>
     <row r="120" spans="11:11">
-      <c r="K120" s="4"/>
+      <c r="K120"/>
     </row>
     <row r="121" spans="11:11">
-      <c r="K121" s="4"/>
+      <c r="K121"/>
     </row>
     <row r="122" spans="11:11">
-      <c r="K122" s="4"/>
+      <c r="K122"/>
     </row>
     <row r="123" spans="11:11">
-      <c r="K123" s="4"/>
+      <c r="K123"/>
     </row>
     <row r="124" spans="11:11">
-      <c r="K124" s="4"/>
+      <c r="K124"/>
     </row>
     <row r="125" spans="11:11">
-      <c r="K125" s="4"/>
+      <c r="K125"/>
     </row>
     <row r="126" spans="11:11">
-      <c r="K126" s="4"/>
+      <c r="K126"/>
     </row>
     <row r="127" spans="11:11">
-      <c r="K127" s="4"/>
+      <c r="K127"/>
     </row>
     <row r="128" spans="11:11">
-      <c r="K128" s="4"/>
+      <c r="K128"/>
     </row>
     <row r="129" spans="11:11">
-      <c r="K129" s="4"/>
+      <c r="K129"/>
     </row>
     <row r="130" spans="11:11">
-      <c r="K130" s="4"/>
+      <c r="K130"/>
     </row>
     <row r="131" spans="11:11">
-      <c r="K131" s="4"/>
+      <c r="K131"/>
     </row>
     <row r="132" spans="11:11">
-      <c r="K132" s="4"/>
+      <c r="K132"/>
     </row>
     <row r="133" spans="11:11">
-      <c r="K133" s="4"/>
+      <c r="K133"/>
     </row>
     <row r="134" spans="11:11">
-      <c r="K134" s="4"/>
+      <c r="K134"/>
     </row>
     <row r="135" spans="11:11">
-      <c r="K135" s="4"/>
+      <c r="K135"/>
     </row>
     <row r="136" spans="11:11">
-      <c r="K136" s="4"/>
+      <c r="K136"/>
     </row>
     <row r="137" spans="11:11">
-      <c r="K137" s="4"/>
+      <c r="K137"/>
     </row>
     <row r="138" spans="11:11">
-      <c r="K138" s="4"/>
+      <c r="K138"/>
     </row>
     <row r="139" spans="11:11">
-      <c r="K139" s="4"/>
+      <c r="K139"/>
     </row>
     <row r="140" spans="11:11">
-      <c r="K140" s="4"/>
+      <c r="K140"/>
     </row>
     <row r="141" spans="11:11">
-      <c r="K141" s="4"/>
+      <c r="K141"/>
     </row>
     <row r="142" spans="11:11">
-      <c r="K142" s="3"/>
+      <c r="K142"/>
     </row>
     <row r="143" spans="11:11">
-      <c r="K143" s="3"/>
+      <c r="K143"/>
     </row>
     <row r="144" spans="11:11">
-      <c r="K144" s="3"/>
+      <c r="K144"/>
     </row>
     <row r="145" spans="11:11">
-      <c r="K145" s="3"/>
+      <c r="K145"/>
     </row>
     <row r="146" spans="11:11">
-      <c r="K146" s="3"/>
+      <c r="K146"/>
     </row>
     <row r="147" spans="11:11">
-      <c r="K147" s="3"/>
+      <c r="K147"/>
     </row>
     <row r="148" spans="11:11">
-      <c r="K148" s="3"/>
+      <c r="K148"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
@@ -9428,9 +9436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1048573"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9493,7 +9501,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>244</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -9504,22 +9512,22 @@
         <v>245</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="34" t="str">
         <f>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2)</f>
@@ -9544,25 +9552,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>246</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="34" t="str">
         <f>IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3,C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3)</f>
@@ -9590,16 +9598,16 @@
         <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>246</v>
@@ -9630,25 +9638,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="34" t="str">
         <f>IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5,C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5)</f>
@@ -9676,22 +9684,22 @@
         <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="34" t="str">
         <f>IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6,C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6)</f>
@@ -9719,26 +9727,25 @@
         <v>261</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="34" t="str">
-        <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7)</f>
-        <v>RA-TL:RF-Circulator-BO:Sts-Mon</v>
+        <v>20</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>8</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>262</v>
@@ -9759,25 +9766,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="34" t="str">
         <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8)</f>
@@ -9802,25 +9809,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="34" t="str">
         <f>IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9,C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9)</f>
@@ -9848,22 +9855,22 @@
         <v>268</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="34" t="str">
         <f>IF(G10="-",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;":"&amp;H10,C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;G10&amp;":"&amp;H10)</f>
@@ -9888,25 +9895,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>246</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="34" t="str">
         <f>IF(G11="-",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;":"&amp;H11,C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;G11&amp;":"&amp;H11)</f>
@@ -9934,22 +9941,22 @@
         <v>273</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>246</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" s="34" t="str">
         <f>IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12,C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12)</f>
@@ -9974,25 +9981,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>246</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="35" t="str">
         <f>IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13,C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13)</f>
@@ -10020,22 +10027,22 @@
         <v>279</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>281</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="34" t="str">
         <f>IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14,C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14)</f>
@@ -10063,22 +10070,22 @@
         <v>284</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>285</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="34" t="str">
         <f>IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15,C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15)</f>
@@ -10106,22 +10113,22 @@
         <v>288</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>289</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="34" t="str">
         <f>IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16,C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16)</f>
@@ -10149,22 +10156,22 @@
         <v>292</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>293</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" s="34" t="str">
         <f>IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17,C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17)</f>
@@ -10192,22 +10199,22 @@
         <v>296</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>297</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" s="34" t="str">
         <f>IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18)</f>
@@ -10235,22 +10242,22 @@
         <v>300</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>301</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" s="34" t="str">
         <f>IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19,C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19)</f>
@@ -10278,22 +10285,22 @@
         <v>304</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>281</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" s="34" t="str">
         <f>IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20,C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20)</f>
@@ -10323,22 +10330,22 @@
         <v>308</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>285</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="34" t="str">
         <f>IF(G21="-",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;":"&amp;H21,C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;G21&amp;":"&amp;H21)</f>
@@ -10368,22 +10375,22 @@
         <v>310</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>289</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" s="34" t="str">
         <f>IF(G22="-",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;":"&amp;H22,C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;G22&amp;":"&amp;H22)</f>
@@ -10413,22 +10420,22 @@
         <v>312</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>293</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" s="34" t="str">
         <f>IF(G23="-",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;":"&amp;H23,C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;G23&amp;":"&amp;H23)</f>
@@ -10458,22 +10465,22 @@
         <v>314</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>297</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" s="34" t="str">
         <f>IF(G24="-",C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;":"&amp;H24,C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;"-"&amp;G24&amp;":"&amp;H24)</f>
@@ -10503,22 +10510,22 @@
         <v>316</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>301</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" s="34" t="str">
         <f>IF(G25="-",C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;":"&amp;H25,C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;"-"&amp;G25&amp;":"&amp;H25)</f>
@@ -10554,13 +10561,13 @@
         <v>319</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>320</v>
@@ -10597,16 +10604,16 @@
         <v>319</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I27" s="34" t="str">
         <f>IF(G27="-",C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;":"&amp;H27,C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;"-"&amp;G27&amp;":"&amp;H27)</f>
@@ -10640,16 +10647,16 @@
         <v>319</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I28" s="34" t="str">
         <f>IF(G28="-",C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;":"&amp;H28,C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;"-"&amp;G28&amp;":"&amp;H28)</f>
@@ -10683,16 +10690,16 @@
         <v>319</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I29" s="34" t="str">
         <f>IF(G29="-",C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;":"&amp;H29,C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;"-"&amp;G29&amp;":"&amp;H29)</f>
@@ -10717,7 +10724,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>246</v>
@@ -10726,16 +10733,16 @@
         <v>319</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I30" s="34" t="str">
         <f>IF(G30="-",C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;":"&amp;H30,C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;"-"&amp;G30&amp;":"&amp;H30)</f>
@@ -10769,16 +10776,16 @@
         <v>319</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I31" s="34" t="str">
         <f>IF(G31="-",C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;":"&amp;H31,C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;"-"&amp;G31&amp;":"&amp;H31)</f>
@@ -10812,16 +10819,16 @@
         <v>319</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" s="36" t="str">
         <f>IF(G32="-",C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;":"&amp;H32,C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;"-"&amp;G32&amp;":"&amp;H32)</f>
@@ -10855,16 +10862,16 @@
         <v>319</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" s="34" t="str">
         <f>IF(G33="-",C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;":"&amp;H33,C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;"-"&amp;G33&amp;":"&amp;H33)</f>
@@ -10900,13 +10907,13 @@
         <v>319</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H34" s="27" t="s">
         <v>342</v>
@@ -10943,13 +10950,13 @@
         <v>319</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>345</v>
@@ -10986,13 +10993,13 @@
         <v>319</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>349</v>
@@ -11029,13 +11036,13 @@
         <v>319</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>353</v>
@@ -11072,13 +11079,13 @@
         <v>319</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>357</v>
@@ -11115,13 +11122,13 @@
         <v>319</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>361</v>
@@ -11158,13 +11165,13 @@
         <v>319</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>365</v>
@@ -11201,13 +11208,13 @@
         <v>319</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>369</v>
@@ -11244,13 +11251,13 @@
         <v>319</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>373</v>
@@ -11287,13 +11294,13 @@
         <v>319</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>377</v>
@@ -11330,13 +11337,13 @@
         <v>319</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>381</v>
@@ -11373,13 +11380,13 @@
         <v>319</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>385</v>
@@ -11416,13 +11423,13 @@
         <v>319</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>389</v>
@@ -11459,13 +11466,13 @@
         <v>319</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>393</v>
@@ -11502,13 +11509,13 @@
         <v>319</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>397</v>
@@ -11545,13 +11552,13 @@
         <v>319</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>401</v>
@@ -11588,13 +11595,13 @@
         <v>319</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>405</v>
@@ -11631,13 +11638,13 @@
         <v>319</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>409</v>
@@ -11676,13 +11683,13 @@
         <v>319</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>412</v>
@@ -11721,13 +11728,13 @@
         <v>319</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>415</v>
@@ -11766,13 +11773,13 @@
         <v>319</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>418</v>
@@ -11811,13 +11818,13 @@
         <v>319</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>421</v>
@@ -11856,16 +11863,16 @@
         <v>319</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>344</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H56" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I56" s="37" t="str">
         <f>IF(G56="-",C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;":"&amp;H56,C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;"-"&amp;G56&amp;":"&amp;H56)</f>
@@ -11901,16 +11908,16 @@
         <v>319</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>344</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="35" t="str">
         <f>IF(G57="-",C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;":"&amp;H57,C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;"-"&amp;G57&amp;":"&amp;H57)</f>
@@ -11939,22 +11946,22 @@
         <v>428</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I58" s="34" t="str">
         <f>IF(G58="-",C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;":"&amp;H58,C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;"-"&amp;G58&amp;":"&amp;H58)</f>
@@ -11984,22 +11991,22 @@
         <v>431</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I59" s="34" t="str">
         <f>IF(G59="-",C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;":"&amp;H59,C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;"-"&amp;G59&amp;":"&amp;H59)</f>
@@ -12027,22 +12034,22 @@
         <v>434</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I60" s="34" t="str">
         <f>IF(G60="-",C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;":"&amp;H60,C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;"-"&amp;G60&amp;":"&amp;H60)</f>
@@ -12070,19 +12077,19 @@
         <v>437</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>438</v>
@@ -12113,19 +12120,19 @@
         <v>441</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>442</v>
@@ -12156,19 +12163,19 @@
         <v>445</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>446</v>
@@ -12199,19 +12206,19 @@
         <v>449</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>450</v>
@@ -12242,19 +12249,19 @@
         <v>453</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>454</v>
@@ -12285,19 +12292,19 @@
         <v>457</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>458</v>
@@ -12328,19 +12335,19 @@
         <v>459</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>460</v>
@@ -12377,16 +12384,16 @@
         <v>280</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I68" s="35" t="str">
         <f>IF(G68="-",C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;":"&amp;H68,C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;"-"&amp;G68&amp;":"&amp;H68)</f>
@@ -12411,25 +12418,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G69" s="15" t="s">
         <v>246</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I69" s="35" t="str">
         <f>IF(G69="-",C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;":"&amp;H69,C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;"-"&amp;G69&amp;":"&amp;H69)</f>
@@ -12463,10 +12470,10 @@
         <v>319</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>467</v>
@@ -12506,10 +12513,10 @@
         <v>319</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>471</v>
@@ -12549,10 +12556,10 @@
         <v>319</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>474</v>
@@ -12592,10 +12599,10 @@
         <v>319</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>477</v>
@@ -12635,10 +12642,10 @@
         <v>319</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>480</v>
@@ -12678,10 +12685,10 @@
         <v>319</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>483</v>
@@ -12721,10 +12728,10 @@
         <v>319</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>486</v>
@@ -12764,10 +12771,10 @@
         <v>319</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>489</v>
@@ -12807,10 +12814,10 @@
         <v>319</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>492</v>
@@ -12850,10 +12857,10 @@
         <v>319</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>495</v>
@@ -12893,10 +12900,10 @@
         <v>319</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>498</v>
@@ -12936,10 +12943,10 @@
         <v>319</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>501</v>
@@ -12979,10 +12986,10 @@
         <v>319</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>504</v>
@@ -13022,10 +13029,10 @@
         <v>319</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>507</v>
@@ -13065,10 +13072,10 @@
         <v>319</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>510</v>
@@ -13108,10 +13115,10 @@
         <v>319</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>513</v>
@@ -13151,10 +13158,10 @@
         <v>319</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>516</v>
@@ -13194,10 +13201,10 @@
         <v>319</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>519</v>
@@ -13237,10 +13244,10 @@
         <v>319</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>467</v>
@@ -13280,10 +13287,10 @@
         <v>319</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>471</v>
@@ -13323,10 +13330,10 @@
         <v>319</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>474</v>
@@ -13366,10 +13373,10 @@
         <v>319</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>477</v>
@@ -13409,10 +13416,10 @@
         <v>319</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>480</v>
@@ -13452,10 +13459,10 @@
         <v>319</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>483</v>
@@ -13495,10 +13502,10 @@
         <v>319</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>486</v>
@@ -13538,10 +13545,10 @@
         <v>319</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>489</v>
@@ -13581,10 +13588,10 @@
         <v>319</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>492</v>
@@ -13624,10 +13631,10 @@
         <v>319</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>495</v>
@@ -13667,10 +13674,10 @@
         <v>319</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>498</v>
@@ -13710,10 +13717,10 @@
         <v>319</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>501</v>
@@ -13753,10 +13760,10 @@
         <v>319</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>504</v>
@@ -13796,10 +13803,10 @@
         <v>319</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>507</v>
@@ -13839,10 +13846,10 @@
         <v>319</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>510</v>
@@ -13882,10 +13889,10 @@
         <v>319</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>513</v>
@@ -13925,10 +13932,10 @@
         <v>319</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>516</v>
@@ -13968,10 +13975,10 @@
         <v>319</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>519</v>
@@ -14011,10 +14018,10 @@
         <v>319</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>559</v>
@@ -14054,10 +14061,10 @@
         <v>319</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>562</v>
@@ -14097,10 +14104,10 @@
         <v>319</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>565</v>
@@ -14140,10 +14147,10 @@
         <v>319</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>568</v>
@@ -14183,10 +14190,10 @@
         <v>319</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>571</v>
@@ -14226,10 +14233,10 @@
         <v>319</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>574</v>
@@ -14269,10 +14276,10 @@
         <v>319</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>577</v>
@@ -14312,10 +14319,10 @@
         <v>319</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>580</v>
@@ -14355,10 +14362,10 @@
         <v>319</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>583</v>
@@ -14398,10 +14405,10 @@
         <v>319</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>586</v>
@@ -14441,10 +14448,10 @@
         <v>319</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>589</v>
@@ -14484,10 +14491,10 @@
         <v>319</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>592</v>
@@ -14527,10 +14534,10 @@
         <v>319</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>595</v>
@@ -14570,10 +14577,10 @@
         <v>319</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>598</v>
@@ -14613,10 +14620,10 @@
         <v>319</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>601</v>
@@ -14656,10 +14663,10 @@
         <v>319</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>604</v>
@@ -14699,10 +14706,10 @@
         <v>319</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>607</v>
@@ -14742,10 +14749,10 @@
         <v>319</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>610</v>
@@ -14779,6 +14786,9 @@
     </row>
     <row r="126" spans="1:14">
       <c r="B126" s="28"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="47"/>
     </row>
     <row r="1048573" spans="11:11">
       <c r="K1048573" s="13"/>

--- a/etc/Interlock_RF_EPICS_V2.xlsx
+++ b/etc/Interlock_RF_EPICS_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranieri.santos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8059A47-9C72-4A3E-96E9-E08B994C0CEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6225621D-F6B5-4737-8FFD-2BB22C91F58F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="43080" windowHeight="6375" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="614">
   <si>
     <t>Variável</t>
   </si>
@@ -976,574 +976,580 @@
     <t>Memorias[0] B 31</t>
   </si>
   <si>
+    <t>Termostato Barra Dissipadora 01</t>
+  </si>
+  <si>
+    <t>ToBO</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>Memorias[0].21</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 21</t>
+  </si>
+  <si>
+    <t>Termostato Barra Dissipadora 02</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>Memorias[0].22</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 22</t>
+  </si>
+  <si>
+    <t>Termostato Barra Dissipadora 03</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>Memorias[0].23</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 23</t>
+  </si>
+  <si>
+    <t>Termostato Barra Dissipadora 04</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>Memorias[0].24</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 24</t>
+  </si>
+  <si>
+    <t>Termostato Barra Dissipadora 05</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>Memorias[0].25</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 25</t>
+  </si>
+  <si>
+    <t>Termostato Barra Dissipadora 06</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>Memorias[0].26</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 26</t>
+  </si>
+  <si>
+    <t>PT - 100 Barra Dissipadora 01</t>
+  </si>
+  <si>
+    <t>PT_100_T_Booster_01.Ch00.Data</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PT - 100 Barra Dissipadora 02</t>
+  </si>
+  <si>
+    <t>PT_100_T_Booster_01.Ch01.Data</t>
+  </si>
+  <si>
+    <t>PT - 100 Barra Dissipadora 03</t>
+  </si>
+  <si>
+    <t>PT_100_T_Booster_01.Ch02.Data</t>
+  </si>
+  <si>
+    <t>PT - 100 Barra Dissipadora 04</t>
+  </si>
+  <si>
+    <t>PT_100_T_Booster_01.Ch03.Data</t>
+  </si>
+  <si>
+    <t>PT - 100 Barra Dissipadora 05</t>
+  </si>
+  <si>
+    <t>PT_100_T_Booster_02.Ch00.Data</t>
+  </si>
+  <si>
+    <t>PT - 100 Barra Dissipadora 06</t>
+  </si>
+  <si>
+    <t>PT_100_T_Booster_02.Ch01.Data</t>
+  </si>
+  <si>
+    <t>Interlock Sirius</t>
+  </si>
+  <si>
+    <t>05D</t>
+  </si>
+  <si>
+    <t>BO-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].2</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 2</t>
+  </si>
+  <si>
+    <t>Sinal de erro do CLP para o LLRF</t>
+  </si>
+  <si>
+    <t>Memorias[6].3</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Memorias[6] B 3</t>
+  </si>
+  <si>
+    <t>Emergencia sistema de interlock</t>
+  </si>
+  <si>
+    <t>Memorias[1].6</t>
+  </si>
+  <si>
+    <t>Memorias[1] B 6</t>
+  </si>
+  <si>
+    <t>Reset de Falhas - Reseta todas as falhas do sistema remotamente</t>
+  </si>
+  <si>
+    <t>Memorias[5].19</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 19</t>
+  </si>
+  <si>
+    <t>Memorias[0].0</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 0</t>
+  </si>
+  <si>
+    <t>Interlock LLRF para o CLP</t>
+  </si>
+  <si>
+    <t>Memorias[0].1</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 1</t>
+  </si>
+  <si>
+    <t>Termostato Pré-Amp 50 W</t>
+  </si>
+  <si>
+    <t>PT - 100 Pré - Amplificador 50 W</t>
+  </si>
+  <si>
+    <t>PT_100_T_Booster_02.Ch02.Data</t>
+  </si>
+  <si>
+    <t>Habilita Pré - Amplificador</t>
+  </si>
+  <si>
+    <t>Enbl-Mon</t>
+  </si>
+  <si>
+    <t>Vácuo Petra V</t>
+  </si>
+  <si>
+    <t>P5Cav</t>
+  </si>
+  <si>
+    <t>Pressure-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].3</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petra V Termostato Disco 01 </t>
+  </si>
+  <si>
+    <t>Disc1Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].4</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 4</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Cilindro 01</t>
+  </si>
+  <si>
+    <t>Cilin1Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].5</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 5</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Disco 02</t>
+  </si>
+  <si>
+    <t>Disc2Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].6</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 6</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Cilindro 02</t>
+  </si>
+  <si>
+    <t>Cilin2Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].7</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 7</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Disco 03</t>
+  </si>
+  <si>
+    <t>Disc3Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].8</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 8</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Cilindro 03</t>
+  </si>
+  <si>
+    <t>Cilin3Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].9</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 9</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Disco 04</t>
+  </si>
+  <si>
+    <t>Disc4Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].10</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 10</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Cilindro 04</t>
+  </si>
+  <si>
+    <t>Cilin4Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].11</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 11</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Disco 05</t>
+  </si>
+  <si>
+    <t>Disc5Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].12</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 12</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Cilindro 05</t>
+  </si>
+  <si>
+    <t>Cilin5Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].13</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 13</t>
+  </si>
+  <si>
+    <t>Petra V Termostato Disco 06</t>
+  </si>
+  <si>
+    <t>Disc6Tms-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].14</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 14</t>
+  </si>
+  <si>
+    <t>Petra V Chave de Fluxo 01</t>
+  </si>
+  <si>
+    <t>Hd1FlwRt-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].15</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 15</t>
+  </si>
+  <si>
+    <t>Petra V Chave de Fluxo 02</t>
+  </si>
+  <si>
+    <t>Hd2FlwRt-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].16</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 16</t>
+  </si>
+  <si>
+    <t>Petra V Chave de Fluxo 03</t>
+  </si>
+  <si>
+    <t>Hd3FlwRt-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].17</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 17</t>
+  </si>
+  <si>
+    <t>Petra V Sensor de Pressão</t>
+  </si>
+  <si>
+    <t>CoupPressure-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[0].18</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petra V Pt - 100 Cilindro 01 </t>
+  </si>
+  <si>
+    <t>Cilin1T-Mon</t>
+  </si>
+  <si>
+    <t>PT_100_PetraV_01.Ch01.Data</t>
+  </si>
+  <si>
+    <t>Petra V Pt - 100 Cilindro 02</t>
+  </si>
+  <si>
+    <t>Cilin2T-Mon</t>
+  </si>
+  <si>
+    <t>PT_100_PetraV_01.Ch02.Data</t>
+  </si>
+  <si>
+    <t>Petra V Pt - 100 Cilindro 03</t>
+  </si>
+  <si>
+    <t>Cilin3T-Mon</t>
+  </si>
+  <si>
+    <t>PT_100_PetraV_01.Ch03.Data</t>
+  </si>
+  <si>
+    <t>Petra V Pt - 100 Cilindro 04</t>
+  </si>
+  <si>
+    <t>Cilin4T-Mon</t>
+  </si>
+  <si>
+    <t>PT_100_PetraV_02.Ch00.Data</t>
+  </si>
+  <si>
+    <t>Petra V Pt - 100 Cilindro 05</t>
+  </si>
+  <si>
+    <t>Cilin5T-Mon</t>
+  </si>
+  <si>
+    <t>PT_100_PetraV_02.Ch01.Data</t>
+  </si>
+  <si>
+    <t>Petra V PT - 100 Acoplador</t>
+  </si>
+  <si>
+    <t>PT_100_PetraV_02.Ch02.Data</t>
+  </si>
+  <si>
+    <t>Interlock Geral Petra V</t>
+  </si>
+  <si>
+    <t>Memorias[5].15</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 15</t>
+  </si>
+  <si>
+    <t>Potência de RF</t>
+  </si>
+  <si>
+    <t>Potencia_RF_BO</t>
+  </si>
+  <si>
+    <t>dBm</t>
+  </si>
+  <si>
+    <t>Status do Trafo 150kVA</t>
+  </si>
+  <si>
+    <t>Memorias[0].19</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 19</t>
+  </si>
+  <si>
+    <t>Vazão Rotâmetro - via Skid</t>
+  </si>
+  <si>
+    <t>Memorias[0].20</t>
+  </si>
+  <si>
+    <t>Memorias[0] B 20</t>
+  </si>
+  <si>
+    <t>Chave Pin Lenta</t>
+  </si>
+  <si>
+    <t>PinSw-Mon</t>
+  </si>
+  <si>
+    <t>Memorias[6].1</t>
+  </si>
+  <si>
+    <t>Memorias[6] B 1</t>
+  </si>
+  <si>
+    <t>Desliga Conversores DC/DC</t>
+  </si>
+  <si>
+    <t>PwrCnvDsbl-Sel</t>
+  </si>
+  <si>
+    <t>Memorias[5].29</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 29</t>
+  </si>
+  <si>
+    <t>Liga Conversores DC/DC</t>
+  </si>
+  <si>
+    <t>PwrCnvEnbl-Sel</t>
+  </si>
+  <si>
+    <t>Memorias[5].23</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 23</t>
+  </si>
+  <si>
+    <t>Leitura Conversores DC/DC</t>
+  </si>
+  <si>
+    <t>PwrCnv-Sts</t>
+  </si>
+  <si>
+    <t>Memorias[6].0</t>
+  </si>
+  <si>
+    <t>Memorias[6] B 0</t>
+  </si>
+  <si>
+    <t>Desliga 300VDC</t>
+  </si>
+  <si>
+    <t>300VdcDsbl-Sel</t>
+  </si>
+  <si>
+    <t>Memorias[5].27</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 27</t>
+  </si>
+  <si>
+    <t>Liga 300 VDC</t>
+  </si>
+  <si>
+    <t>300VdcEnbl-Sel</t>
+  </si>
+  <si>
+    <t>Memorias[5].20</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 20</t>
+  </si>
+  <si>
+    <t>Leitura Liga 300 VDC</t>
+  </si>
+  <si>
+    <t>300Vdc-Sts</t>
+  </si>
+  <si>
+    <t>Memorias[6].2</t>
+  </si>
+  <si>
+    <t>Memorias[6] B 2</t>
+  </si>
+  <si>
+    <t>Interlock Geral SSA</t>
+  </si>
+  <si>
+    <t>Memorias[5].12</t>
+  </si>
+  <si>
+    <t>Memorias[5] B 12</t>
+  </si>
+  <si>
     <t>Memorias[5].7</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Memorias[5] B 7</t>
-  </si>
-  <si>
-    <t>Termostato Barra Dissipadora 01</t>
-  </si>
-  <si>
-    <t>ToBO</t>
-  </si>
-  <si>
-    <t>H01</t>
-  </si>
-  <si>
-    <t>Memorias[0].21</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 21</t>
-  </si>
-  <si>
-    <t>Termostato Barra Dissipadora 02</t>
-  </si>
-  <si>
-    <t>H02</t>
-  </si>
-  <si>
-    <t>Memorias[0].22</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 22</t>
-  </si>
-  <si>
-    <t>Termostato Barra Dissipadora 03</t>
-  </si>
-  <si>
-    <t>H03</t>
-  </si>
-  <si>
-    <t>Memorias[0].23</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 23</t>
-  </si>
-  <si>
-    <t>Termostato Barra Dissipadora 04</t>
-  </si>
-  <si>
-    <t>H04</t>
-  </si>
-  <si>
-    <t>Memorias[0].24</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 24</t>
-  </si>
-  <si>
-    <t>Termostato Barra Dissipadora 05</t>
-  </si>
-  <si>
-    <t>H05</t>
-  </si>
-  <si>
-    <t>Memorias[0].25</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 25</t>
-  </si>
-  <si>
-    <t>Termostato Barra Dissipadora 06</t>
-  </si>
-  <si>
-    <t>H06</t>
-  </si>
-  <si>
-    <t>Memorias[0].26</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 26</t>
-  </si>
-  <si>
-    <t>PT - 100 Barra Dissipadora 01</t>
-  </si>
-  <si>
-    <t>PT_100_T_Booster_01.Ch00.Data</t>
-  </si>
-  <si>
-    <t>Analog</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>PT - 100 Barra Dissipadora 02</t>
-  </si>
-  <si>
-    <t>PT_100_T_Booster_01.Ch01.Data</t>
-  </si>
-  <si>
-    <t>PT - 100 Barra Dissipadora 03</t>
-  </si>
-  <si>
-    <t>PT_100_T_Booster_01.Ch02.Data</t>
-  </si>
-  <si>
-    <t>PT - 100 Barra Dissipadora 04</t>
-  </si>
-  <si>
-    <t>PT_100_T_Booster_01.Ch03.Data</t>
-  </si>
-  <si>
-    <t>PT - 100 Barra Dissipadora 05</t>
-  </si>
-  <si>
-    <t>PT_100_T_Booster_02.Ch00.Data</t>
-  </si>
-  <si>
-    <t>PT - 100 Barra Dissipadora 06</t>
-  </si>
-  <si>
-    <t>PT_100_T_Booster_02.Ch01.Data</t>
-  </si>
-  <si>
-    <t>Interlock Sirius</t>
-  </si>
-  <si>
-    <t>05D</t>
-  </si>
-  <si>
-    <t>BO-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].2</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 2</t>
-  </si>
-  <si>
-    <t>Sinal de erro do CLP para o LLRF</t>
-  </si>
-  <si>
-    <t>Memorias[6].3</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Memorias[6] B 3</t>
-  </si>
-  <si>
-    <t>Emergencia sistema de interlock</t>
-  </si>
-  <si>
-    <t>Memorias[1].6</t>
-  </si>
-  <si>
-    <t>Memorias[1] B 6</t>
-  </si>
-  <si>
-    <t>Reset de Falhas - Reseta todas as falhas do sistema remotamente</t>
-  </si>
-  <si>
-    <t>Memorias[5].19</t>
-  </si>
-  <si>
-    <t>Memorias[5] B 19</t>
-  </si>
-  <si>
-    <t>Memorias[0].0</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 0</t>
-  </si>
-  <si>
-    <t>Interlock LLRF para o CLP</t>
-  </si>
-  <si>
-    <t>Memorias[0].1</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 1</t>
-  </si>
-  <si>
-    <t>Termostato Pré-Amp 50 W</t>
-  </si>
-  <si>
-    <t>PT - 100 Pré - Amplificador 50 W</t>
-  </si>
-  <si>
-    <t>PT_100_T_Booster_02.Ch02.Data</t>
-  </si>
-  <si>
-    <t>Habilita Pré - Amplificador</t>
-  </si>
-  <si>
-    <t>Enbl-Mon</t>
-  </si>
-  <si>
-    <t>Vácuo Petra V</t>
-  </si>
-  <si>
-    <t>P5Cav</t>
-  </si>
-  <si>
-    <t>Pressure-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].3</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petra V Termostato Disco 01 </t>
-  </si>
-  <si>
-    <t>Disc1Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].4</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 4</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Cilindro 01</t>
-  </si>
-  <si>
-    <t>Cilin1Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].5</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 5</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Disco 02</t>
-  </si>
-  <si>
-    <t>Disc2Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].6</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 6</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Cilindro 02</t>
-  </si>
-  <si>
-    <t>Cilin2Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].7</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 7</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Disco 03</t>
-  </si>
-  <si>
-    <t>Disc3Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].8</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 8</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Cilindro 03</t>
-  </si>
-  <si>
-    <t>Cilin3Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].9</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 9</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Disco 04</t>
-  </si>
-  <si>
-    <t>Disc4Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].10</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 10</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Cilindro 04</t>
-  </si>
-  <si>
-    <t>Cilin4Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].11</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 11</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Disco 05</t>
-  </si>
-  <si>
-    <t>Disc5Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].12</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 12</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Cilindro 05</t>
-  </si>
-  <si>
-    <t>Cilin5Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].13</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 13</t>
-  </si>
-  <si>
-    <t>Petra V Termostato Disco 06</t>
-  </si>
-  <si>
-    <t>Disc6Tms-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].14</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 14</t>
-  </si>
-  <si>
-    <t>Petra V Chave de Fluxo 01</t>
-  </si>
-  <si>
-    <t>Hd1FlwRt-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].15</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 15</t>
-  </si>
-  <si>
-    <t>Petra V Chave de Fluxo 02</t>
-  </si>
-  <si>
-    <t>Hd2FlwRt-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].16</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 16</t>
-  </si>
-  <si>
-    <t>Petra V Chave de Fluxo 03</t>
-  </si>
-  <si>
-    <t>Hd3FlwRt-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].17</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 17</t>
-  </si>
-  <si>
-    <t>Petra V Sensor de Pressão</t>
-  </si>
-  <si>
-    <t>CoupPressure-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[0].18</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petra V Pt - 100 Cilindro 01 </t>
-  </si>
-  <si>
-    <t>Cilin1T-Mon</t>
-  </si>
-  <si>
-    <t>PT_100_PetraV_01.Ch01.Data</t>
-  </si>
-  <si>
-    <t>Petra V Pt - 100 Cilindro 02</t>
-  </si>
-  <si>
-    <t>Cilin2T-Mon</t>
-  </si>
-  <si>
-    <t>PT_100_PetraV_01.Ch02.Data</t>
-  </si>
-  <si>
-    <t>Petra V Pt - 100 Cilindro 03</t>
-  </si>
-  <si>
-    <t>Cilin3T-Mon</t>
-  </si>
-  <si>
-    <t>PT_100_PetraV_01.Ch03.Data</t>
-  </si>
-  <si>
-    <t>Petra V Pt - 100 Cilindro 04</t>
-  </si>
-  <si>
-    <t>Cilin4T-Mon</t>
-  </si>
-  <si>
-    <t>PT_100_PetraV_02.Ch00.Data</t>
-  </si>
-  <si>
-    <t>Petra V Pt - 100 Cilindro 05</t>
-  </si>
-  <si>
-    <t>Cilin5T-Mon</t>
-  </si>
-  <si>
-    <t>PT_100_PetraV_02.Ch01.Data</t>
-  </si>
-  <si>
-    <t>Petra V PT - 100 Acoplador</t>
-  </si>
-  <si>
-    <t>PT_100_PetraV_02.Ch02.Data</t>
-  </si>
-  <si>
-    <t>Interlock Geral Petra V</t>
-  </si>
-  <si>
-    <t>Memorias[7].16</t>
-  </si>
-  <si>
-    <t>Memorias[7] B 16</t>
-  </si>
-  <si>
-    <t>Potência de RF</t>
-  </si>
-  <si>
-    <t>Potencia_RF_BO</t>
-  </si>
-  <si>
-    <t>dBm</t>
-  </si>
-  <si>
-    <t>Status do Trafo 150kVA</t>
-  </si>
-  <si>
-    <t>Memorias[0].19</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 19</t>
-  </si>
-  <si>
-    <t>Vazão Rotâmetro - via Skid</t>
-  </si>
-  <si>
-    <t>Memorias[0].20</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 20</t>
-  </si>
-  <si>
-    <t>Chave Pin Lenta</t>
-  </si>
-  <si>
-    <t>PinSw-Mon</t>
-  </si>
-  <si>
-    <t>Memorias[6].1</t>
-  </si>
-  <si>
-    <t>Memorias[6] B 1</t>
-  </si>
-  <si>
-    <t>Desliga Conversores DC/DC</t>
-  </si>
-  <si>
-    <t>PwrCnvDsbl-Sel</t>
-  </si>
-  <si>
-    <t>Memorias[5].29</t>
-  </si>
-  <si>
-    <t>Memorias[5] B 29</t>
-  </si>
-  <si>
-    <t>Liga Conversores DC/DC</t>
-  </si>
-  <si>
-    <t>PwrCnvEnbl-Sel</t>
-  </si>
-  <si>
-    <t>Memorias[5].23</t>
-  </si>
-  <si>
-    <t>Memorias[5] B 23</t>
-  </si>
-  <si>
-    <t>Leitura Conversores DC/DC</t>
-  </si>
-  <si>
-    <t>PwrCnv-Sts</t>
-  </si>
-  <si>
-    <t>Memorias[6].0</t>
-  </si>
-  <si>
-    <t>Memorias[6] B 0</t>
-  </si>
-  <si>
-    <t>Desliga 300VDC</t>
-  </si>
-  <si>
-    <t>300VdcDsbl-Sel</t>
-  </si>
-  <si>
-    <t>Memorias[0].27</t>
-  </si>
-  <si>
-    <t>Memorias[0] B 27</t>
-  </si>
-  <si>
-    <t>Liga 300 VDC</t>
-  </si>
-  <si>
-    <t>300VdcEnbl-Sel</t>
-  </si>
-  <si>
-    <t>Leitura Liga 300 VDC</t>
-  </si>
-  <si>
-    <t>300Vdc-Sts</t>
-  </si>
-  <si>
-    <t>Memorias[6].2</t>
-  </si>
-  <si>
-    <t>Memorias[6] B 2</t>
-  </si>
-  <si>
-    <t>Interlock Geral SSA</t>
-  </si>
-  <si>
-    <t>Memorias[5].12</t>
-  </si>
-  <si>
-    <t>Memorias[5] B 12</t>
   </si>
   <si>
     <t>Entrada Analogica Reserva CLP Booster 01</t>
@@ -9437,8 +9443,8 @@
   <dimension ref="A1:O1048573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+      <pane ySplit="1" topLeftCell="I49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9744,8 +9750,9 @@
       <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>8</v>
+      <c r="I7" s="34" t="str">
+        <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7)</f>
+        <v>RA-TL:RF-Circulator-BO:Sts-Mon</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>262</v>
@@ -9959,7 +9966,7 @@
         <v>42</v>
       </c>
       <c r="I12" s="34" t="str">
-        <f>IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12,C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12)</f>
+        <f t="shared" ref="I12:I20" si="0">IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12,C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12)</f>
         <v>RA-TL:RF-Circulator-BO:LoadFlwRt-Mon</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -10001,22 +10008,22 @@
       <c r="H13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="35" t="str">
-        <f>IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13,C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13)</f>
+      <c r="I13" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>RA-TL:RF-Circulator-BO:Sts-Mon</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>277</v>
+      <c r="J13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="15" t="s">
-        <v>278</v>
+      <c r="N13" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -10024,13 +10031,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>17</v>
@@ -10039,17 +10046,17 @@
         <v>46</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="34" t="str">
-        <f>IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14,C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14)</f>
+        <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H01:Tms-Mon</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>248</v>
@@ -10059,7 +10066,7 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -10067,13 +10074,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
@@ -10082,17 +10089,17 @@
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="34" t="str">
-        <f>IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15,C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15)</f>
+        <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H02:Tms-Mon</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>248</v>
@@ -10102,7 +10109,7 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -10110,13 +10117,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>17</v>
@@ -10125,17 +10132,17 @@
         <v>46</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I16" s="34" t="str">
-        <f>IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16,C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16)</f>
+        <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H03:Tms-Mon</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>248</v>
@@ -10145,7 +10152,7 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -10153,13 +10160,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>17</v>
@@ -10168,17 +10175,17 @@
         <v>46</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="34" t="str">
-        <f>IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17,C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17)</f>
+        <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H04:Tms-Mon</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>248</v>
@@ -10188,7 +10195,7 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -10196,13 +10203,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -10211,17 +10218,17 @@
         <v>46</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I18" s="34" t="str">
-        <f>IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18)</f>
+        <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H05:Tms-Mon</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>248</v>
@@ -10231,7 +10238,7 @@
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -10239,13 +10246,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>17</v>
@@ -10254,17 +10261,17 @@
         <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I19" s="34" t="str">
-        <f>IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19,C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19)</f>
+        <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H06:Tms-Mon</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>248</v>
@@ -10274,7 +10281,7 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -10282,13 +10289,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
@@ -10297,29 +10304,29 @@
         <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I20" s="34" t="str">
-        <f>IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20,C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20)</f>
+        <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H01:T-Mon</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -10327,13 +10334,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
@@ -10342,7 +10349,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>80</v>
@@ -10352,19 +10359,19 @@
         <v>RA-ToBO:RF-HeatSink-H02:T-Mon</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -10372,13 +10379,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
@@ -10387,7 +10394,7 @@
         <v>46</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>80</v>
@@ -10397,19 +10404,19 @@
         <v>RA-ToBO:RF-HeatSink-H03:T-Mon</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -10417,13 +10424,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>17</v>
@@ -10432,7 +10439,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>80</v>
@@ -10442,19 +10449,19 @@
         <v>RA-ToBO:RF-HeatSink-H04:T-Mon</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -10462,13 +10469,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>17</v>
@@ -10477,7 +10484,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>80</v>
@@ -10487,19 +10494,19 @@
         <v>RA-ToBO:RF-HeatSink-H05:T-Mon</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -10507,13 +10514,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>17</v>
@@ -10522,7 +10529,7 @@
         <v>46</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>80</v>
@@ -10532,19 +10539,19 @@
         <v>RA-ToBO:RF-HeatSink-H06:T-Mon</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -10552,13 +10559,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>17</v>
@@ -10570,14 +10577,14 @@
         <v>133</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I26" s="34" t="str">
         <f>IF(G26="-",C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;":"&amp;H26,C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;"-"&amp;G26&amp;":"&amp;H26)</f>
         <v>BO-05D:RF-Intlk:BO-Mon</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>248</v>
@@ -10587,7 +10594,7 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -10595,13 +10602,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>17</v>
@@ -10620,17 +10627,17 @@
         <v>BO-05D:RF-Intlk:LLRF-Mon</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -10638,13 +10645,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>17</v>
@@ -10663,7 +10670,7 @@
         <v>BO-05D:RF-Intlk:EStop-Mon</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>248</v>
@@ -10673,7 +10680,7 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -10681,13 +10688,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>17</v>
@@ -10706,17 +10713,17 @@
         <v>BO-05D:RF-Intlk:Reset-Sel</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -10730,7 +10737,7 @@
         <v>246</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>17</v>
@@ -10749,7 +10756,7 @@
         <v>BO-05D:RF-LLRF:Status-Mon</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>248</v>
@@ -10759,7 +10766,7 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -10767,13 +10774,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>17</v>
@@ -10792,7 +10799,7 @@
         <v>BO-05D:RF-LLRF:Intlk-Mon</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>248</v>
@@ -10802,7 +10809,7 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -10810,13 +10817,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>17</v>
@@ -10853,13 +10860,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>17</v>
@@ -10878,19 +10885,19 @@
         <v>BO-05D:RF-LLRFPreAmp:T-Mon</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -10898,13 +10905,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E34" s="27" t="s">
         <v>17</v>
@@ -10916,7 +10923,7 @@
         <v>133</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I34" s="36" t="str">
         <f>IF(G34="-",C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;":"&amp;H34,C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;"-"&amp;G34&amp;":"&amp;H34)</f>
@@ -10929,7 +10936,7 @@
         <v>248</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
@@ -10941,32 +10948,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I35" s="34" t="str">
         <f>IF(G35="-",C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;":"&amp;H35,C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;"-"&amp;G35&amp;":"&amp;H35)</f>
         <v>BO-05D:RF-P5Cav:Pressure-Mon</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>248</v>
@@ -10976,7 +10983,7 @@
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -10984,32 +10991,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I36" s="34" t="str">
         <f>IF(G36="-",C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;":"&amp;H36,C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;"-"&amp;G36&amp;":"&amp;H36)</f>
         <v>BO-05D:RF-P5Cav:Disc1Tms-Mon</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>248</v>
@@ -11019,7 +11026,7 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -11027,32 +11034,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I37" s="34" t="str">
         <f>IF(G37="-",C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;":"&amp;H37,C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;"-"&amp;G37&amp;":"&amp;H37)</f>
         <v>BO-05D:RF-P5Cav:Cilin1Tms-Mon</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>248</v>
@@ -11062,7 +11069,7 @@
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -11070,32 +11077,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I38" s="34" t="str">
         <f>IF(G38="-",C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;":"&amp;H38,C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;"-"&amp;G38&amp;":"&amp;H38)</f>
         <v>BO-05D:RF-P5Cav:Disc2Tms-Mon</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>248</v>
@@ -11105,7 +11112,7 @@
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -11113,32 +11120,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I39" s="34" t="str">
         <f>IF(G39="-",C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;":"&amp;H39,C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;"-"&amp;G39&amp;":"&amp;H39)</f>
         <v>BO-05D:RF-P5Cav:Cilin2Tms-Mon</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>248</v>
@@ -11148,7 +11155,7 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -11156,32 +11163,32 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I40" s="34" t="str">
         <f>IF(G40="-",C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;":"&amp;H40,C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;"-"&amp;G40&amp;":"&amp;H40)</f>
         <v>BO-05D:RF-P5Cav:Disc3Tms-Mon</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>248</v>
@@ -11191,7 +11198,7 @@
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -11199,32 +11206,32 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I41" s="34" t="str">
         <f>IF(G41="-",C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;":"&amp;H41,C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;"-"&amp;G41&amp;":"&amp;H41)</f>
         <v>BO-05D:RF-P5Cav:Cilin3Tms-Mon</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>248</v>
@@ -11234,7 +11241,7 @@
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -11242,32 +11249,32 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I42" s="34" t="str">
         <f>IF(G42="-",C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;":"&amp;H42,C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;"-"&amp;G42&amp;":"&amp;H42)</f>
         <v>BO-05D:RF-P5Cav:Disc4Tms-Mon</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>248</v>
@@ -11277,7 +11284,7 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -11285,32 +11292,32 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I43" s="34" t="str">
         <f>IF(G43="-",C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;":"&amp;H43,C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;"-"&amp;G43&amp;":"&amp;H43)</f>
         <v>BO-05D:RF-P5Cav:Cilin4Tms-Mon</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>248</v>
@@ -11320,7 +11327,7 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -11328,32 +11335,32 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I44" s="34" t="str">
         <f>IF(G44="-",C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;":"&amp;H44,C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;"-"&amp;G44&amp;":"&amp;H44)</f>
         <v>BO-05D:RF-P5Cav:Disc5Tms-Mon</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>248</v>
@@ -11363,7 +11370,7 @@
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -11371,32 +11378,32 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I45" s="34" t="str">
         <f>IF(G45="-",C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;":"&amp;H45,C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;"-"&amp;G45&amp;":"&amp;H45)</f>
         <v>BO-05D:RF-P5Cav:Cilin5Tms-Mon</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>248</v>
@@ -11406,7 +11413,7 @@
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -11414,32 +11421,32 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I46" s="34" t="str">
         <f>IF(G46="-",C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;":"&amp;H46,C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;"-"&amp;G46&amp;":"&amp;H46)</f>
         <v>BO-05D:RF-P5Cav:Disc6Tms-Mon</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>248</v>
@@ -11449,7 +11456,7 @@
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -11457,32 +11464,32 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I47" s="34" t="str">
         <f>IF(G47="-",C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;":"&amp;H47,C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;"-"&amp;G47&amp;":"&amp;H47)</f>
         <v>BO-05D:RF-P5Cav:Hd1FlwRt-Mon</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>248</v>
@@ -11492,7 +11499,7 @@
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -11500,32 +11507,32 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I48" s="34" t="str">
         <f>IF(G48="-",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;":"&amp;H48,C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;"-"&amp;G48&amp;":"&amp;H48)</f>
         <v>BO-05D:RF-P5Cav:Hd2FlwRt-Mon</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>248</v>
@@ -11535,7 +11542,7 @@
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -11543,32 +11550,32 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I49" s="34" t="str">
         <f>IF(G49="-",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;":"&amp;H49,C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;"-"&amp;G49&amp;":"&amp;H49)</f>
         <v>BO-05D:RF-P5Cav:Hd3FlwRt-Mon</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>248</v>
@@ -11578,7 +11585,7 @@
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -11586,32 +11593,32 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I50" s="34" t="str">
         <f>IF(G50="-",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;":"&amp;H50,C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;"-"&amp;G50&amp;":"&amp;H50)</f>
         <v>BO-05D:RF-P5Cav:CoupPressure-Mon</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>248</v>
@@ -11621,7 +11628,7 @@
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -11629,44 +11636,44 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I51" s="34" t="str">
         <f>IF(G51="-",C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;":"&amp;H51,C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;"-"&amp;G51&amp;":"&amp;H51)</f>
         <v>BO-05D:RF-P5Cav:Cilin1T-Mon</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -11674,44 +11681,44 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I52" s="34" t="str">
         <f>IF(G52="-",C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;":"&amp;H52,C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;"-"&amp;G52&amp;":"&amp;H52)</f>
         <v>BO-05D:RF-P5Cav:Cilin2T-Mon</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -11719,44 +11726,44 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I53" s="34" t="str">
         <f>IF(G53="-",C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;":"&amp;H53,C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;"-"&amp;G53&amp;":"&amp;H53)</f>
         <v>BO-05D:RF-P5Cav:Cilin3T-Mon</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -11764,44 +11771,44 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I54" s="34" t="str">
         <f>IF(G54="-",C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;":"&amp;H54,C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;"-"&amp;G54&amp;":"&amp;H54)</f>
         <v>BO-05D:RF-P5Cav:Cilin4T-Mon</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -11809,44 +11816,44 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I55" s="34" t="str">
         <f>IF(G55="-",C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;":"&amp;H55,C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;"-"&amp;G55&amp;":"&amp;H55)</f>
         <v>BO-05D:RF-P5Cav:Cilin5T-Mon</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -11854,19 +11861,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>246</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>133</v>
@@ -11879,19 +11886,19 @@
         <v>BO-05D:RF-P5Cav:CoupT-Mon</v>
       </c>
       <c r="J56" s="32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L56" s="32" t="s">
         <v>249</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N56" s="32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="16" customFormat="1">
@@ -11899,19 +11906,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>246</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>133</v>
@@ -11924,17 +11931,17 @@
         <v>BO-05D:RF-P5Cav:Sts-Mon</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>248</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O57" s="30"/>
     </row>
@@ -11943,13 +11950,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>17</v>
@@ -11968,19 +11975,19 @@
         <v>RA-ToBO:RF-SSAmpTower:PwrRF-Mon</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -11988,13 +11995,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>17</v>
@@ -12013,7 +12020,7 @@
         <v>RA-ToBO:RF-SSAmpTower:PwrACOp-Mon</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>248</v>
@@ -12023,7 +12030,7 @@
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -12031,13 +12038,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>17</v>
@@ -12056,7 +12063,7 @@
         <v>RA-ToBO:RF-SSAmpTower:HdFlwRt-Mon</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>248</v>
@@ -12066,7 +12073,7 @@
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -12074,13 +12081,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>17</v>
@@ -12092,24 +12099,24 @@
         <v>133</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I61" s="34" t="str">
         <f>IF(G61="-",C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;":"&amp;H61,C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;"-"&amp;G61&amp;":"&amp;H61)</f>
         <v>RA-ToBO:RF-SSAmpTower:PinSw-Mon</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -12117,13 +12124,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>17</v>
@@ -12135,24 +12142,24 @@
         <v>133</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I62" s="34" t="str">
         <f>IF(G62="-",C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;":"&amp;H62,C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;"-"&amp;G62&amp;":"&amp;H62)</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrCnvDsbl-Sel</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -12160,13 +12167,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>17</v>
@@ -12178,24 +12185,24 @@
         <v>133</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I63" s="34" t="str">
         <f>IF(G63="-",C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;":"&amp;H63,C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;"-"&amp;G63&amp;":"&amp;H63)</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrCnvEnbl-Sel</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -12203,13 +12210,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>17</v>
@@ -12221,24 +12228,24 @@
         <v>133</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I64" s="34" t="str">
         <f>IF(G64="-",C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;":"&amp;H64,C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;"-"&amp;G64&amp;":"&amp;H64)</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrCnv-Sts</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -12246,13 +12253,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>17</v>
@@ -12264,24 +12271,24 @@
         <v>133</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I65" s="34" t="str">
-        <f t="shared" ref="I65:I67" si="0">IF(G65="-",C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;":"&amp;H65,C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;"-"&amp;G65&amp;":"&amp;H65)</f>
+        <f t="shared" ref="I65:I67" si="1">IF(G65="-",C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;":"&amp;H65,C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;"-"&amp;G65&amp;":"&amp;H65)</f>
         <v>RA-ToBO:RF-SSAmpTower:300VdcDsbl-Sel</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -12289,13 +12296,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>17</v>
@@ -12307,24 +12314,24 @@
         <v>133</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I66" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmpTower:300VdcEnbl-Sel</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -12338,7 +12345,7 @@
         <v>15</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>17</v>
@@ -12353,7 +12360,7 @@
         <v>460</v>
       </c>
       <c r="I67" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmpTower:300Vdc-Sts</v>
       </c>
       <c r="J67" s="4" t="s">
@@ -12363,7 +12370,7 @@
         <v>248</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4" t="s">
@@ -12381,7 +12388,7 @@
         <v>246</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>17</v>
@@ -12406,7 +12413,7 @@
         <v>248</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="15" t="s">
@@ -12443,17 +12450,17 @@
         <v>RA-TL:RF-TrLine-BO:Sts-Mon</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>276</v>
+        <v>466</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>248</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="15" t="s">
-        <v>278</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -12461,13 +12468,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>17</v>
@@ -12476,27 +12483,27 @@
         <v>132</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I70" s="34" t="str">
         <f>IF(G70="-",C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;":"&amp;H70,C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;"-"&amp;G70&amp;":"&amp;H70)</f>
         <v>BO-05D:RF-Intlk-In01:AnalogSpare-Mon</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -12504,13 +12511,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>17</v>
@@ -12519,27 +12526,27 @@
         <v>132</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I71" s="34" t="str">
-        <f t="shared" ref="I70:I123" si="1">IF(G71="-",C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;":"&amp;H71,C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;"-"&amp;G71&amp;":"&amp;H71)</f>
+        <f t="shared" ref="I70:I123" si="2">IF(G71="-",C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;":"&amp;H71,C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;"-"&amp;G71&amp;":"&amp;H71)</f>
         <v>BO-05D:RF-Intlk-In02:AnalogSpare-Mon</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -12547,13 +12554,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>17</v>
@@ -12562,27 +12569,27 @@
         <v>132</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I72" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In03:AnalogSpare-Mon</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -12590,13 +12597,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>17</v>
@@ -12605,27 +12612,27 @@
         <v>132</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I73" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In04:AnalogSpare-Mon</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -12633,13 +12640,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>17</v>
@@ -12648,27 +12655,27 @@
         <v>132</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I74" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In05:AnalogSpare-Mon</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -12676,13 +12683,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>17</v>
@@ -12691,27 +12698,27 @@
         <v>132</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I75" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In06:AnalogSpare-Mon</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -12719,13 +12726,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>17</v>
@@ -12734,27 +12741,27 @@
         <v>132</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I76" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In07:AnalogSpare-Mon</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -12762,13 +12769,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>17</v>
@@ -12777,27 +12784,27 @@
         <v>132</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I77" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In08:AnalogSpare-Mon</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -12805,13 +12812,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>17</v>
@@ -12820,27 +12827,27 @@
         <v>132</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I78" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In09:AnalogSpare-Mon</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -12848,13 +12855,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>17</v>
@@ -12863,27 +12870,27 @@
         <v>132</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I79" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In10:AnalogSpare-Mon</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -12891,13 +12898,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>17</v>
@@ -12906,27 +12913,27 @@
         <v>132</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I80" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In11:AnalogSpare-Mon</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -12934,13 +12941,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>17</v>
@@ -12949,27 +12956,27 @@
         <v>132</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I81" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In12:AnalogSpare-Mon</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -12977,13 +12984,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>17</v>
@@ -12992,27 +12999,27 @@
         <v>132</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I82" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In13:AnalogSpare-Mon</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -13020,13 +13027,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>17</v>
@@ -13035,27 +13042,27 @@
         <v>132</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I83" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In14:AnalogSpare-Mon</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -13063,13 +13070,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>17</v>
@@ -13078,27 +13085,27 @@
         <v>132</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I84" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In15:AnalogSpare-Mon</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -13106,13 +13113,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>17</v>
@@ -13121,27 +13128,27 @@
         <v>132</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I85" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In16:AnalogSpare-Mon</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L85" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -13149,13 +13156,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>17</v>
@@ -13164,27 +13171,27 @@
         <v>132</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I86" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In17:AnalogSpare-Mon</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -13192,13 +13199,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>17</v>
@@ -13207,27 +13214,27 @@
         <v>132</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I87" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In18:AnalogSpare-Mon</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>249</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -13235,13 +13242,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>17</v>
@@ -13250,17 +13257,17 @@
         <v>132</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I88" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In01:DigitalSpare-Mon</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>248</v>
@@ -13270,7 +13277,7 @@
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -13278,13 +13285,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>17</v>
@@ -13293,17 +13300,17 @@
         <v>132</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I89" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In02:DigitalSpare-Mon</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>248</v>
@@ -13313,7 +13320,7 @@
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -13321,13 +13328,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>17</v>
@@ -13336,17 +13343,17 @@
         <v>132</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I90" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In03:DigitalSpare-Mon</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>248</v>
@@ -13356,7 +13363,7 @@
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -13364,13 +13371,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>17</v>
@@ -13379,17 +13386,17 @@
         <v>132</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I91" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In04:DigitalSpare-Mon</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>248</v>
@@ -13399,7 +13406,7 @@
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -13407,13 +13414,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>17</v>
@@ -13422,17 +13429,17 @@
         <v>132</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I92" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In05:DigitalSpare-Mon</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>248</v>
@@ -13442,7 +13449,7 @@
       </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -13450,13 +13457,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>17</v>
@@ -13465,17 +13472,17 @@
         <v>132</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I93" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In06:DigitalSpare-Mon</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>248</v>
@@ -13485,7 +13492,7 @@
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -13493,13 +13500,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>17</v>
@@ -13508,17 +13515,17 @@
         <v>132</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I94" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In07:DigitalSpare-Mon</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>248</v>
@@ -13528,7 +13535,7 @@
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -13536,13 +13543,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>17</v>
@@ -13551,17 +13558,17 @@
         <v>132</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I95" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In08:DigitalSpare-Mon</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>248</v>
@@ -13571,7 +13578,7 @@
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -13579,13 +13586,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>17</v>
@@ -13594,17 +13601,17 @@
         <v>132</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I96" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In09:DigitalSpare-Mon</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>248</v>
@@ -13614,7 +13621,7 @@
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -13622,13 +13629,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>17</v>
@@ -13637,17 +13644,17 @@
         <v>132</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I97" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In10:DigitalSpare-Mon</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>248</v>
@@ -13657,7 +13664,7 @@
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -13665,13 +13672,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>17</v>
@@ -13680,17 +13687,17 @@
         <v>132</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I98" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In11:DigitalSpare-Mon</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>248</v>
@@ -13700,7 +13707,7 @@
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -13708,13 +13715,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>17</v>
@@ -13723,17 +13730,17 @@
         <v>132</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I99" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In12:DigitalSpare-Mon</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>248</v>
@@ -13743,7 +13750,7 @@
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -13751,13 +13758,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>17</v>
@@ -13766,17 +13773,17 @@
         <v>132</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I100" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In13:DigitalSpare-Mon</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>248</v>
@@ -13786,7 +13793,7 @@
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -13794,13 +13801,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>17</v>
@@ -13809,17 +13816,17 @@
         <v>132</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I101" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In14:DigitalSpare-Mon</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>248</v>
@@ -13829,7 +13836,7 @@
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -13837,13 +13844,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>17</v>
@@ -13852,17 +13859,17 @@
         <v>132</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I102" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In15:DigitalSpare-Mon</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>248</v>
@@ -13872,7 +13879,7 @@
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -13880,13 +13887,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>17</v>
@@ -13895,17 +13902,17 @@
         <v>132</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I103" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In16:DigitalSpare-Mon</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>248</v>
@@ -13915,7 +13922,7 @@
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -13923,13 +13930,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>17</v>
@@ -13938,17 +13945,17 @@
         <v>132</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I104" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In17:DigitalSpare-Mon</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>248</v>
@@ -13958,7 +13965,7 @@
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -13966,13 +13973,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>17</v>
@@ -13981,17 +13988,17 @@
         <v>132</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I105" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In18:DigitalSpare-Mon</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>248</v>
@@ -14001,7 +14008,7 @@
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -14009,13 +14016,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>17</v>
@@ -14024,17 +14031,17 @@
         <v>132</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I106" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In19:DigitalSpare-Mon</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>248</v>
@@ -14044,7 +14051,7 @@
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -14052,13 +14059,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>17</v>
@@ -14067,17 +14074,17 @@
         <v>132</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I107" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In20:DigitalSpare-Mon</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>248</v>
@@ -14087,7 +14094,7 @@
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -14095,13 +14102,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>17</v>
@@ -14110,17 +14117,17 @@
         <v>132</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I108" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In21:DigitalSpare-Mon</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>248</v>
@@ -14130,7 +14137,7 @@
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -14138,13 +14145,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>17</v>
@@ -14153,17 +14160,17 @@
         <v>132</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I109" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In22:DigitalSpare-Mon</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>248</v>
@@ -14173,7 +14180,7 @@
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -14181,13 +14188,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>17</v>
@@ -14196,17 +14203,17 @@
         <v>132</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I110" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In23:DigitalSpare-Mon</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>248</v>
@@ -14216,7 +14223,7 @@
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -14224,13 +14231,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>17</v>
@@ -14239,17 +14246,17 @@
         <v>132</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I111" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In24:DigitalSpare-Mon</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>248</v>
@@ -14259,7 +14266,7 @@
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -14267,13 +14274,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>17</v>
@@ -14282,17 +14289,17 @@
         <v>132</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I112" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-In25:DigitalSpare-Mon</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>248</v>
@@ -14302,7 +14309,7 @@
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -14310,13 +14317,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>17</v>
@@ -14325,27 +14332,27 @@
         <v>132</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I113" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out01:DigitalSpare-Mon</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -14353,13 +14360,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>17</v>
@@ -14368,27 +14375,27 @@
         <v>132</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I114" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out02:DigitalSpare-Mon</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -14396,13 +14403,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>17</v>
@@ -14411,27 +14418,27 @@
         <v>132</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I115" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out03:DigitalSpare-Mon</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -14439,13 +14446,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>17</v>
@@ -14454,27 +14461,27 @@
         <v>132</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I116" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out04:DigitalSpare-Mon</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -14482,13 +14489,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>17</v>
@@ -14497,27 +14504,27 @@
         <v>132</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I117" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out05:DigitalSpare-Mon</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -14525,13 +14532,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>17</v>
@@ -14540,27 +14547,27 @@
         <v>132</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I118" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out06:DigitalSpare-Mon</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -14568,13 +14575,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>17</v>
@@ -14583,27 +14590,27 @@
         <v>132</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I119" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out07:DigitalSpare-Mon</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -14611,13 +14618,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>17</v>
@@ -14626,27 +14633,27 @@
         <v>132</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I120" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out08:DigitalSpare-Mon</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M120" s="4"/>
       <c r="N120" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -14654,13 +14661,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>17</v>
@@ -14669,27 +14676,27 @@
         <v>132</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I121" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out09:DigitalSpare-Mon</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M121" s="4"/>
       <c r="N121" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -14697,13 +14704,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>17</v>
@@ -14712,27 +14719,27 @@
         <v>132</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I122" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out10:DigitalSpare-Mon</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M122" s="4"/>
       <c r="N122" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -14740,13 +14747,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>17</v>
@@ -14755,27 +14762,27 @@
         <v>132</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I123" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BO-05D:RF-Intlk-Out11:DigitalSpare-Mon</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="124" spans="1:14">
